--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="50720" yWindow="-60" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="11180" yWindow="2740" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TR SYNCH=3" sheetId="1" r:id="rId1"/>
+    <sheet name="TR SYNCH=1" sheetId="2" r:id="rId2"/>
+    <sheet name="AU SYCNH=3" sheetId="3" r:id="rId3"/>
+    <sheet name="AU SYNCH=1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
   <si>
     <t>Average Time</t>
   </si>
@@ -40,6 +43,9 @@
   </si>
   <si>
     <t>Run Time (sec)</t>
+  </si>
+  <si>
+    <t>1 Core</t>
   </si>
 </sst>
 </file>
@@ -88,8 +94,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -119,7 +135,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -131,6 +147,11 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -142,6 +163,11 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -471,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N257"/>
+  <dimension ref="A1:N1025"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -540,6 +566,20 @@
         <f>AVERAGE(G2+G257)</f>
         <v>1471</v>
       </c>
+      <c r="J2">
+        <v>818</v>
+      </c>
+      <c r="K2">
+        <f>AVERAGE(J2:J513)</f>
+        <v>537.234375</v>
+      </c>
+      <c r="M2">
+        <v>1085</v>
+      </c>
+      <c r="N2">
+        <f>AVERAGE(M2:M1025)</f>
+        <v>380.8310546875</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3">
@@ -551,6 +591,12 @@
       <c r="G3">
         <v>775</v>
       </c>
+      <c r="J3">
+        <v>661</v>
+      </c>
+      <c r="M3">
+        <v>763</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
@@ -571,8 +617,14 @@
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="J4">
+        <v>760</v>
+      </c>
       <c r="K4" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="M4">
+        <v>294</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>6</v>
@@ -597,6 +649,18 @@
       <c r="H5">
         <v>9.6699999999999994E-2</v>
       </c>
+      <c r="J5">
+        <v>1527</v>
+      </c>
+      <c r="K5">
+        <v>0.126</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.27489999999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6">
@@ -608,6 +672,12 @@
       <c r="G6">
         <v>938</v>
       </c>
+      <c r="J6">
+        <v>789</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7">
@@ -619,6 +689,12 @@
       <c r="G7">
         <v>793</v>
       </c>
+      <c r="J7">
+        <v>486</v>
+      </c>
+      <c r="M7">
+        <v>623</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8">
@@ -630,6 +706,12 @@
       <c r="G8">
         <v>606</v>
       </c>
+      <c r="J8">
+        <v>326</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9">
@@ -641,6 +723,12 @@
       <c r="G9">
         <v>890</v>
       </c>
+      <c r="J9">
+        <v>816</v>
+      </c>
+      <c r="M9">
+        <v>577</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10">
@@ -652,6 +740,12 @@
       <c r="G10">
         <v>685</v>
       </c>
+      <c r="J10">
+        <v>892</v>
+      </c>
+      <c r="M10">
+        <v>1142</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11">
@@ -663,6 +757,12 @@
       <c r="G11">
         <v>895</v>
       </c>
+      <c r="J11">
+        <v>781</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12">
@@ -674,6 +774,12 @@
       <c r="G12">
         <v>709</v>
       </c>
+      <c r="J12">
+        <v>595</v>
+      </c>
+      <c r="M12">
+        <v>659</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13">
@@ -685,6 +791,12 @@
       <c r="G13">
         <v>684</v>
       </c>
+      <c r="J13">
+        <v>228</v>
+      </c>
+      <c r="M13">
+        <v>473</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14">
@@ -696,6 +808,12 @@
       <c r="G14">
         <v>379</v>
       </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15">
@@ -707,6 +825,12 @@
       <c r="G15">
         <v>767</v>
       </c>
+      <c r="J15">
+        <v>675</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16">
@@ -718,8 +842,14 @@
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>601</v>
       </c>
@@ -729,8 +859,14 @@
       <c r="G17">
         <v>636</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="J17">
+        <v>581</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>596</v>
       </c>
@@ -740,8 +876,14 @@
       <c r="G18">
         <v>592</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="J18">
+        <v>789</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>640</v>
       </c>
@@ -751,8 +893,14 @@
       <c r="G19">
         <v>652</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="J19">
+        <v>693</v>
+      </c>
+      <c r="M19">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>405</v>
       </c>
@@ -762,8 +910,14 @@
       <c r="G20">
         <v>581</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="J20">
+        <v>399</v>
+      </c>
+      <c r="M20">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>641</v>
       </c>
@@ -773,8 +927,14 @@
       <c r="G21">
         <v>977</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="J21">
+        <v>884</v>
+      </c>
+      <c r="M21">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>583</v>
       </c>
@@ -784,8 +944,14 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="J22">
+        <v>951</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>615</v>
       </c>
@@ -795,8 +961,14 @@
       <c r="G23">
         <v>639</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="J23">
+        <v>735</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>623</v>
       </c>
@@ -806,8 +978,14 @@
       <c r="G24">
         <v>358</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="J24">
+        <v>821</v>
+      </c>
+      <c r="M24">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>605</v>
       </c>
@@ -817,8 +995,14 @@
       <c r="G25">
         <v>521</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="J25">
+        <v>753</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>665</v>
       </c>
@@ -828,8 +1012,14 @@
       <c r="G26">
         <v>646</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="J26">
+        <v>664</v>
+      </c>
+      <c r="M26">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>695</v>
       </c>
@@ -839,8 +1029,14 @@
       <c r="G27">
         <v>413</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="J27">
+        <v>634</v>
+      </c>
+      <c r="M27">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>768</v>
       </c>
@@ -850,8 +1046,14 @@
       <c r="G28">
         <v>605</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="J28">
+        <v>761</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>717</v>
       </c>
@@ -861,8 +1063,14 @@
       <c r="G29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="J29">
+        <v>1160</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>712</v>
       </c>
@@ -872,8 +1080,14 @@
       <c r="G30">
         <v>938</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="J30">
+        <v>478</v>
+      </c>
+      <c r="M30">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>675</v>
       </c>
@@ -883,8 +1097,14 @@
       <c r="G31">
         <v>511</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="J31">
+        <v>669</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>610</v>
       </c>
@@ -894,8 +1114,14 @@
       <c r="G32">
         <v>583</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>859</v>
       </c>
@@ -905,8 +1131,14 @@
       <c r="G33">
         <v>748</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>651</v>
       </c>
@@ -916,8 +1148,14 @@
       <c r="G34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>689</v>
       </c>
@@ -927,8 +1165,14 @@
       <c r="G35">
         <v>519</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="J35">
+        <v>872</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>619</v>
       </c>
@@ -938,8 +1182,14 @@
       <c r="G36">
         <v>763</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="J36">
+        <v>329</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>634</v>
       </c>
@@ -949,8 +1199,14 @@
       <c r="G37">
         <v>772</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="J37">
+        <v>506</v>
+      </c>
+      <c r="M37">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>605</v>
       </c>
@@ -960,8 +1216,14 @@
       <c r="G38">
         <v>660</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="J38">
+        <v>768</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>690</v>
       </c>
@@ -971,8 +1233,14 @@
       <c r="G39">
         <v>789</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="J39">
+        <v>792</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>667</v>
       </c>
@@ -982,8 +1250,14 @@
       <c r="G40">
         <v>1160</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="J40">
+        <v>578</v>
+      </c>
+      <c r="M40">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>661</v>
       </c>
@@ -993,8 +1267,14 @@
       <c r="G41">
         <v>640</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="J41">
+        <v>516</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>599</v>
       </c>
@@ -1004,8 +1284,14 @@
       <c r="G42">
         <v>672</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="J42">
+        <v>427</v>
+      </c>
+      <c r="M42">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>743</v>
       </c>
@@ -1015,8 +1301,14 @@
       <c r="G43">
         <v>788</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="J43">
+        <v>619</v>
+      </c>
+      <c r="M43">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>695</v>
       </c>
@@ -1026,8 +1318,14 @@
       <c r="G44">
         <v>628</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="J44">
+        <v>660</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>501</v>
       </c>
@@ -1037,8 +1335,14 @@
       <c r="G45">
         <v>299</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="J45">
+        <v>891</v>
+      </c>
+      <c r="M45">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>609</v>
       </c>
@@ -1048,8 +1352,14 @@
       <c r="G46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="J46">
+        <v>485</v>
+      </c>
+      <c r="M46">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>672</v>
       </c>
@@ -1059,8 +1369,14 @@
       <c r="G47">
         <v>714</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>692</v>
       </c>
@@ -1070,8 +1386,14 @@
       <c r="G48">
         <v>825</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="J48">
+        <v>737</v>
+      </c>
+      <c r="M48">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>593</v>
       </c>
@@ -1081,8 +1403,14 @@
       <c r="G49">
         <v>718</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="J49">
+        <v>758</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>593</v>
       </c>
@@ -1092,8 +1420,14 @@
       <c r="G50">
         <v>863</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="J50">
+        <v>856</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>654</v>
       </c>
@@ -1103,8 +1437,14 @@
       <c r="G51">
         <v>891</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="J51">
+        <v>644</v>
+      </c>
+      <c r="M51">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>652</v>
       </c>
@@ -1114,8 +1454,14 @@
       <c r="G52">
         <v>661</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="J52">
+        <v>814</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53">
         <v>612</v>
       </c>
@@ -1125,8 +1471,14 @@
       <c r="G53">
         <v>719</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="J53">
+        <v>534</v>
+      </c>
+      <c r="M53">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54">
         <v>582</v>
       </c>
@@ -1136,8 +1488,14 @@
       <c r="G54">
         <v>700</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="J54">
+        <v>877</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>479</v>
       </c>
@@ -1147,8 +1505,14 @@
       <c r="G55">
         <v>649</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="J55">
+        <v>713</v>
+      </c>
+      <c r="M55">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>609</v>
       </c>
@@ -1158,8 +1522,14 @@
       <c r="G56">
         <v>591</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="J56">
+        <v>783</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>629</v>
       </c>
@@ -1169,8 +1539,14 @@
       <c r="G57">
         <v>582</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="J57">
+        <v>383</v>
+      </c>
+      <c r="M57">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58">
         <v>552</v>
       </c>
@@ -1180,8 +1556,14 @@
       <c r="G58">
         <v>607</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="J58">
+        <v>571</v>
+      </c>
+      <c r="M58">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>639</v>
       </c>
@@ -1191,8 +1573,14 @@
       <c r="G59">
         <v>149</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="J59">
+        <v>374</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>684</v>
       </c>
@@ -1202,8 +1590,14 @@
       <c r="G60">
         <v>477</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61">
         <v>606</v>
       </c>
@@ -1213,8 +1607,14 @@
       <c r="G61">
         <v>784</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="J61">
+        <v>416</v>
+      </c>
+      <c r="M61">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62">
         <v>673</v>
       </c>
@@ -1224,8 +1624,14 @@
       <c r="G62">
         <v>765</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="J62">
+        <v>715</v>
+      </c>
+      <c r="M62">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63">
         <v>619</v>
       </c>
@@ -1235,8 +1641,14 @@
       <c r="G63">
         <v>692</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="J63">
+        <v>186</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64">
         <v>755</v>
       </c>
@@ -1246,8 +1658,14 @@
       <c r="G64">
         <v>682</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="J64">
+        <v>749</v>
+      </c>
+      <c r="M64">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65">
         <v>693</v>
       </c>
@@ -1257,1157 +1675,6923 @@
       <c r="G65">
         <v>407</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
+      <c r="J65">
+        <v>552</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="D66">
         <v>688</v>
       </c>
       <c r="G66">
         <v>608</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="J66">
+        <v>662</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="D67">
         <v>675</v>
       </c>
       <c r="G67">
         <v>762</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="J67">
+        <v>663</v>
+      </c>
+      <c r="M67">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="D68">
         <v>701</v>
       </c>
       <c r="G68">
         <v>416</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="J68">
+        <v>299</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="D69">
         <v>479</v>
       </c>
       <c r="G69">
         <v>735</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="J69">
+        <v>643</v>
+      </c>
+      <c r="M69">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="D70">
         <v>791</v>
       </c>
       <c r="G70">
         <v>664</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="J70">
+        <v>890</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="D71">
         <v>588</v>
       </c>
       <c r="G71">
         <v>416</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="J71">
+        <v>737</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="D72">
         <v>681</v>
       </c>
       <c r="G72">
         <v>770</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="D73">
         <v>567</v>
       </c>
       <c r="G73">
         <v>748</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="J73">
+        <v>864</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="D74">
         <v>341</v>
       </c>
       <c r="G74">
         <v>790</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="D75">
         <v>618</v>
       </c>
       <c r="G75">
         <v>688</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="J75">
+        <v>229</v>
+      </c>
+      <c r="M75">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="D76">
         <v>789</v>
       </c>
       <c r="G76">
         <v>582</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="D77">
         <v>560</v>
       </c>
       <c r="G77">
         <v>624</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="J77">
+        <v>658</v>
+      </c>
+      <c r="M77">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="D78">
         <v>463</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="J78">
+        <v>715</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="D79">
         <v>607</v>
       </c>
       <c r="G79">
         <v>500</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="J79">
+        <v>448</v>
+      </c>
+      <c r="M79">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="D80">
         <v>546</v>
       </c>
       <c r="G80">
         <v>758</v>
       </c>
-    </row>
-    <row r="81" spans="4:7">
+      <c r="J80">
+        <v>800</v>
+      </c>
+      <c r="M80">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="81" spans="4:13">
       <c r="D81">
         <v>654</v>
       </c>
       <c r="G81">
         <v>896</v>
       </c>
-    </row>
-    <row r="82" spans="4:7">
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="4:13">
       <c r="D82">
         <v>624</v>
       </c>
       <c r="G82">
         <v>584</v>
       </c>
-    </row>
-    <row r="83" spans="4:7">
+      <c r="J82">
+        <v>403</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="4:13">
       <c r="D83">
         <v>617</v>
       </c>
       <c r="G83">
         <v>571</v>
       </c>
-    </row>
-    <row r="84" spans="4:7">
+      <c r="J83">
+        <v>810</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="4:13">
       <c r="D84">
         <v>753</v>
       </c>
       <c r="G84">
         <v>641</v>
       </c>
-    </row>
-    <row r="85" spans="4:7">
+      <c r="J84">
+        <v>366</v>
+      </c>
+      <c r="M84">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="85" spans="4:13">
       <c r="D85">
         <v>640</v>
       </c>
       <c r="G85">
         <v>616</v>
       </c>
-    </row>
-    <row r="86" spans="4:7">
+      <c r="J85">
+        <v>460</v>
+      </c>
+      <c r="M85">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="86" spans="4:13">
       <c r="D86">
         <v>762</v>
       </c>
       <c r="G86">
         <v>588</v>
       </c>
-    </row>
-    <row r="87" spans="4:7">
+      <c r="J86">
+        <v>725</v>
+      </c>
+      <c r="M86">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="87" spans="4:13">
       <c r="D87">
         <v>0</v>
       </c>
       <c r="G87">
         <v>673</v>
       </c>
-    </row>
-    <row r="88" spans="4:7">
+      <c r="J87">
+        <v>994</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="4:13">
       <c r="D88">
         <v>625</v>
       </c>
       <c r="G88">
         <v>729</v>
       </c>
-    </row>
-    <row r="89" spans="4:7">
+      <c r="J88">
+        <v>705</v>
+      </c>
+      <c r="M88">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="89" spans="4:13">
       <c r="D89">
         <v>611</v>
       </c>
       <c r="G89">
         <v>666</v>
       </c>
-    </row>
-    <row r="90" spans="4:7">
+      <c r="J89">
+        <v>311</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="4:13">
       <c r="D90">
         <v>598</v>
       </c>
       <c r="G90">
         <v>549</v>
       </c>
-    </row>
-    <row r="91" spans="4:7">
+      <c r="J90">
+        <v>850</v>
+      </c>
+      <c r="M90">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="91" spans="4:13">
       <c r="D91">
         <v>735</v>
       </c>
       <c r="G91">
         <v>551</v>
       </c>
-    </row>
-    <row r="92" spans="4:7">
+      <c r="J91">
+        <v>607</v>
+      </c>
+      <c r="M91">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="92" spans="4:13">
       <c r="D92">
         <v>646</v>
       </c>
       <c r="G92">
         <v>550</v>
       </c>
-    </row>
-    <row r="93" spans="4:7">
+      <c r="J92">
+        <v>369</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="4:13">
       <c r="D93">
         <v>651</v>
       </c>
       <c r="G93">
         <v>696</v>
       </c>
-    </row>
-    <row r="94" spans="4:7">
+      <c r="J93">
+        <v>695</v>
+      </c>
+      <c r="M93">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="94" spans="4:13">
       <c r="D94">
         <v>773</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="4:7">
+      <c r="J94">
+        <v>834</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="4:13">
       <c r="D95">
         <v>532</v>
       </c>
       <c r="G95">
         <v>675</v>
       </c>
-    </row>
-    <row r="96" spans="4:7">
+      <c r="J95">
+        <v>293</v>
+      </c>
+      <c r="M95">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="96" spans="4:13">
       <c r="D96">
         <v>638</v>
       </c>
       <c r="G96">
         <v>451</v>
       </c>
-    </row>
-    <row r="97" spans="4:7">
+      <c r="J96">
+        <v>308</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="4:13">
       <c r="D97">
         <v>752</v>
       </c>
       <c r="G97">
         <v>672</v>
       </c>
-    </row>
-    <row r="98" spans="4:7">
+      <c r="J97">
+        <v>748</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="4:13">
       <c r="D98">
         <v>754</v>
       </c>
       <c r="G98">
         <v>627</v>
       </c>
-    </row>
-    <row r="99" spans="4:7">
+      <c r="J98">
+        <v>833</v>
+      </c>
+      <c r="M98">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="99" spans="4:13">
       <c r="D99">
         <v>712</v>
       </c>
       <c r="G99">
         <v>571</v>
       </c>
-    </row>
-    <row r="100" spans="4:7">
+      <c r="J99">
+        <v>223</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="4:13">
       <c r="D100">
         <v>761</v>
       </c>
       <c r="G100">
         <v>663</v>
       </c>
-    </row>
-    <row r="101" spans="4:7">
+      <c r="J100">
+        <v>618</v>
+      </c>
+      <c r="M100">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="101" spans="4:13">
       <c r="D101">
         <v>613</v>
       </c>
       <c r="G101">
         <v>96</v>
       </c>
-    </row>
-    <row r="102" spans="4:7">
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="102" spans="4:13">
       <c r="D102">
         <v>696</v>
       </c>
       <c r="G102">
         <v>710</v>
       </c>
-    </row>
-    <row r="103" spans="4:7">
+      <c r="J102">
+        <v>676</v>
+      </c>
+      <c r="M102">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="103" spans="4:13">
       <c r="D103">
         <v>658</v>
       </c>
       <c r="G103">
         <v>618</v>
       </c>
-    </row>
-    <row r="104" spans="4:7">
+      <c r="J103">
+        <v>616</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="4:13">
       <c r="D104">
         <v>739</v>
       </c>
       <c r="G104">
         <v>706</v>
       </c>
-    </row>
-    <row r="105" spans="4:7">
+      <c r="J104">
+        <v>396</v>
+      </c>
+      <c r="M104">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="105" spans="4:13">
       <c r="D105">
         <v>701</v>
       </c>
       <c r="G105">
         <v>891</v>
       </c>
-    </row>
-    <row r="106" spans="4:7">
+      <c r="J105">
+        <v>57</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="4:13">
       <c r="D106">
         <v>653</v>
       </c>
       <c r="G106">
         <v>432</v>
       </c>
-    </row>
-    <row r="107" spans="4:7">
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="107" spans="4:13">
       <c r="D107">
         <v>587</v>
       </c>
       <c r="G107">
         <v>598</v>
       </c>
-    </row>
-    <row r="108" spans="4:7">
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="4:13">
       <c r="D108">
         <v>830</v>
       </c>
       <c r="G108">
         <v>651</v>
       </c>
-    </row>
-    <row r="109" spans="4:7">
+      <c r="J108">
+        <v>877</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="4:13">
       <c r="D109">
         <v>417</v>
       </c>
       <c r="G109">
         <v>702</v>
       </c>
-    </row>
-    <row r="110" spans="4:7">
+      <c r="J109">
+        <v>536</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="4:13">
       <c r="D110">
         <v>818</v>
       </c>
       <c r="G110">
         <v>485</v>
       </c>
-    </row>
-    <row r="111" spans="4:7">
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="111" spans="4:13">
       <c r="D111">
         <v>796</v>
       </c>
       <c r="G111">
         <v>396</v>
       </c>
-    </row>
-    <row r="112" spans="4:7">
+      <c r="J111">
+        <v>235</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="4:13">
       <c r="D112">
         <v>780</v>
       </c>
       <c r="G112">
         <v>369</v>
       </c>
-    </row>
-    <row r="113" spans="4:7">
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="113" spans="4:13">
       <c r="D113">
         <v>492</v>
       </c>
       <c r="G113">
         <v>346</v>
       </c>
-    </row>
-    <row r="114" spans="4:7">
+      <c r="J113">
+        <v>96</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="4:13">
       <c r="D114">
         <v>701</v>
       </c>
       <c r="G114">
         <v>601</v>
       </c>
-    </row>
-    <row r="115" spans="4:7">
+      <c r="J114">
+        <v>734</v>
+      </c>
+      <c r="M114">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="115" spans="4:13">
       <c r="D115">
         <v>573</v>
       </c>
       <c r="G115">
         <v>723</v>
       </c>
-    </row>
-    <row r="116" spans="4:7">
+      <c r="J115">
+        <v>790</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="4:13">
       <c r="D116">
         <v>575</v>
       </c>
       <c r="G116">
         <v>791</v>
       </c>
-    </row>
-    <row r="117" spans="4:7">
+      <c r="J116">
+        <v>693</v>
+      </c>
+      <c r="M116">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="117" spans="4:13">
       <c r="D117">
         <v>688</v>
       </c>
       <c r="G117">
         <v>497</v>
       </c>
-    </row>
-    <row r="118" spans="4:7">
+      <c r="J117">
+        <v>560</v>
+      </c>
+      <c r="M117">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="118" spans="4:13">
       <c r="D118">
         <v>746</v>
       </c>
       <c r="G118">
         <v>870</v>
       </c>
-    </row>
-    <row r="119" spans="4:7">
+      <c r="J118">
+        <v>833</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="4:13">
       <c r="D119">
         <v>597</v>
       </c>
       <c r="G119">
         <v>462</v>
       </c>
-    </row>
-    <row r="120" spans="4:7">
+      <c r="J119">
+        <v>788</v>
+      </c>
+      <c r="M119">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="120" spans="4:13">
       <c r="D120">
         <v>599</v>
       </c>
       <c r="G120">
         <v>724</v>
       </c>
-    </row>
-    <row r="121" spans="4:7">
+      <c r="J120">
+        <v>965</v>
+      </c>
+      <c r="M120">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="121" spans="4:13">
       <c r="D121">
         <v>557</v>
       </c>
       <c r="G121">
         <v>858</v>
       </c>
-    </row>
-    <row r="122" spans="4:7">
+      <c r="J121">
+        <v>720</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="4:13">
       <c r="D122">
         <v>785</v>
       </c>
       <c r="G122">
         <v>370</v>
       </c>
-    </row>
-    <row r="123" spans="4:7">
+      <c r="J122">
+        <v>327</v>
+      </c>
+      <c r="M122">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="123" spans="4:13">
       <c r="D123">
         <v>651</v>
       </c>
       <c r="G123">
         <v>475</v>
       </c>
-    </row>
-    <row r="124" spans="4:7">
+      <c r="J123">
+        <v>1354</v>
+      </c>
+      <c r="M123">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="124" spans="4:13">
       <c r="D124">
         <v>597</v>
       </c>
       <c r="G124">
         <v>469</v>
       </c>
-    </row>
-    <row r="125" spans="4:7">
+      <c r="J124">
+        <v>403</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="4:13">
       <c r="D125">
         <v>729</v>
       </c>
       <c r="G125">
         <v>610</v>
       </c>
-    </row>
-    <row r="126" spans="4:7">
+      <c r="J125">
+        <v>995</v>
+      </c>
+      <c r="M125">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="126" spans="4:13">
       <c r="D126">
         <v>661</v>
       </c>
       <c r="G126">
         <v>832</v>
       </c>
-    </row>
-    <row r="127" spans="4:7">
+      <c r="J126">
+        <v>914</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="4:13">
       <c r="D127">
         <v>719</v>
       </c>
       <c r="G127">
         <v>732</v>
       </c>
-    </row>
-    <row r="128" spans="4:7">
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="128" spans="4:13">
       <c r="D128">
         <v>622</v>
       </c>
       <c r="G128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="4:7">
+      <c r="J128">
+        <v>896</v>
+      </c>
+      <c r="M128">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="129" spans="4:13">
       <c r="D129">
         <v>660</v>
       </c>
       <c r="G129">
         <v>490</v>
       </c>
-    </row>
-    <row r="130" spans="4:7">
+      <c r="J129">
+        <v>711</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="4:13">
       <c r="G130">
         <v>613</v>
       </c>
-    </row>
-    <row r="131" spans="4:7">
+      <c r="J130">
+        <v>358</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="4:13">
       <c r="G131">
         <v>580</v>
       </c>
-    </row>
-    <row r="132" spans="4:7">
+      <c r="J131">
+        <v>527</v>
+      </c>
+      <c r="M131">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="132" spans="4:13">
       <c r="G132">
         <v>570</v>
       </c>
-    </row>
-    <row r="133" spans="4:7">
+      <c r="J132">
+        <v>761</v>
+      </c>
+      <c r="M132">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="133" spans="4:13">
       <c r="G133">
         <v>821</v>
       </c>
-    </row>
-    <row r="134" spans="4:7">
+      <c r="J133">
+        <v>1290</v>
+      </c>
+      <c r="M133">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="134" spans="4:13">
       <c r="G134">
         <v>681</v>
       </c>
-    </row>
-    <row r="135" spans="4:7">
+      <c r="J134">
+        <v>485</v>
+      </c>
+      <c r="M134">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="135" spans="4:13">
       <c r="G135">
         <v>365</v>
       </c>
-    </row>
-    <row r="136" spans="4:7">
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="136" spans="4:13">
       <c r="G136">
         <v>239</v>
       </c>
-    </row>
-    <row r="137" spans="4:7">
+      <c r="J136">
+        <v>566</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="4:13">
       <c r="G137">
         <v>496</v>
       </c>
-    </row>
-    <row r="138" spans="4:7">
+      <c r="J137">
+        <v>212</v>
+      </c>
+      <c r="M137">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="138" spans="4:13">
       <c r="G138">
         <v>735</v>
       </c>
-    </row>
-    <row r="139" spans="4:7">
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="139" spans="4:13">
       <c r="G139">
         <v>550</v>
       </c>
-    </row>
-    <row r="140" spans="4:7">
+      <c r="J139">
+        <v>457</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="4:13">
       <c r="G140">
         <v>648</v>
       </c>
-    </row>
-    <row r="141" spans="4:7">
+      <c r="J140">
+        <v>426</v>
+      </c>
+      <c r="M140">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="141" spans="4:13">
       <c r="G141">
         <v>750</v>
       </c>
-    </row>
-    <row r="142" spans="4:7">
+      <c r="J141">
+        <v>406</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="4:13">
       <c r="G142">
         <v>519</v>
       </c>
-    </row>
-    <row r="143" spans="4:7">
+      <c r="J142">
+        <v>604</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="4:13">
       <c r="G143">
         <v>308</v>
       </c>
-    </row>
-    <row r="144" spans="4:7">
+      <c r="J143">
+        <v>167</v>
+      </c>
+      <c r="M143">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="144" spans="4:13">
       <c r="G144">
         <v>820</v>
       </c>
-    </row>
-    <row r="145" spans="7:7">
+      <c r="J144">
+        <v>678</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="7:13">
       <c r="G145">
         <v>659</v>
       </c>
-    </row>
-    <row r="146" spans="7:7">
+      <c r="J145">
+        <v>685</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="7:13">
       <c r="G146">
         <v>703</v>
       </c>
-    </row>
-    <row r="147" spans="7:7">
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="7:13">
       <c r="G147">
         <v>825</v>
       </c>
-    </row>
-    <row r="148" spans="7:7">
+      <c r="J147">
+        <v>367</v>
+      </c>
+      <c r="M147">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="148" spans="7:13">
       <c r="G148">
         <v>855</v>
       </c>
-    </row>
-    <row r="149" spans="7:7">
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="149" spans="7:13">
       <c r="G149">
         <v>311</v>
       </c>
-    </row>
-    <row r="150" spans="7:7">
+      <c r="J149">
+        <v>692</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="7:13">
       <c r="G150">
         <v>433</v>
       </c>
-    </row>
-    <row r="151" spans="7:7">
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="151" spans="7:13">
       <c r="G151">
         <v>671</v>
       </c>
-    </row>
-    <row r="152" spans="7:7">
+      <c r="J151">
+        <v>692</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="7:13">
       <c r="G152">
         <v>544</v>
       </c>
-    </row>
-    <row r="153" spans="7:7">
+      <c r="J152">
+        <v>680</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="7:13">
       <c r="G153">
         <v>859</v>
       </c>
-    </row>
-    <row r="154" spans="7:7">
+      <c r="J153">
+        <v>869</v>
+      </c>
+      <c r="M153">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="154" spans="7:13">
       <c r="G154">
         <v>891</v>
       </c>
-    </row>
-    <row r="155" spans="7:7">
+      <c r="J154">
+        <v>578</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="7:13">
       <c r="G155">
         <v>778</v>
       </c>
-    </row>
-    <row r="156" spans="7:7">
+      <c r="J155">
+        <v>732</v>
+      </c>
+      <c r="M155">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="156" spans="7:13">
       <c r="G156">
         <v>318</v>
       </c>
-    </row>
-    <row r="157" spans="7:7">
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="7:13">
       <c r="G157">
         <v>480</v>
       </c>
-    </row>
-    <row r="158" spans="7:7">
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="158" spans="7:13">
       <c r="G158">
         <v>797</v>
       </c>
-    </row>
-    <row r="159" spans="7:7">
+      <c r="J158">
+        <v>560</v>
+      </c>
+      <c r="M158">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="159" spans="7:13">
       <c r="G159">
         <v>401</v>
       </c>
-    </row>
-    <row r="160" spans="7:7">
+      <c r="J159">
+        <v>732</v>
+      </c>
+      <c r="M159">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="160" spans="7:13">
       <c r="G160">
         <v>645</v>
       </c>
-    </row>
-    <row r="161" spans="7:7">
+      <c r="J160">
+        <v>589</v>
+      </c>
+      <c r="M160">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="161" spans="7:13">
       <c r="G161">
         <v>830</v>
       </c>
-    </row>
-    <row r="162" spans="7:7">
+      <c r="J161">
+        <v>415</v>
+      </c>
+      <c r="M161">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="162" spans="7:13">
       <c r="G162">
         <v>833</v>
       </c>
-    </row>
-    <row r="163" spans="7:7">
+      <c r="J162">
+        <v>903</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="7:13">
       <c r="G163">
         <v>619</v>
       </c>
-    </row>
-    <row r="164" spans="7:7">
+      <c r="J163">
+        <v>940</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="7:13">
       <c r="G164">
         <v>536</v>
       </c>
-    </row>
-    <row r="165" spans="7:7">
+      <c r="J164">
+        <v>635</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="7:13">
       <c r="G165">
         <v>342</v>
       </c>
-    </row>
-    <row r="166" spans="7:7">
+      <c r="J165">
+        <v>895</v>
+      </c>
+      <c r="M165">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="166" spans="7:13">
       <c r="G166">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="7:7">
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="7:13">
       <c r="G167">
         <v>600</v>
       </c>
-    </row>
-    <row r="168" spans="7:7">
+      <c r="J167">
+        <v>594</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="7:13">
       <c r="G168">
         <v>711</v>
       </c>
-    </row>
-    <row r="169" spans="7:7">
+      <c r="J168">
+        <v>700</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="7:13">
       <c r="G169">
         <v>927</v>
       </c>
-    </row>
-    <row r="170" spans="7:7">
+      <c r="J169">
+        <v>1827</v>
+      </c>
+      <c r="M169">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="170" spans="7:13">
       <c r="G170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="7:7">
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="7:13">
       <c r="G171">
         <v>818</v>
       </c>
-    </row>
-    <row r="172" spans="7:7">
+      <c r="J171">
+        <v>824</v>
+      </c>
+      <c r="M171">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="172" spans="7:13">
       <c r="G172">
         <v>749</v>
       </c>
-    </row>
-    <row r="173" spans="7:7">
+      <c r="J172">
+        <v>924</v>
+      </c>
+      <c r="M172">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="173" spans="7:13">
       <c r="G173">
         <v>705</v>
       </c>
-    </row>
-    <row r="174" spans="7:7">
+      <c r="J173">
+        <v>588</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="7:13">
       <c r="G174">
         <v>587</v>
       </c>
-    </row>
-    <row r="175" spans="7:7">
+      <c r="J174">
+        <v>678</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="7:13">
       <c r="G175">
         <v>939</v>
       </c>
-    </row>
-    <row r="176" spans="7:7">
+      <c r="J175">
+        <v>734</v>
+      </c>
+      <c r="M175">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="176" spans="7:13">
       <c r="G176">
         <v>573</v>
       </c>
-    </row>
-    <row r="177" spans="7:7">
+      <c r="J176">
+        <v>752</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="7:13">
       <c r="G177">
         <v>504</v>
       </c>
-    </row>
-    <row r="178" spans="7:7">
+      <c r="J177">
+        <v>721</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="7:13">
       <c r="G178">
         <v>408</v>
       </c>
-    </row>
-    <row r="179" spans="7:7">
+      <c r="J178">
+        <v>859</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="7:13">
       <c r="G179">
         <v>489</v>
       </c>
-    </row>
-    <row r="180" spans="7:7">
+      <c r="J179">
+        <v>469</v>
+      </c>
+      <c r="M179">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="180" spans="7:13">
       <c r="G180">
         <v>1126</v>
       </c>
-    </row>
-    <row r="181" spans="7:7">
+      <c r="J180">
+        <v>663</v>
+      </c>
+      <c r="M180">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="181" spans="7:13">
       <c r="G181">
         <v>294</v>
       </c>
-    </row>
-    <row r="182" spans="7:7">
+      <c r="J181">
+        <v>492</v>
+      </c>
+      <c r="M181">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="182" spans="7:13">
       <c r="G182">
         <v>961</v>
       </c>
-    </row>
-    <row r="183" spans="7:7">
+      <c r="J182">
+        <v>704</v>
+      </c>
+      <c r="M182">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="183" spans="7:13">
       <c r="G183">
         <v>473</v>
       </c>
-    </row>
-    <row r="184" spans="7:7">
+      <c r="J183">
+        <v>635</v>
+      </c>
+      <c r="M183">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="184" spans="7:13">
       <c r="G184">
         <v>695</v>
       </c>
-    </row>
-    <row r="185" spans="7:7">
+      <c r="J184">
+        <v>992</v>
+      </c>
+      <c r="M184">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="185" spans="7:13">
       <c r="G185">
         <v>302</v>
       </c>
-    </row>
-    <row r="186" spans="7:7">
+      <c r="J185">
+        <v>676</v>
+      </c>
+      <c r="M185">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="186" spans="7:13">
       <c r="G186">
         <v>640</v>
       </c>
-    </row>
-    <row r="187" spans="7:7">
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="M186">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="187" spans="7:13">
       <c r="G187">
         <v>661</v>
       </c>
-    </row>
-    <row r="188" spans="7:7">
+      <c r="J187">
+        <v>701</v>
+      </c>
+      <c r="M187">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="188" spans="7:13">
       <c r="G188">
         <v>565</v>
       </c>
-    </row>
-    <row r="189" spans="7:7">
+      <c r="J188">
+        <v>343</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="7:13">
       <c r="G189">
         <v>403</v>
       </c>
-    </row>
-    <row r="190" spans="7:7">
+      <c r="J189">
+        <v>631</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="7:13">
       <c r="G190">
         <v>659</v>
       </c>
-    </row>
-    <row r="191" spans="7:7">
+      <c r="J190">
+        <v>863</v>
+      </c>
+      <c r="M190">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="191" spans="7:13">
       <c r="G191">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="7:7">
+      <c r="J191">
+        <v>922</v>
+      </c>
+      <c r="M191">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="192" spans="7:13">
       <c r="G192">
         <v>581</v>
       </c>
-    </row>
-    <row r="193" spans="7:7">
+      <c r="J192">
+        <v>611</v>
+      </c>
+      <c r="M192">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="193" spans="7:13">
       <c r="G193">
         <v>836</v>
       </c>
-    </row>
-    <row r="194" spans="7:7">
+      <c r="J193">
+        <v>691</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="7:13">
       <c r="G194">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="7:7">
+      <c r="J194">
+        <v>902</v>
+      </c>
+      <c r="M194">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="195" spans="7:13">
       <c r="G195">
         <v>537</v>
       </c>
-    </row>
-    <row r="196" spans="7:7">
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="M195">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="196" spans="7:13">
       <c r="G196">
         <v>586</v>
       </c>
-    </row>
-    <row r="197" spans="7:7">
+      <c r="J196">
+        <v>602</v>
+      </c>
+      <c r="M196">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="197" spans="7:13">
       <c r="G197">
         <v>614</v>
       </c>
-    </row>
-    <row r="198" spans="7:7">
+      <c r="J197">
+        <v>401</v>
+      </c>
+      <c r="M197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="7:13">
       <c r="G198">
         <v>324</v>
       </c>
-    </row>
-    <row r="199" spans="7:7">
+      <c r="J198">
+        <v>941</v>
+      </c>
+      <c r="M198">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="199" spans="7:13">
       <c r="G199">
         <v>812</v>
       </c>
-    </row>
-    <row r="200" spans="7:7">
+      <c r="J199">
+        <v>754</v>
+      </c>
+      <c r="M199">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="200" spans="7:13">
       <c r="G200">
         <v>758</v>
       </c>
-    </row>
-    <row r="201" spans="7:7">
+      <c r="J200">
+        <v>627</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="7:13">
       <c r="G201">
         <v>664</v>
       </c>
-    </row>
-    <row r="202" spans="7:7">
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="7:13">
       <c r="G202">
         <v>603</v>
       </c>
-    </row>
-    <row r="203" spans="7:7">
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="M202">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="203" spans="7:13">
       <c r="G203">
         <v>852</v>
       </c>
-    </row>
-    <row r="204" spans="7:7">
+      <c r="J203">
+        <v>606</v>
+      </c>
+      <c r="M203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="7:13">
       <c r="G204">
         <v>676</v>
       </c>
-    </row>
-    <row r="205" spans="7:7">
+      <c r="J204">
+        <v>624</v>
+      </c>
+      <c r="M204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="7:13">
       <c r="G205">
         <v>581</v>
       </c>
-    </row>
-    <row r="206" spans="7:7">
+      <c r="J205">
+        <v>451</v>
+      </c>
+      <c r="M205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="7:13">
       <c r="G206">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="7:7">
+      <c r="J206">
+        <v>851</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="7:13">
       <c r="G207">
         <v>599</v>
       </c>
-    </row>
-    <row r="208" spans="7:7">
+      <c r="J207">
+        <v>891</v>
+      </c>
+      <c r="M207">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="208" spans="7:13">
       <c r="G208">
         <v>669</v>
       </c>
-    </row>
-    <row r="209" spans="7:7">
+      <c r="J208">
+        <v>746</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="7:13">
       <c r="G209">
         <v>636</v>
       </c>
-    </row>
-    <row r="210" spans="7:7">
+      <c r="J209">
+        <v>149</v>
+      </c>
+      <c r="M209">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="210" spans="7:13">
       <c r="G210">
         <v>827</v>
       </c>
-    </row>
-    <row r="211" spans="7:7">
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="M210">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="211" spans="7:13">
       <c r="G211">
         <v>546</v>
       </c>
-    </row>
-    <row r="212" spans="7:7">
+      <c r="J211">
+        <v>628</v>
+      </c>
+      <c r="M211">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="212" spans="7:13">
       <c r="G212">
         <v>872</v>
       </c>
-    </row>
-    <row r="213" spans="7:7">
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="M212">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="213" spans="7:13">
       <c r="G213">
         <v>611</v>
       </c>
-    </row>
-    <row r="214" spans="7:7">
+      <c r="J213">
+        <v>255</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="7:13">
       <c r="G214">
         <v>704</v>
       </c>
-    </row>
-    <row r="215" spans="7:7">
+      <c r="J214">
+        <v>698</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="7:13">
       <c r="G215">
         <v>620</v>
       </c>
-    </row>
-    <row r="216" spans="7:7">
+      <c r="J215">
+        <v>296</v>
+      </c>
+      <c r="M215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="7:13">
       <c r="G216">
         <v>881</v>
       </c>
-    </row>
-    <row r="217" spans="7:7">
+      <c r="J216">
+        <v>614</v>
+      </c>
+      <c r="M216">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="217" spans="7:13">
       <c r="G217">
         <v>817</v>
       </c>
-    </row>
-    <row r="218" spans="7:7">
+      <c r="J217">
+        <v>801</v>
+      </c>
+      <c r="M217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="7:13">
       <c r="G218">
         <v>665</v>
       </c>
-    </row>
-    <row r="219" spans="7:7">
+      <c r="J218">
+        <v>762</v>
+      </c>
+      <c r="M218">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="219" spans="7:13">
       <c r="G219">
         <v>929</v>
       </c>
-    </row>
-    <row r="220" spans="7:7">
+      <c r="J219">
+        <v>612</v>
+      </c>
+      <c r="M219">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="220" spans="7:13">
       <c r="G220">
         <v>437</v>
       </c>
-    </row>
-    <row r="221" spans="7:7">
+      <c r="J220">
+        <v>654</v>
+      </c>
+      <c r="M220">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="221" spans="7:13">
       <c r="G221">
         <v>792</v>
       </c>
-    </row>
-    <row r="222" spans="7:7">
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="M221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="7:13">
       <c r="G222">
         <v>787</v>
       </c>
-    </row>
-    <row r="223" spans="7:7">
+      <c r="J222">
+        <v>977</v>
+      </c>
+      <c r="M222">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="223" spans="7:13">
       <c r="G223">
         <v>828</v>
       </c>
-    </row>
-    <row r="224" spans="7:7">
+      <c r="J223">
+        <v>830</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="7:13">
       <c r="G224">
         <v>932</v>
       </c>
-    </row>
-    <row r="225" spans="7:7">
+      <c r="J224">
+        <v>550</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="7:13">
       <c r="G225">
         <v>504</v>
       </c>
-    </row>
-    <row r="226" spans="7:7">
+      <c r="J225">
+        <v>540</v>
+      </c>
+      <c r="M225">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="226" spans="7:13">
       <c r="G226">
         <v>941</v>
       </c>
-    </row>
-    <row r="227" spans="7:7">
+      <c r="J226">
+        <v>579</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="7:13">
       <c r="G227">
         <v>830</v>
       </c>
-    </row>
-    <row r="228" spans="7:7">
+      <c r="J227">
+        <v>675</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="7:13">
       <c r="G228">
         <v>820</v>
       </c>
-    </row>
-    <row r="229" spans="7:7">
+      <c r="J228">
+        <v>918</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="7:13">
       <c r="G229">
         <v>701</v>
       </c>
-    </row>
-    <row r="230" spans="7:7">
+      <c r="J229">
+        <v>578</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="7:13">
       <c r="G230">
         <v>367</v>
       </c>
-    </row>
-    <row r="231" spans="7:7">
+      <c r="J230">
+        <v>780</v>
+      </c>
+      <c r="M230">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="231" spans="7:13">
       <c r="G231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="7:7">
+      <c r="J231">
+        <v>942</v>
+      </c>
+      <c r="M231">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="232" spans="7:13">
       <c r="G232">
         <v>671</v>
       </c>
-    </row>
-    <row r="233" spans="7:7">
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="233" spans="7:13">
       <c r="G233">
         <v>675</v>
       </c>
-    </row>
-    <row r="234" spans="7:7">
+      <c r="J233">
+        <v>687</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="7:13">
       <c r="G234">
         <v>429</v>
       </c>
-    </row>
-    <row r="235" spans="7:7">
+      <c r="J234">
+        <v>818</v>
+      </c>
+      <c r="M234">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="235" spans="7:13">
       <c r="G235">
         <v>762</v>
       </c>
-    </row>
-    <row r="236" spans="7:7">
+      <c r="J235">
+        <v>870</v>
+      </c>
+      <c r="M235">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="236" spans="7:13">
       <c r="G236">
         <v>791</v>
       </c>
-    </row>
-    <row r="237" spans="7:7">
+      <c r="J236">
+        <v>985</v>
+      </c>
+      <c r="M236">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="237" spans="7:13">
       <c r="G237">
         <v>768</v>
       </c>
-    </row>
-    <row r="238" spans="7:7">
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="M237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="7:13">
       <c r="G238">
         <v>818</v>
       </c>
-    </row>
-    <row r="239" spans="7:7">
+      <c r="J238">
+        <v>1153</v>
+      </c>
+      <c r="M238">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="239" spans="7:13">
       <c r="G239">
         <v>616</v>
       </c>
-    </row>
-    <row r="240" spans="7:7">
+      <c r="J239">
+        <v>242</v>
+      </c>
+      <c r="M239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="7:13">
       <c r="G240">
         <v>774</v>
       </c>
-    </row>
-    <row r="241" spans="7:7">
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="7:13">
       <c r="G241">
         <v>647</v>
       </c>
-    </row>
-    <row r="242" spans="7:7">
+      <c r="J241">
+        <v>931</v>
+      </c>
+      <c r="M241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="7:13">
       <c r="G242">
         <v>587</v>
       </c>
-    </row>
-    <row r="243" spans="7:7">
+      <c r="J242">
+        <v>191</v>
+      </c>
+      <c r="M242">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="243" spans="7:13">
       <c r="G243">
         <v>755</v>
       </c>
-    </row>
-    <row r="244" spans="7:7">
+      <c r="J243">
+        <v>521</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="7:13">
       <c r="G244">
         <v>618</v>
       </c>
-    </row>
-    <row r="245" spans="7:7">
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="7:13">
       <c r="G245">
         <v>726</v>
       </c>
-    </row>
-    <row r="246" spans="7:7">
+      <c r="J245">
+        <v>413</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="7:13">
       <c r="G246">
         <v>782</v>
       </c>
-    </row>
-    <row r="247" spans="7:7">
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="M246">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="247" spans="7:13">
       <c r="G247">
         <v>640</v>
       </c>
-    </row>
-    <row r="248" spans="7:7">
+      <c r="J247">
+        <v>857</v>
+      </c>
+      <c r="M247">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="248" spans="7:13">
       <c r="G248">
         <v>550</v>
       </c>
-    </row>
-    <row r="249" spans="7:7">
+      <c r="J248">
+        <v>513</v>
+      </c>
+      <c r="M248">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="249" spans="7:13">
       <c r="G249">
         <v>560</v>
       </c>
-    </row>
-    <row r="250" spans="7:7">
+      <c r="J249">
+        <v>0</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="7:13">
       <c r="G250">
         <v>764</v>
       </c>
-    </row>
-    <row r="251" spans="7:7">
+      <c r="J250">
+        <v>367</v>
+      </c>
+      <c r="M250">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="251" spans="7:13">
       <c r="G251">
         <v>757</v>
       </c>
-    </row>
-    <row r="252" spans="7:7">
+      <c r="J251">
+        <v>562</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="7:13">
       <c r="G252">
         <v>605</v>
       </c>
-    </row>
-    <row r="253" spans="7:7">
+      <c r="J252">
+        <v>944</v>
+      </c>
+      <c r="M252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="7:13">
       <c r="G253">
         <v>519</v>
       </c>
-    </row>
-    <row r="254" spans="7:7">
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="M253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="7:13">
       <c r="G254">
         <v>649</v>
       </c>
-    </row>
-    <row r="255" spans="7:7">
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="M254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="7:13">
       <c r="G255">
         <v>598</v>
       </c>
-    </row>
-    <row r="256" spans="7:7">
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="M255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="7:13">
       <c r="G256">
         <v>654</v>
       </c>
-    </row>
-    <row r="257" spans="7:7">
+      <c r="J256">
+        <v>0</v>
+      </c>
+      <c r="M256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="7:13">
       <c r="G257">
         <v>721</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="M257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="7:13">
+      <c r="J258">
+        <v>893</v>
+      </c>
+      <c r="M258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="7:13">
+      <c r="J259">
+        <v>849</v>
+      </c>
+      <c r="M259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="7:13">
+      <c r="J260">
+        <v>675</v>
+      </c>
+      <c r="M260">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="261" spans="7:13">
+      <c r="J261">
+        <v>663</v>
+      </c>
+      <c r="M261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="7:13">
+      <c r="J262">
+        <v>414</v>
+      </c>
+      <c r="M262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="7:13">
+      <c r="J263">
+        <v>723</v>
+      </c>
+      <c r="M263">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="264" spans="7:13">
+      <c r="J264">
+        <v>413</v>
+      </c>
+      <c r="M264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="7:13">
+      <c r="J265">
+        <v>752</v>
+      </c>
+      <c r="M265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="7:13">
+      <c r="J266">
+        <v>803</v>
+      </c>
+      <c r="M266">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="267" spans="7:13">
+      <c r="J267">
+        <v>750</v>
+      </c>
+      <c r="M267">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="268" spans="7:13">
+      <c r="J268">
+        <v>916</v>
+      </c>
+      <c r="M268">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="269" spans="7:13">
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="M269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="7:13">
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="M270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="7:13">
+      <c r="J271">
+        <v>623</v>
+      </c>
+      <c r="M271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="7:13">
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="M272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="10:13">
+      <c r="J273">
+        <v>768</v>
+      </c>
+      <c r="M273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="10:13">
+      <c r="J274">
+        <v>689</v>
+      </c>
+      <c r="M274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="10:13">
+      <c r="J275">
+        <v>629</v>
+      </c>
+      <c r="M275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="10:13">
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="M276">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="277" spans="10:13">
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="M277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="10:13">
+      <c r="J278">
+        <v>299</v>
+      </c>
+      <c r="M278">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="279" spans="10:13">
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="M279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="10:13">
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="M280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="10:13">
+      <c r="J281">
+        <v>600</v>
+      </c>
+      <c r="M281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="10:13">
+      <c r="J282">
+        <v>645</v>
+      </c>
+      <c r="M282">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="283" spans="10:13">
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="M283">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="284" spans="10:13">
+      <c r="J284">
+        <v>863</v>
+      </c>
+      <c r="M284">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="285" spans="10:13">
+      <c r="J285">
+        <v>1095</v>
+      </c>
+      <c r="M285">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="286" spans="10:13">
+      <c r="J286">
+        <v>579</v>
+      </c>
+      <c r="M286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="10:13">
+      <c r="J287">
+        <v>473</v>
+      </c>
+      <c r="M287">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="288" spans="10:13">
+      <c r="J288">
+        <v>173</v>
+      </c>
+      <c r="M288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="10:13">
+      <c r="J289">
+        <v>354</v>
+      </c>
+      <c r="M289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="10:13">
+      <c r="J290">
+        <v>242</v>
+      </c>
+      <c r="M290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="10:13">
+      <c r="J291">
+        <v>710</v>
+      </c>
+      <c r="M291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="10:13">
+      <c r="J292">
+        <v>688</v>
+      </c>
+      <c r="M292">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="293" spans="10:13">
+      <c r="J293">
+        <v>630</v>
+      </c>
+      <c r="M293">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="294" spans="10:13">
+      <c r="J294">
+        <v>800</v>
+      </c>
+      <c r="M294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="10:13">
+      <c r="J295">
+        <v>566</v>
+      </c>
+      <c r="M295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="10:13">
+      <c r="J296">
+        <v>308</v>
+      </c>
+      <c r="M296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="10:13">
+      <c r="J297">
+        <v>288</v>
+      </c>
+      <c r="M297">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="298" spans="10:13">
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="M298">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="299" spans="10:13">
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="M299">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="300" spans="10:13">
+      <c r="J300">
+        <v>639</v>
+      </c>
+      <c r="M300">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="301" spans="10:13">
+      <c r="J301">
+        <v>453</v>
+      </c>
+      <c r="M301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="10:13">
+      <c r="J302">
+        <v>561</v>
+      </c>
+      <c r="M302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="10:13">
+      <c r="J303">
+        <v>376</v>
+      </c>
+      <c r="M303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="10:13">
+      <c r="J304">
+        <v>388</v>
+      </c>
+      <c r="M304">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="305" spans="10:13">
+      <c r="J305">
+        <v>386</v>
+      </c>
+      <c r="M305">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="306" spans="10:13">
+      <c r="J306">
+        <v>288</v>
+      </c>
+      <c r="M306">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="307" spans="10:13">
+      <c r="J307">
+        <v>891</v>
+      </c>
+      <c r="M307">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="308" spans="10:13">
+      <c r="J308">
+        <v>297</v>
+      </c>
+      <c r="M308">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="309" spans="10:13">
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="M309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="10:13">
+      <c r="J310">
+        <v>961</v>
+      </c>
+      <c r="M310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="10:13">
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="M311">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="312" spans="10:13">
+      <c r="J312">
+        <v>823</v>
+      </c>
+      <c r="M312">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="313" spans="10:13">
+      <c r="J313">
+        <v>729</v>
+      </c>
+      <c r="M313">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="314" spans="10:13">
+      <c r="J314">
+        <v>1551</v>
+      </c>
+      <c r="M314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="10:13">
+      <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="M315">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="316" spans="10:13">
+      <c r="J316">
+        <v>532</v>
+      </c>
+      <c r="M316">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="317" spans="10:13">
+      <c r="J317">
+        <v>0</v>
+      </c>
+      <c r="M317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="10:13">
+      <c r="J318">
+        <v>754</v>
+      </c>
+      <c r="M318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="10:13">
+      <c r="J319">
+        <v>530</v>
+      </c>
+      <c r="M319">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="320" spans="10:13">
+      <c r="J320">
+        <v>1941</v>
+      </c>
+      <c r="M320">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="321" spans="10:13">
+      <c r="J321">
+        <v>703</v>
+      </c>
+      <c r="M321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="10:13">
+      <c r="J322">
+        <v>854</v>
+      </c>
+      <c r="M322">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="323" spans="10:13">
+      <c r="J323">
+        <v>658</v>
+      </c>
+      <c r="M323">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="324" spans="10:13">
+      <c r="J324">
+        <v>618</v>
+      </c>
+      <c r="M324">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="325" spans="10:13">
+      <c r="J325">
+        <v>65</v>
+      </c>
+      <c r="M325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="10:13">
+      <c r="J326">
+        <v>640</v>
+      </c>
+      <c r="M326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="10:13">
+      <c r="J327">
+        <v>591</v>
+      </c>
+      <c r="M327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="10:13">
+      <c r="J328">
+        <v>764</v>
+      </c>
+      <c r="M328">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="329" spans="10:13">
+      <c r="J329">
+        <v>666</v>
+      </c>
+      <c r="M329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="10:13">
+      <c r="J330">
+        <v>551</v>
+      </c>
+      <c r="M330">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="331" spans="10:13">
+      <c r="J331">
+        <v>908</v>
+      </c>
+      <c r="M331">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="332" spans="10:13">
+      <c r="J332">
+        <v>743</v>
+      </c>
+      <c r="M332">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="333" spans="10:13">
+      <c r="J333">
+        <v>0</v>
+      </c>
+      <c r="M333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="10:13">
+      <c r="J334">
+        <v>0</v>
+      </c>
+      <c r="M334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="10:13">
+      <c r="J335">
+        <v>790</v>
+      </c>
+      <c r="M335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="10:13">
+      <c r="J336">
+        <v>1230</v>
+      </c>
+      <c r="M336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="10:13">
+      <c r="J337">
+        <v>539</v>
+      </c>
+      <c r="M337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="10:13">
+      <c r="J338">
+        <v>195</v>
+      </c>
+      <c r="M338">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="339" spans="10:13">
+      <c r="J339">
+        <v>712</v>
+      </c>
+      <c r="M339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="10:13">
+      <c r="J340">
+        <v>704</v>
+      </c>
+      <c r="M340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="10:13">
+      <c r="J341">
+        <v>0</v>
+      </c>
+      <c r="M341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="10:13">
+      <c r="J342">
+        <v>795</v>
+      </c>
+      <c r="M342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="10:13">
+      <c r="J343">
+        <v>578</v>
+      </c>
+      <c r="M343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="10:13">
+      <c r="J344">
+        <v>544</v>
+      </c>
+      <c r="M344">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="345" spans="10:13">
+      <c r="J345">
+        <v>496</v>
+      </c>
+      <c r="M345">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="346" spans="10:13">
+      <c r="J346">
+        <v>734</v>
+      </c>
+      <c r="M346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="10:13">
+      <c r="J347">
+        <v>880</v>
+      </c>
+      <c r="M347">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="348" spans="10:13">
+      <c r="J348">
+        <v>776</v>
+      </c>
+      <c r="M348">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="349" spans="10:13">
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="M349">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="350" spans="10:13">
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="M350">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="351" spans="10:13">
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="M351">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="352" spans="10:13">
+      <c r="J352">
+        <v>400</v>
+      </c>
+      <c r="M352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="10:13">
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="M353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="10:13">
+      <c r="J354">
+        <v>832</v>
+      </c>
+      <c r="M354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="10:13">
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="M355">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="356" spans="10:13">
+      <c r="J356">
+        <v>719</v>
+      </c>
+      <c r="M356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="10:13">
+      <c r="J357">
+        <v>659</v>
+      </c>
+      <c r="M357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="10:13">
+      <c r="J358">
+        <v>677</v>
+      </c>
+      <c r="M358">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="359" spans="10:13">
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="M359">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="360" spans="10:13">
+      <c r="J360">
+        <v>548</v>
+      </c>
+      <c r="M360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="10:13">
+      <c r="J361">
+        <v>463</v>
+      </c>
+      <c r="M361">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="362" spans="10:13">
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="M362">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="363" spans="10:13">
+      <c r="J363">
+        <v>716</v>
+      </c>
+      <c r="M363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="10:13">
+      <c r="J364">
+        <v>634</v>
+      </c>
+      <c r="M364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="10:13">
+      <c r="J365">
+        <v>782</v>
+      </c>
+      <c r="M365">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="366" spans="10:13">
+      <c r="J366">
+        <v>654</v>
+      </c>
+      <c r="M366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="10:13">
+      <c r="J367">
+        <v>874</v>
+      </c>
+      <c r="M367">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="368" spans="10:13">
+      <c r="J368">
+        <v>629</v>
+      </c>
+      <c r="M368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="10:13">
+      <c r="J369">
+        <v>582</v>
+      </c>
+      <c r="M369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="10:13">
+      <c r="J370">
+        <v>881</v>
+      </c>
+      <c r="M370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="10:13">
+      <c r="J371">
+        <v>621</v>
+      </c>
+      <c r="M371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="10:13">
+      <c r="J372">
+        <v>473</v>
+      </c>
+      <c r="M372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="10:13">
+      <c r="J373">
+        <v>647</v>
+      </c>
+      <c r="M373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="10:13">
+      <c r="J374">
+        <v>383</v>
+      </c>
+      <c r="M374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="10:13">
+      <c r="J375">
+        <v>0</v>
+      </c>
+      <c r="M375">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="376" spans="10:13">
+      <c r="J376">
+        <v>999</v>
+      </c>
+      <c r="M376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="10:13">
+      <c r="J377">
+        <v>349</v>
+      </c>
+      <c r="M377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="10:13">
+      <c r="J378">
+        <v>521</v>
+      </c>
+      <c r="M378">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="379" spans="10:13">
+      <c r="J379">
+        <v>294</v>
+      </c>
+      <c r="M379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="10:13">
+      <c r="J380">
+        <v>678</v>
+      </c>
+      <c r="M380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="10:13">
+      <c r="J381">
+        <v>0</v>
+      </c>
+      <c r="M381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="10:13">
+      <c r="J382">
+        <v>340</v>
+      </c>
+      <c r="M382">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="383" spans="10:13">
+      <c r="J383">
+        <v>719</v>
+      </c>
+      <c r="M383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="10:13">
+      <c r="J384">
+        <v>486</v>
+      </c>
+      <c r="M384">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="385" spans="10:13">
+      <c r="J385">
+        <v>561</v>
+      </c>
+      <c r="M385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="10:13">
+      <c r="J386">
+        <v>672</v>
+      </c>
+      <c r="M386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="10:13">
+      <c r="J387">
+        <v>0</v>
+      </c>
+      <c r="M387">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="388" spans="10:13">
+      <c r="J388">
+        <v>456</v>
+      </c>
+      <c r="M388">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="389" spans="10:13">
+      <c r="J389">
+        <v>617</v>
+      </c>
+      <c r="M389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="10:13">
+      <c r="J390">
+        <v>441</v>
+      </c>
+      <c r="M390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="10:13">
+      <c r="J391">
+        <v>804</v>
+      </c>
+      <c r="M391">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="392" spans="10:13">
+      <c r="J392">
+        <v>519</v>
+      </c>
+      <c r="M392">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="393" spans="10:13">
+      <c r="J393">
+        <v>958</v>
+      </c>
+      <c r="M393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="10:13">
+      <c r="J394">
+        <v>0</v>
+      </c>
+      <c r="M394">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="395" spans="10:13">
+      <c r="J395">
+        <v>938</v>
+      </c>
+      <c r="M395">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="396" spans="10:13">
+      <c r="J396">
+        <v>536</v>
+      </c>
+      <c r="M396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="10:13">
+      <c r="J397">
+        <v>612</v>
+      </c>
+      <c r="M397">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="398" spans="10:13">
+      <c r="J398">
+        <v>0</v>
+      </c>
+      <c r="M398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="10:13">
+      <c r="J399">
+        <v>0</v>
+      </c>
+      <c r="M399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="10:13">
+      <c r="J400">
+        <v>644</v>
+      </c>
+      <c r="M400">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="401" spans="10:13">
+      <c r="J401">
+        <v>0</v>
+      </c>
+      <c r="M401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="10:13">
+      <c r="J402">
+        <v>0</v>
+      </c>
+      <c r="M402">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="403" spans="10:13">
+      <c r="J403">
+        <v>873</v>
+      </c>
+      <c r="M403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="10:13">
+      <c r="J404">
+        <v>537</v>
+      </c>
+      <c r="M404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="10:13">
+      <c r="J405">
+        <v>0</v>
+      </c>
+      <c r="M405">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="406" spans="10:13">
+      <c r="J406">
+        <v>530</v>
+      </c>
+      <c r="M406">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="407" spans="10:13">
+      <c r="J407">
+        <v>573</v>
+      </c>
+      <c r="M407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="10:13">
+      <c r="J408">
+        <v>623</v>
+      </c>
+      <c r="M408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="10:13">
+      <c r="J409">
+        <v>715</v>
+      </c>
+      <c r="M409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="10:13">
+      <c r="J410">
+        <v>967</v>
+      </c>
+      <c r="M410">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="411" spans="10:13">
+      <c r="J411">
+        <v>702</v>
+      </c>
+      <c r="M411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="10:13">
+      <c r="J412">
+        <v>525</v>
+      </c>
+      <c r="M412">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="413" spans="10:13">
+      <c r="J413">
+        <v>0</v>
+      </c>
+      <c r="M413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="10:13">
+      <c r="J414">
+        <v>0</v>
+      </c>
+      <c r="M414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="10:13">
+      <c r="J415">
+        <v>0</v>
+      </c>
+      <c r="M415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="10:13">
+      <c r="J416">
+        <v>636</v>
+      </c>
+      <c r="M416">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="417" spans="10:13">
+      <c r="J417">
+        <v>413</v>
+      </c>
+      <c r="M417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="10:13">
+      <c r="J418">
+        <v>570</v>
+      </c>
+      <c r="M418">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="419" spans="10:13">
+      <c r="J419">
+        <v>1171</v>
+      </c>
+      <c r="M419">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="420" spans="10:13">
+      <c r="J420">
+        <v>669</v>
+      </c>
+      <c r="M420">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="421" spans="10:13">
+      <c r="J421">
+        <v>0</v>
+      </c>
+      <c r="M421">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="422" spans="10:13">
+      <c r="J422">
+        <v>1483</v>
+      </c>
+      <c r="M422">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="423" spans="10:13">
+      <c r="J423">
+        <v>933</v>
+      </c>
+      <c r="M423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="10:13">
+      <c r="J424">
+        <v>923</v>
+      </c>
+      <c r="M424">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="425" spans="10:13">
+      <c r="J425">
+        <v>325</v>
+      </c>
+      <c r="M425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="10:13">
+      <c r="J426">
+        <v>610</v>
+      </c>
+      <c r="M426">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="427" spans="10:13">
+      <c r="J427">
+        <v>825</v>
+      </c>
+      <c r="M427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="10:13">
+      <c r="J428">
+        <v>1179</v>
+      </c>
+      <c r="M428">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="429" spans="10:13">
+      <c r="J429">
+        <v>632</v>
+      </c>
+      <c r="M429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="10:13">
+      <c r="J430">
+        <v>622</v>
+      </c>
+      <c r="M430">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="431" spans="10:13">
+      <c r="J431">
+        <v>0</v>
+      </c>
+      <c r="M431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="10:13">
+      <c r="J432">
+        <v>509</v>
+      </c>
+      <c r="M432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="10:13">
+      <c r="J433">
+        <v>795</v>
+      </c>
+      <c r="M433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="10:13">
+      <c r="J434">
+        <v>852</v>
+      </c>
+      <c r="M434">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="435" spans="10:13">
+      <c r="J435">
+        <v>932</v>
+      </c>
+      <c r="M435">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="436" spans="10:13">
+      <c r="J436">
+        <v>818</v>
+      </c>
+      <c r="M436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="10:13">
+      <c r="J437">
+        <v>695</v>
+      </c>
+      <c r="M437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="10:13">
+      <c r="J438">
+        <v>486</v>
+      </c>
+      <c r="M438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="10:13">
+      <c r="J439">
+        <v>701</v>
+      </c>
+      <c r="M439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="10:13">
+      <c r="J440">
+        <v>490</v>
+      </c>
+      <c r="M440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="10:13">
+      <c r="J441">
+        <v>504</v>
+      </c>
+      <c r="M441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="10:13">
+      <c r="J442">
+        <v>655</v>
+      </c>
+      <c r="M442">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="443" spans="10:13">
+      <c r="J443">
+        <v>243</v>
+      </c>
+      <c r="M443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="10:13">
+      <c r="J444">
+        <v>473</v>
+      </c>
+      <c r="M444">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="445" spans="10:13">
+      <c r="J445">
+        <v>0</v>
+      </c>
+      <c r="M445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="10:13">
+      <c r="J446">
+        <v>987</v>
+      </c>
+      <c r="M446">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="447" spans="10:13">
+      <c r="J447">
+        <v>749</v>
+      </c>
+      <c r="M447">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="448" spans="10:13">
+      <c r="J448">
+        <v>534</v>
+      </c>
+      <c r="M448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="10:13">
+      <c r="J449">
+        <v>0</v>
+      </c>
+      <c r="M449">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="450" spans="10:13">
+      <c r="J450">
+        <v>577</v>
+      </c>
+      <c r="M450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="10:13">
+      <c r="J451">
+        <v>700</v>
+      </c>
+      <c r="M451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="10:13">
+      <c r="J452">
+        <v>631</v>
+      </c>
+      <c r="M452">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="453" spans="10:13">
+      <c r="J453">
+        <v>697</v>
+      </c>
+      <c r="M453">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="454" spans="10:13">
+      <c r="J454">
+        <v>413</v>
+      </c>
+      <c r="M454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="10:13">
+      <c r="J455">
+        <v>428</v>
+      </c>
+      <c r="M455">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="456" spans="10:13">
+      <c r="J456">
+        <v>654</v>
+      </c>
+      <c r="M456">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="457" spans="10:13">
+      <c r="J457">
+        <v>938</v>
+      </c>
+      <c r="M457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="10:13">
+      <c r="J458">
+        <v>748</v>
+      </c>
+      <c r="M458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="10:13">
+      <c r="J459">
+        <v>416</v>
+      </c>
+      <c r="M459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="10:13">
+      <c r="J460">
+        <v>659</v>
+      </c>
+      <c r="M460">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="461" spans="10:13">
+      <c r="J461">
+        <v>0</v>
+      </c>
+      <c r="M461">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="462" spans="10:13">
+      <c r="J462">
+        <v>416</v>
+      </c>
+      <c r="M462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="10:13">
+      <c r="J463">
+        <v>654</v>
+      </c>
+      <c r="M463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="10:13">
+      <c r="J464">
+        <v>0</v>
+      </c>
+      <c r="M464">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="465" spans="10:13">
+      <c r="J465">
+        <v>826</v>
+      </c>
+      <c r="M465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="10:13">
+      <c r="J466">
+        <v>763</v>
+      </c>
+      <c r="M466">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="467" spans="10:13">
+      <c r="J467">
+        <v>538</v>
+      </c>
+      <c r="M467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="10:13">
+      <c r="J468">
+        <v>801</v>
+      </c>
+      <c r="M468">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="469" spans="10:13">
+      <c r="J469">
+        <v>0</v>
+      </c>
+      <c r="M469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="10:13">
+      <c r="J470">
+        <v>0</v>
+      </c>
+      <c r="M470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="10:13">
+      <c r="J471">
+        <v>0</v>
+      </c>
+      <c r="M471">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="472" spans="10:13">
+      <c r="J472">
+        <v>872</v>
+      </c>
+      <c r="M472">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="473" spans="10:13">
+      <c r="J473">
+        <v>874</v>
+      </c>
+      <c r="M473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="10:13">
+      <c r="J474">
+        <v>929</v>
+      </c>
+      <c r="M474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="10:13">
+      <c r="J475">
+        <v>0</v>
+      </c>
+      <c r="M475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="10:13">
+      <c r="J476">
+        <v>0</v>
+      </c>
+      <c r="M476">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="477" spans="10:13">
+      <c r="J477">
+        <v>832</v>
+      </c>
+      <c r="M477">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="478" spans="10:13">
+      <c r="J478">
+        <v>500</v>
+      </c>
+      <c r="M478">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="479" spans="10:13">
+      <c r="J479">
+        <v>971</v>
+      </c>
+      <c r="M479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="10:13">
+      <c r="J480">
+        <v>0</v>
+      </c>
+      <c r="M480">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="481" spans="10:13">
+      <c r="J481">
+        <v>887</v>
+      </c>
+      <c r="M481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="10:13">
+      <c r="J482">
+        <v>798</v>
+      </c>
+      <c r="M482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="10:13">
+      <c r="J483">
+        <v>902</v>
+      </c>
+      <c r="M483">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="484" spans="10:13">
+      <c r="J484">
+        <v>1469</v>
+      </c>
+      <c r="M484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="10:13">
+      <c r="J485">
+        <v>522</v>
+      </c>
+      <c r="M485">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="486" spans="10:13">
+      <c r="J486">
+        <v>891</v>
+      </c>
+      <c r="M486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="10:13">
+      <c r="J487">
+        <v>672</v>
+      </c>
+      <c r="M487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="10:13">
+      <c r="J488">
+        <v>650</v>
+      </c>
+      <c r="M488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="10:13">
+      <c r="J489">
+        <v>650</v>
+      </c>
+      <c r="M489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="10:13">
+      <c r="J490">
+        <v>539</v>
+      </c>
+      <c r="M490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="10:13">
+      <c r="J491">
+        <v>0</v>
+      </c>
+      <c r="M491">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="492" spans="10:13">
+      <c r="J492">
+        <v>582</v>
+      </c>
+      <c r="M492">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="493" spans="10:13">
+      <c r="J493">
+        <v>372</v>
+      </c>
+      <c r="M493">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="494" spans="10:13">
+      <c r="J494">
+        <v>666</v>
+      </c>
+      <c r="M494">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="495" spans="10:13">
+      <c r="J495">
+        <v>0</v>
+      </c>
+      <c r="M495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="10:13">
+      <c r="J496">
+        <v>1119</v>
+      </c>
+      <c r="M496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="10:13">
+      <c r="J497">
+        <v>162</v>
+      </c>
+      <c r="M497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="10:13">
+      <c r="J498">
+        <v>0</v>
+      </c>
+      <c r="M498">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="499" spans="10:13">
+      <c r="J499">
+        <v>511</v>
+      </c>
+      <c r="M499">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="500" spans="10:13">
+      <c r="J500">
+        <v>0</v>
+      </c>
+      <c r="M500">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="501" spans="10:13">
+      <c r="J501">
+        <v>832</v>
+      </c>
+      <c r="M501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="10:13">
+      <c r="J502">
+        <v>0</v>
+      </c>
+      <c r="M502">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="503" spans="10:13">
+      <c r="J503">
+        <v>598</v>
+      </c>
+      <c r="M503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="10:13">
+      <c r="J504">
+        <v>0</v>
+      </c>
+      <c r="M504">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="505" spans="10:13">
+      <c r="J505">
+        <v>784</v>
+      </c>
+      <c r="M505">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="506" spans="10:13">
+      <c r="J506">
+        <v>645</v>
+      </c>
+      <c r="M506">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="507" spans="10:13">
+      <c r="J507">
+        <v>811</v>
+      </c>
+      <c r="M507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="10:13">
+      <c r="J508">
+        <v>939</v>
+      </c>
+      <c r="M508">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="509" spans="10:13">
+      <c r="J509">
+        <v>862</v>
+      </c>
+      <c r="M509">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="510" spans="10:13">
+      <c r="J510">
+        <v>300</v>
+      </c>
+      <c r="M510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="10:13">
+      <c r="J511">
+        <v>875</v>
+      </c>
+      <c r="M511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="10:13">
+      <c r="J512">
+        <v>559</v>
+      </c>
+      <c r="M512">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="513" spans="10:13">
+      <c r="J513">
+        <v>0</v>
+      </c>
+      <c r="M513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="10:13">
+      <c r="M514">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="515" spans="10:13">
+      <c r="M515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="10:13">
+      <c r="M516">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="517" spans="10:13">
+      <c r="M517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="10:13">
+      <c r="M518">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="519" spans="10:13">
+      <c r="M519">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="520" spans="10:13">
+      <c r="M520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="10:13">
+      <c r="M521">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="522" spans="10:13">
+      <c r="M522">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="523" spans="10:13">
+      <c r="M523">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="524" spans="10:13">
+      <c r="M524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="10:13">
+      <c r="M525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="10:13">
+      <c r="M526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="10:13">
+      <c r="M527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="10:13">
+      <c r="M528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="13:13">
+      <c r="M529">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="530" spans="13:13">
+      <c r="M530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="13:13">
+      <c r="M531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="13:13">
+      <c r="M532">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="533" spans="13:13">
+      <c r="M533">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="534" spans="13:13">
+      <c r="M534">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="535" spans="13:13">
+      <c r="M535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="13:13">
+      <c r="M536">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="537" spans="13:13">
+      <c r="M537">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="538" spans="13:13">
+      <c r="M538">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="539" spans="13:13">
+      <c r="M539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="13:13">
+      <c r="M540">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="541" spans="13:13">
+      <c r="M541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="13:13">
+      <c r="M542">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="543" spans="13:13">
+      <c r="M543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="13:13">
+      <c r="M544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="13:13">
+      <c r="M545">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="546" spans="13:13">
+      <c r="M546">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="547" spans="13:13">
+      <c r="M547">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="548" spans="13:13">
+      <c r="M548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="13:13">
+      <c r="M549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="13:13">
+      <c r="M550">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="551" spans="13:13">
+      <c r="M551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="13:13">
+      <c r="M552">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="553" spans="13:13">
+      <c r="M553">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="554" spans="13:13">
+      <c r="M554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="13:13">
+      <c r="M555">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="556" spans="13:13">
+      <c r="M556">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="557" spans="13:13">
+      <c r="M557">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="558" spans="13:13">
+      <c r="M558">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="559" spans="13:13">
+      <c r="M559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="13:13">
+      <c r="M560">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="561" spans="13:13">
+      <c r="M561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="13:13">
+      <c r="M562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="13:13">
+      <c r="M563">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="564" spans="13:13">
+      <c r="M564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="13:13">
+      <c r="M565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="13:13">
+      <c r="M566">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="567" spans="13:13">
+      <c r="M567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="13:13">
+      <c r="M568">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="569" spans="13:13">
+      <c r="M569">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="570" spans="13:13">
+      <c r="M570">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="571" spans="13:13">
+      <c r="M571">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="572" spans="13:13">
+      <c r="M572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="13:13">
+      <c r="M573">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="574" spans="13:13">
+      <c r="M574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="13:13">
+      <c r="M575">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="576" spans="13:13">
+      <c r="M576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="13:13">
+      <c r="M577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="13:13">
+      <c r="M578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="13:13">
+      <c r="M579">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="580" spans="13:13">
+      <c r="M580">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="581" spans="13:13">
+      <c r="M581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="13:13">
+      <c r="M582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="13:13">
+      <c r="M583">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="584" spans="13:13">
+      <c r="M584">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="585" spans="13:13">
+      <c r="M585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="13:13">
+      <c r="M586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="13:13">
+      <c r="M587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="13:13">
+      <c r="M588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="13:13">
+      <c r="M589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="13:13">
+      <c r="M590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="13:13">
+      <c r="M591">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="592" spans="13:13">
+      <c r="M592">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="593" spans="13:13">
+      <c r="M593">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="594" spans="13:13">
+      <c r="M594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="13:13">
+      <c r="M595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="13:13">
+      <c r="M596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="13:13">
+      <c r="M597">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="598" spans="13:13">
+      <c r="M598">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="599" spans="13:13">
+      <c r="M599">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="600" spans="13:13">
+      <c r="M600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="13:13">
+      <c r="M601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="13:13">
+      <c r="M602">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="603" spans="13:13">
+      <c r="M603">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="604" spans="13:13">
+      <c r="M604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="13:13">
+      <c r="M605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="13:13">
+      <c r="M606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="13:13">
+      <c r="M607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="13:13">
+      <c r="M608">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="609" spans="13:13">
+      <c r="M609">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="610" spans="13:13">
+      <c r="M610">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="611" spans="13:13">
+      <c r="M611">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="612" spans="13:13">
+      <c r="M612">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="613" spans="13:13">
+      <c r="M613">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="614" spans="13:13">
+      <c r="M614">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="615" spans="13:13">
+      <c r="M615">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="616" spans="13:13">
+      <c r="M616">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="617" spans="13:13">
+      <c r="M617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="13:13">
+      <c r="M618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="13:13">
+      <c r="M619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="13:13">
+      <c r="M620">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="621" spans="13:13">
+      <c r="M621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="13:13">
+      <c r="M622">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="623" spans="13:13">
+      <c r="M623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="13:13">
+      <c r="M624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="13:13">
+      <c r="M625">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="626" spans="13:13">
+      <c r="M626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="13:13">
+      <c r="M627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="13:13">
+      <c r="M628">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="13:13">
+      <c r="M629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="13:13">
+      <c r="M630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="13:13">
+      <c r="M631">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="632" spans="13:13">
+      <c r="M632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="13:13">
+      <c r="M633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="13:13">
+      <c r="M634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="13:13">
+      <c r="M635">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="636" spans="13:13">
+      <c r="M636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="13:13">
+      <c r="M637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="13:13">
+      <c r="M638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="13:13">
+      <c r="M639">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="640" spans="13:13">
+      <c r="M640">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="641" spans="13:13">
+      <c r="M641">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="642" spans="13:13">
+      <c r="M642">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="643" spans="13:13">
+      <c r="M643">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="644" spans="13:13">
+      <c r="M644">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="645" spans="13:13">
+      <c r="M645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="13:13">
+      <c r="M646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="13:13">
+      <c r="M647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="13:13">
+      <c r="M648">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="649" spans="13:13">
+      <c r="M649">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="650" spans="13:13">
+      <c r="M650">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="651" spans="13:13">
+      <c r="M651">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="652" spans="13:13">
+      <c r="M652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="13:13">
+      <c r="M653">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="654" spans="13:13">
+      <c r="M654">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="655" spans="13:13">
+      <c r="M655">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="13:13">
+      <c r="M656">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="13:13">
+      <c r="M657">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="658" spans="13:13">
+      <c r="M658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="13:13">
+      <c r="M659">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="660" spans="13:13">
+      <c r="M660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="13:13">
+      <c r="M661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="13:13">
+      <c r="M662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="13:13">
+      <c r="M663">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="664" spans="13:13">
+      <c r="M664">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="665" spans="13:13">
+      <c r="M665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="13:13">
+      <c r="M666">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="667" spans="13:13">
+      <c r="M667">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="13:13">
+      <c r="M668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="13:13">
+      <c r="M669">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="670" spans="13:13">
+      <c r="M670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="13:13">
+      <c r="M671">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="13:13">
+      <c r="M672">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="673" spans="13:13">
+      <c r="M673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="13:13">
+      <c r="M674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="13:13">
+      <c r="M675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="13:13">
+      <c r="M676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="13:13">
+      <c r="M677">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="678" spans="13:13">
+      <c r="M678">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="13:13">
+      <c r="M679">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="680" spans="13:13">
+      <c r="M680">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="681" spans="13:13">
+      <c r="M681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="13:13">
+      <c r="M682">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="683" spans="13:13">
+      <c r="M683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="13:13">
+      <c r="M684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="13:13">
+      <c r="M685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="13:13">
+      <c r="M686">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="687" spans="13:13">
+      <c r="M687">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="688" spans="13:13">
+      <c r="M688">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="689" spans="13:13">
+      <c r="M689">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="13:13">
+      <c r="M690">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="691" spans="13:13">
+      <c r="M691">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="692" spans="13:13">
+      <c r="M692">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="693" spans="13:13">
+      <c r="M693">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="694" spans="13:13">
+      <c r="M694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="13:13">
+      <c r="M695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="13:13">
+      <c r="M696">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="697" spans="13:13">
+      <c r="M697">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="698" spans="13:13">
+      <c r="M698">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="699" spans="13:13">
+      <c r="M699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="13:13">
+      <c r="M700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="13:13">
+      <c r="M701">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="13:13">
+      <c r="M702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="13:13">
+      <c r="M703">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="704" spans="13:13">
+      <c r="M704">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="13:13">
+      <c r="M705">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="706" spans="13:13">
+      <c r="M706">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="707" spans="13:13">
+      <c r="M707">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="13:13">
+      <c r="M708">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="13:13">
+      <c r="M709">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="710" spans="13:13">
+      <c r="M710">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="711" spans="13:13">
+      <c r="M711">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="712" spans="13:13">
+      <c r="M712">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="13:13">
+      <c r="M713">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="714" spans="13:13">
+      <c r="M714">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="715" spans="13:13">
+      <c r="M715">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="716" spans="13:13">
+      <c r="M716">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="13:13">
+      <c r="M717">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="13:13">
+      <c r="M718">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="719" spans="13:13">
+      <c r="M719">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="13:13">
+      <c r="M720">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="721" spans="13:13">
+      <c r="M721">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="13:13">
+      <c r="M722">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="13:13">
+      <c r="M723">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="13:13">
+      <c r="M724">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="13:13">
+      <c r="M725">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="726" spans="13:13">
+      <c r="M726">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="727" spans="13:13">
+      <c r="M727">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728" spans="13:13">
+      <c r="M728">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="729" spans="13:13">
+      <c r="M729">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="13:13">
+      <c r="M730">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="13:13">
+      <c r="M731">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" spans="13:13">
+      <c r="M732">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="733" spans="13:13">
+      <c r="M733">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="13:13">
+      <c r="M734">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="13:13">
+      <c r="M735">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="13:13">
+      <c r="M736">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="13:13">
+      <c r="M737">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="738" spans="13:13">
+      <c r="M738">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="739" spans="13:13">
+      <c r="M739">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="740" spans="13:13">
+      <c r="M740">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="741" spans="13:13">
+      <c r="M741">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="13:13">
+      <c r="M742">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="743" spans="13:13">
+      <c r="M743">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="744" spans="13:13">
+      <c r="M744">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="13:13">
+      <c r="M745">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="746" spans="13:13">
+      <c r="M746">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="747" spans="13:13">
+      <c r="M747">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="748" spans="13:13">
+      <c r="M748">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="13:13">
+      <c r="M749">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="750" spans="13:13">
+      <c r="M750">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="751" spans="13:13">
+      <c r="M751">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="752" spans="13:13">
+      <c r="M752">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="753" spans="13:13">
+      <c r="M753">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="13:13">
+      <c r="M754">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="755" spans="13:13">
+      <c r="M755">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="13:13">
+      <c r="M756">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="757" spans="13:13">
+      <c r="M757">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="758" spans="13:13">
+      <c r="M758">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" spans="13:13">
+      <c r="M759">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="760" spans="13:13">
+      <c r="M760">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="13:13">
+      <c r="M761">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="13:13">
+      <c r="M762">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="13:13">
+      <c r="M763">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="764" spans="13:13">
+      <c r="M764">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="13:13">
+      <c r="M765">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="766" spans="13:13">
+      <c r="M766">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="767" spans="13:13">
+      <c r="M767">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="768" spans="13:13">
+      <c r="M768">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="13:13">
+      <c r="M769">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="770" spans="13:13">
+      <c r="M770">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="13:13">
+      <c r="M771">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="772" spans="13:13">
+      <c r="M772">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="13:13">
+      <c r="M773">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" spans="13:13">
+      <c r="M774">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="13:13">
+      <c r="M775">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="776" spans="13:13">
+      <c r="M776">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="777" spans="13:13">
+      <c r="M777">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="778" spans="13:13">
+      <c r="M778">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" spans="13:13">
+      <c r="M779">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" spans="13:13">
+      <c r="M780">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="781" spans="13:13">
+      <c r="M781">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="13:13">
+      <c r="M782">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="783" spans="13:13">
+      <c r="M783">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="13:13">
+      <c r="M784">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785" spans="13:13">
+      <c r="M785">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="786" spans="13:13">
+      <c r="M786">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787" spans="13:13">
+      <c r="M787">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" spans="13:13">
+      <c r="M788">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="789" spans="13:13">
+      <c r="M789">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="790" spans="13:13">
+      <c r="M790">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="791" spans="13:13">
+      <c r="M791">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="792" spans="13:13">
+      <c r="M792">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="13:13">
+      <c r="M793">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="794" spans="13:13">
+      <c r="M794">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="13:13">
+      <c r="M795">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="796" spans="13:13">
+      <c r="M796">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="797" spans="13:13">
+      <c r="M797">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" spans="13:13">
+      <c r="M798">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="799" spans="13:13">
+      <c r="M799">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800" spans="13:13">
+      <c r="M800">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="13:13">
+      <c r="M801">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="802" spans="13:13">
+      <c r="M802">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="13:13">
+      <c r="M803">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804" spans="13:13">
+      <c r="M804">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805" spans="13:13">
+      <c r="M805">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="806" spans="13:13">
+      <c r="M806">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807" spans="13:13">
+      <c r="M807">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808" spans="13:13">
+      <c r="M808">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="13:13">
+      <c r="M809">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810" spans="13:13">
+      <c r="M810">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811" spans="13:13">
+      <c r="M811">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812" spans="13:13">
+      <c r="M812">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813" spans="13:13">
+      <c r="M813">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="13:13">
+      <c r="M814">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815" spans="13:13">
+      <c r="M815">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" spans="13:13">
+      <c r="M816">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817" spans="13:13">
+      <c r="M817">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" spans="13:13">
+      <c r="M818">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="819" spans="13:13">
+      <c r="M819">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="820" spans="13:13">
+      <c r="M820">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="13:13">
+      <c r="M821">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="822" spans="13:13">
+      <c r="M822">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="823" spans="13:13">
+      <c r="M823">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824" spans="13:13">
+      <c r="M824">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825" spans="13:13">
+      <c r="M825">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826" spans="13:13">
+      <c r="M826">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="13:13">
+      <c r="M827">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="828" spans="13:13">
+      <c r="M828">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="829" spans="13:13">
+      <c r="M829">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="830" spans="13:13">
+      <c r="M830">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="13:13">
+      <c r="M831">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="832" spans="13:13">
+      <c r="M832">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" spans="13:13">
+      <c r="M833">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834" spans="13:13">
+      <c r="M834">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="835" spans="13:13">
+      <c r="M835">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="13:13">
+      <c r="M836">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="13:13">
+      <c r="M837">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838" spans="13:13">
+      <c r="M838">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839" spans="13:13">
+      <c r="M839">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840" spans="13:13">
+      <c r="M840">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="841" spans="13:13">
+      <c r="M841">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842" spans="13:13">
+      <c r="M842">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="843" spans="13:13">
+      <c r="M843">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="13:13">
+      <c r="M844">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845" spans="13:13">
+      <c r="M845">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="846" spans="13:13">
+      <c r="M846">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847" spans="13:13">
+      <c r="M847">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848" spans="13:13">
+      <c r="M848">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="849" spans="13:13">
+      <c r="M849">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="850" spans="13:13">
+      <c r="M850">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="851" spans="13:13">
+      <c r="M851">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852" spans="13:13">
+      <c r="M852">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853" spans="13:13">
+      <c r="M853">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854" spans="13:13">
+      <c r="M854">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855" spans="13:13">
+      <c r="M855">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="856" spans="13:13">
+      <c r="M856">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857" spans="13:13">
+      <c r="M857">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="858" spans="13:13">
+      <c r="M858">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859" spans="13:13">
+      <c r="M859">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860" spans="13:13">
+      <c r="M860">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861" spans="13:13">
+      <c r="M861">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="862" spans="13:13">
+      <c r="M862">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="13:13">
+      <c r="M863">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="13:13">
+      <c r="M864">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865" spans="13:13">
+      <c r="M865">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="866" spans="13:13">
+      <c r="M866">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="13:13">
+      <c r="M867">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868" spans="13:13">
+      <c r="M868">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869" spans="13:13">
+      <c r="M869">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870" spans="13:13">
+      <c r="M870">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="871" spans="13:13">
+      <c r="M871">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="13:13">
+      <c r="M872">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873" spans="13:13">
+      <c r="M873">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="13:13">
+      <c r="M874">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875" spans="13:13">
+      <c r="M875">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876" spans="13:13">
+      <c r="M876">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="877" spans="13:13">
+      <c r="M877">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="878" spans="13:13">
+      <c r="M878">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879" spans="13:13">
+      <c r="M879">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="880" spans="13:13">
+      <c r="M880">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="881" spans="13:13">
+      <c r="M881">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="882" spans="13:13">
+      <c r="M882">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="883" spans="13:13">
+      <c r="M883">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884" spans="13:13">
+      <c r="M884">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="885" spans="13:13">
+      <c r="M885">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="886" spans="13:13">
+      <c r="M886">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="887" spans="13:13">
+      <c r="M887">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="888" spans="13:13">
+      <c r="M888">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="889" spans="13:13">
+      <c r="M889">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890" spans="13:13">
+      <c r="M890">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891" spans="13:13">
+      <c r="M891">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" spans="13:13">
+      <c r="M892">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="893" spans="13:13">
+      <c r="M893">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="894" spans="13:13">
+      <c r="M894">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="895" spans="13:13">
+      <c r="M895">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896" spans="13:13">
+      <c r="M896">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="897" spans="13:13">
+      <c r="M897">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898" spans="13:13">
+      <c r="M898">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899" spans="13:13">
+      <c r="M899">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="900" spans="13:13">
+      <c r="M900">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="901" spans="13:13">
+      <c r="M901">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902" spans="13:13">
+      <c r="M902">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="903" spans="13:13">
+      <c r="M903">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="904" spans="13:13">
+      <c r="M904">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905" spans="13:13">
+      <c r="M905">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906" spans="13:13">
+      <c r="M906">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907" spans="13:13">
+      <c r="M907">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="908" spans="13:13">
+      <c r="M908">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="909" spans="13:13">
+      <c r="M909">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910" spans="13:13">
+      <c r="M910">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911" spans="13:13">
+      <c r="M911">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="912" spans="13:13">
+      <c r="M912">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="913" spans="13:13">
+      <c r="M913">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="914" spans="13:13">
+      <c r="M914">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915" spans="13:13">
+      <c r="M915">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916" spans="13:13">
+      <c r="M916">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="917" spans="13:13">
+      <c r="M917">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="918" spans="13:13">
+      <c r="M918">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919" spans="13:13">
+      <c r="M919">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920" spans="13:13">
+      <c r="M920">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921" spans="13:13">
+      <c r="M921">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922" spans="13:13">
+      <c r="M922">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="923" spans="13:13">
+      <c r="M923">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924" spans="13:13">
+      <c r="M924">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="925" spans="13:13">
+      <c r="M925">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="926" spans="13:13">
+      <c r="M926">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927" spans="13:13">
+      <c r="M927">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="928" spans="13:13">
+      <c r="M928">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="929" spans="13:13">
+      <c r="M929">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930" spans="13:13">
+      <c r="M930">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931" spans="13:13">
+      <c r="M931">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="932" spans="13:13">
+      <c r="M932">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933" spans="13:13">
+      <c r="M933">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934" spans="13:13">
+      <c r="M934">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935" spans="13:13">
+      <c r="M935">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="936" spans="13:13">
+      <c r="M936">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937" spans="13:13">
+      <c r="M937">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938" spans="13:13">
+      <c r="M938">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="939" spans="13:13">
+      <c r="M939">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="940" spans="13:13">
+      <c r="M940">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="941" spans="13:13">
+      <c r="M941">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="942" spans="13:13">
+      <c r="M942">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="943" spans="13:13">
+      <c r="M943">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="944" spans="13:13">
+      <c r="M944">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945" spans="13:13">
+      <c r="M945">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="946" spans="13:13">
+      <c r="M946">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="947" spans="13:13">
+      <c r="M947">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="948" spans="13:13">
+      <c r="M948">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949" spans="13:13">
+      <c r="M949">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950" spans="13:13">
+      <c r="M950">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951" spans="13:13">
+      <c r="M951">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="952" spans="13:13">
+      <c r="M952">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953" spans="13:13">
+      <c r="M953">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="954" spans="13:13">
+      <c r="M954">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="955" spans="13:13">
+      <c r="M955">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="956" spans="13:13">
+      <c r="M956">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="957" spans="13:13">
+      <c r="M957">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958" spans="13:13">
+      <c r="M958">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="959" spans="13:13">
+      <c r="M959">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="960" spans="13:13">
+      <c r="M960">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="961" spans="13:13">
+      <c r="M961">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962" spans="13:13">
+      <c r="M962">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="963" spans="13:13">
+      <c r="M963">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="964" spans="13:13">
+      <c r="M964">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="965" spans="13:13">
+      <c r="M965">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="966" spans="13:13">
+      <c r="M966">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="967" spans="13:13">
+      <c r="M967">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="968" spans="13:13">
+      <c r="M968">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="969" spans="13:13">
+      <c r="M969">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="970" spans="13:13">
+      <c r="M970">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="971" spans="13:13">
+      <c r="M971">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="972" spans="13:13">
+      <c r="M972">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="973" spans="13:13">
+      <c r="M973">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974" spans="13:13">
+      <c r="M974">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="975" spans="13:13">
+      <c r="M975">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="976" spans="13:13">
+      <c r="M976">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="977" spans="13:13">
+      <c r="M977">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="978" spans="13:13">
+      <c r="M978">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="979" spans="13:13">
+      <c r="M979">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="980" spans="13:13">
+      <c r="M980">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="981" spans="13:13">
+      <c r="M981">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982" spans="13:13">
+      <c r="M982">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983" spans="13:13">
+      <c r="M983">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="984" spans="13:13">
+      <c r="M984">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985" spans="13:13">
+      <c r="M985">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="986" spans="13:13">
+      <c r="M986">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="987" spans="13:13">
+      <c r="M987">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="988" spans="13:13">
+      <c r="M988">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="989" spans="13:13">
+      <c r="M989">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="990" spans="13:13">
+      <c r="M990">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991" spans="13:13">
+      <c r="M991">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="992" spans="13:13">
+      <c r="M992">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="993" spans="13:13">
+      <c r="M993">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="994" spans="13:13">
+      <c r="M994">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="995" spans="13:13">
+      <c r="M995">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996" spans="13:13">
+      <c r="M996">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="997" spans="13:13">
+      <c r="M997">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998" spans="13:13">
+      <c r="M998">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="999" spans="13:13">
+      <c r="M999">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="1000" spans="13:13">
+      <c r="M1000">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="1001" spans="13:13">
+      <c r="M1001">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="1002" spans="13:13">
+      <c r="M1002">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1003" spans="13:13">
+      <c r="M1003">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="1004" spans="13:13">
+      <c r="M1004">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="1005" spans="13:13">
+      <c r="M1005">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1006" spans="13:13">
+      <c r="M1006">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1007" spans="13:13">
+      <c r="M1007">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="1008" spans="13:13">
+      <c r="M1008">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1009" spans="13:13">
+      <c r="M1009">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="1010" spans="13:13">
+      <c r="M1010">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1011" spans="13:13">
+      <c r="M1011">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1012" spans="13:13">
+      <c r="M1012">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1013" spans="13:13">
+      <c r="M1013">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1014" spans="13:13">
+      <c r="M1014">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1015" spans="13:13">
+      <c r="M1015">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="1016" spans="13:13">
+      <c r="M1016">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="1017" spans="13:13">
+      <c r="M1017">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1018" spans="13:13">
+      <c r="M1018">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="1019" spans="13:13">
+      <c r="M1019">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="1020" spans="13:13">
+      <c r="M1020">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1021" spans="13:13">
+      <c r="M1021">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1022" spans="13:13">
+      <c r="M1022">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1023" spans="13:13">
+      <c r="M1023">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1024" spans="13:13">
+      <c r="M1024">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="1025" spans="13:13">
+      <c r="M1025">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2419,4 +8603,132 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>648</v>
+      </c>
+      <c r="B2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5">
+        <v>10.106400000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>651</v>
+      </c>
+      <c r="B2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5">
+        <v>16.874600000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11180" yWindow="2740" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="11175" yWindow="2805" windowWidth="24240" windowHeight="13680" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TR SYNCH=3" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="AU SYCNH=3" sheetId="3" r:id="rId3"/>
     <sheet name="AU SYNCH=1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -172,6 +172,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -500,19 +505,19 @@
   <dimension ref="A1:N1025"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="14" max="14" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -544,7 +549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>753</v>
       </c>
@@ -581,7 +586,7 @@
         <v>380.8310546875</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>614</v>
       </c>
@@ -598,7 +603,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>720</v>
       </c>
@@ -630,7 +635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>565</v>
       </c>
@@ -662,7 +667,7 @@
         <v>0.27489999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>639</v>
       </c>
@@ -679,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>570</v>
       </c>
@@ -696,7 +701,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>745</v>
       </c>
@@ -713,7 +718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>588</v>
       </c>
@@ -730,7 +735,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>765</v>
       </c>
@@ -747,7 +752,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>620</v>
       </c>
@@ -764,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>589</v>
       </c>
@@ -781,7 +786,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>662</v>
       </c>
@@ -798,7 +803,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>630</v>
       </c>
@@ -815,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>683</v>
       </c>
@@ -832,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>716</v>
       </c>
@@ -849,7 +854,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>601</v>
       </c>
@@ -866,7 +871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>596</v>
       </c>
@@ -883,7 +888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>640</v>
       </c>
@@ -900,7 +905,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>405</v>
       </c>
@@ -917,7 +922,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>641</v>
       </c>
@@ -934,7 +939,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>583</v>
       </c>
@@ -951,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>615</v>
       </c>
@@ -968,7 +973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>623</v>
       </c>
@@ -985,7 +990,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>605</v>
       </c>
@@ -1002,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>665</v>
       </c>
@@ -1019,7 +1024,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>695</v>
       </c>
@@ -1036,7 +1041,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>768</v>
       </c>
@@ -1053,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>717</v>
       </c>
@@ -1070,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>712</v>
       </c>
@@ -1087,7 +1092,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>675</v>
       </c>
@@ -1104,7 +1109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>610</v>
       </c>
@@ -1121,7 +1126,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>859</v>
       </c>
@@ -1138,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>651</v>
       </c>
@@ -1155,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>689</v>
       </c>
@@ -1172,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>619</v>
       </c>
@@ -1189,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>634</v>
       </c>
@@ -1206,7 +1211,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>605</v>
       </c>
@@ -1223,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>690</v>
       </c>
@@ -1240,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>667</v>
       </c>
@@ -1257,7 +1262,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>661</v>
       </c>
@@ -1274,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>599</v>
       </c>
@@ -1291,7 +1296,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>743</v>
       </c>
@@ -1308,7 +1313,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>695</v>
       </c>
@@ -1325,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>501</v>
       </c>
@@ -1342,7 +1347,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>609</v>
       </c>
@@ -1359,7 +1364,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>672</v>
       </c>
@@ -1376,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>692</v>
       </c>
@@ -1393,7 +1398,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>593</v>
       </c>
@@ -1410,7 +1415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>593</v>
       </c>
@@ -1427,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>654</v>
       </c>
@@ -1444,7 +1449,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>652</v>
       </c>
@@ -1461,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>612</v>
       </c>
@@ -1478,7 +1483,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>582</v>
       </c>
@@ -1495,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>479</v>
       </c>
@@ -1512,7 +1517,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>609</v>
       </c>
@@ -1529,7 +1534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>629</v>
       </c>
@@ -1546,7 +1551,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>552</v>
       </c>
@@ -1563,7 +1568,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>639</v>
       </c>
@@ -1580,7 +1585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>684</v>
       </c>
@@ -1597,7 +1602,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>606</v>
       </c>
@@ -1614,7 +1619,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>673</v>
       </c>
@@ -1631,7 +1636,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>619</v>
       </c>
@@ -1648,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>755</v>
       </c>
@@ -1665,7 +1670,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>693</v>
       </c>
@@ -1682,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D66">
         <v>688</v>
       </c>
@@ -1696,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D67">
         <v>675</v>
       </c>
@@ -1710,7 +1715,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D68">
         <v>701</v>
       </c>
@@ -1724,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D69">
         <v>479</v>
       </c>
@@ -1738,7 +1743,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D70">
         <v>791</v>
       </c>
@@ -1752,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D71">
         <v>588</v>
       </c>
@@ -1766,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D72">
         <v>681</v>
       </c>
@@ -1780,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D73">
         <v>567</v>
       </c>
@@ -1794,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D74">
         <v>341</v>
       </c>
@@ -1808,7 +1813,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D75">
         <v>618</v>
       </c>
@@ -1822,7 +1827,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D76">
         <v>789</v>
       </c>
@@ -1836,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D77">
         <v>560</v>
       </c>
@@ -1850,7 +1855,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D78">
         <v>463</v>
       </c>
@@ -1864,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D79">
         <v>607</v>
       </c>
@@ -1878,7 +1883,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D80">
         <v>546</v>
       </c>
@@ -1892,7 +1897,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="81" spans="4:13">
+    <row r="81" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D81">
         <v>654</v>
       </c>
@@ -1906,7 +1911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="4:13">
+    <row r="82" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D82">
         <v>624</v>
       </c>
@@ -1920,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="4:13">
+    <row r="83" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D83">
         <v>617</v>
       </c>
@@ -1934,7 +1939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="4:13">
+    <row r="84" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D84">
         <v>753</v>
       </c>
@@ -1948,7 +1953,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="85" spans="4:13">
+    <row r="85" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D85">
         <v>640</v>
       </c>
@@ -1962,7 +1967,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="86" spans="4:13">
+    <row r="86" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D86">
         <v>762</v>
       </c>
@@ -1976,7 +1981,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="87" spans="4:13">
+    <row r="87" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D87">
         <v>0</v>
       </c>
@@ -1990,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="4:13">
+    <row r="88" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D88">
         <v>625</v>
       </c>
@@ -2004,7 +2009,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="89" spans="4:13">
+    <row r="89" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D89">
         <v>611</v>
       </c>
@@ -2018,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="4:13">
+    <row r="90" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D90">
         <v>598</v>
       </c>
@@ -2032,7 +2037,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="91" spans="4:13">
+    <row r="91" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D91">
         <v>735</v>
       </c>
@@ -2046,7 +2051,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="92" spans="4:13">
+    <row r="92" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D92">
         <v>646</v>
       </c>
@@ -2060,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="4:13">
+    <row r="93" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D93">
         <v>651</v>
       </c>
@@ -2074,7 +2079,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="94" spans="4:13">
+    <row r="94" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D94">
         <v>773</v>
       </c>
@@ -2088,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="4:13">
+    <row r="95" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D95">
         <v>532</v>
       </c>
@@ -2102,7 +2107,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="96" spans="4:13">
+    <row r="96" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D96">
         <v>638</v>
       </c>
@@ -2116,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="4:13">
+    <row r="97" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D97">
         <v>752</v>
       </c>
@@ -2130,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="4:13">
+    <row r="98" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D98">
         <v>754</v>
       </c>
@@ -2144,7 +2149,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="99" spans="4:13">
+    <row r="99" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D99">
         <v>712</v>
       </c>
@@ -2158,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="4:13">
+    <row r="100" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D100">
         <v>761</v>
       </c>
@@ -2172,7 +2177,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="101" spans="4:13">
+    <row r="101" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D101">
         <v>613</v>
       </c>
@@ -2186,7 +2191,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="102" spans="4:13">
+    <row r="102" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D102">
         <v>696</v>
       </c>
@@ -2200,7 +2205,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="103" spans="4:13">
+    <row r="103" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D103">
         <v>658</v>
       </c>
@@ -2214,7 +2219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="4:13">
+    <row r="104" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D104">
         <v>739</v>
       </c>
@@ -2228,7 +2233,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="105" spans="4:13">
+    <row r="105" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D105">
         <v>701</v>
       </c>
@@ -2242,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="4:13">
+    <row r="106" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D106">
         <v>653</v>
       </c>
@@ -2256,7 +2261,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="107" spans="4:13">
+    <row r="107" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D107">
         <v>587</v>
       </c>
@@ -2270,7 +2275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="4:13">
+    <row r="108" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D108">
         <v>830</v>
       </c>
@@ -2284,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="4:13">
+    <row r="109" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D109">
         <v>417</v>
       </c>
@@ -2298,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="4:13">
+    <row r="110" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D110">
         <v>818</v>
       </c>
@@ -2312,7 +2317,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="111" spans="4:13">
+    <row r="111" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D111">
         <v>796</v>
       </c>
@@ -2326,7 +2331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="4:13">
+    <row r="112" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D112">
         <v>780</v>
       </c>
@@ -2340,7 +2345,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="113" spans="4:13">
+    <row r="113" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D113">
         <v>492</v>
       </c>
@@ -2354,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="4:13">
+    <row r="114" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D114">
         <v>701</v>
       </c>
@@ -2368,7 +2373,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="115" spans="4:13">
+    <row r="115" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D115">
         <v>573</v>
       </c>
@@ -2382,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="4:13">
+    <row r="116" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D116">
         <v>575</v>
       </c>
@@ -2396,7 +2401,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="117" spans="4:13">
+    <row r="117" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D117">
         <v>688</v>
       </c>
@@ -2410,7 +2415,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="118" spans="4:13">
+    <row r="118" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D118">
         <v>746</v>
       </c>
@@ -2424,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="4:13">
+    <row r="119" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D119">
         <v>597</v>
       </c>
@@ -2438,7 +2443,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="120" spans="4:13">
+    <row r="120" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D120">
         <v>599</v>
       </c>
@@ -2452,7 +2457,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="121" spans="4:13">
+    <row r="121" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D121">
         <v>557</v>
       </c>
@@ -2466,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="4:13">
+    <row r="122" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D122">
         <v>785</v>
       </c>
@@ -2480,7 +2485,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="123" spans="4:13">
+    <row r="123" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D123">
         <v>651</v>
       </c>
@@ -2494,7 +2499,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="124" spans="4:13">
+    <row r="124" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D124">
         <v>597</v>
       </c>
@@ -2508,7 +2513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="4:13">
+    <row r="125" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D125">
         <v>729</v>
       </c>
@@ -2522,7 +2527,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="126" spans="4:13">
+    <row r="126" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D126">
         <v>661</v>
       </c>
@@ -2536,7 +2541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="4:13">
+    <row r="127" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D127">
         <v>719</v>
       </c>
@@ -2550,7 +2555,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="128" spans="4:13">
+    <row r="128" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D128">
         <v>622</v>
       </c>
@@ -2564,7 +2569,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="129" spans="4:13">
+    <row r="129" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D129">
         <v>660</v>
       </c>
@@ -2578,7 +2583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="4:13">
+    <row r="130" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G130">
         <v>613</v>
       </c>
@@ -2589,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="4:13">
+    <row r="131" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G131">
         <v>580</v>
       </c>
@@ -2600,7 +2605,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="132" spans="4:13">
+    <row r="132" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G132">
         <v>570</v>
       </c>
@@ -2611,7 +2616,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="133" spans="4:13">
+    <row r="133" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G133">
         <v>821</v>
       </c>
@@ -2622,7 +2627,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="134" spans="4:13">
+    <row r="134" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G134">
         <v>681</v>
       </c>
@@ -2633,7 +2638,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="135" spans="4:13">
+    <row r="135" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G135">
         <v>365</v>
       </c>
@@ -2644,7 +2649,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="136" spans="4:13">
+    <row r="136" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G136">
         <v>239</v>
       </c>
@@ -2655,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="4:13">
+    <row r="137" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G137">
         <v>496</v>
       </c>
@@ -2666,7 +2671,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="138" spans="4:13">
+    <row r="138" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G138">
         <v>735</v>
       </c>
@@ -2677,7 +2682,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="139" spans="4:13">
+    <row r="139" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G139">
         <v>550</v>
       </c>
@@ -2688,7 +2693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="4:13">
+    <row r="140" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G140">
         <v>648</v>
       </c>
@@ -2699,7 +2704,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="141" spans="4:13">
+    <row r="141" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G141">
         <v>750</v>
       </c>
@@ -2710,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="4:13">
+    <row r="142" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G142">
         <v>519</v>
       </c>
@@ -2721,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="4:13">
+    <row r="143" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G143">
         <v>308</v>
       </c>
@@ -2732,7 +2737,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="144" spans="4:13">
+    <row r="144" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G144">
         <v>820</v>
       </c>
@@ -2743,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="7:13">
+    <row r="145" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G145">
         <v>659</v>
       </c>
@@ -2754,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="7:13">
+    <row r="146" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G146">
         <v>703</v>
       </c>
@@ -2765,7 +2770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="7:13">
+    <row r="147" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G147">
         <v>825</v>
       </c>
@@ -2776,7 +2781,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="148" spans="7:13">
+    <row r="148" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G148">
         <v>855</v>
       </c>
@@ -2787,7 +2792,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="149" spans="7:13">
+    <row r="149" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G149">
         <v>311</v>
       </c>
@@ -2798,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="7:13">
+    <row r="150" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G150">
         <v>433</v>
       </c>
@@ -2809,7 +2814,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="151" spans="7:13">
+    <row r="151" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G151">
         <v>671</v>
       </c>
@@ -2820,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="7:13">
+    <row r="152" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G152">
         <v>544</v>
       </c>
@@ -2831,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="7:13">
+    <row r="153" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G153">
         <v>859</v>
       </c>
@@ -2842,7 +2847,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="154" spans="7:13">
+    <row r="154" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G154">
         <v>891</v>
       </c>
@@ -2853,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="7:13">
+    <row r="155" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G155">
         <v>778</v>
       </c>
@@ -2864,7 +2869,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="156" spans="7:13">
+    <row r="156" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G156">
         <v>318</v>
       </c>
@@ -2875,7 +2880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="7:13">
+    <row r="157" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G157">
         <v>480</v>
       </c>
@@ -2886,7 +2891,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="158" spans="7:13">
+    <row r="158" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G158">
         <v>797</v>
       </c>
@@ -2897,7 +2902,7 @@
         <v>3182</v>
       </c>
     </row>
-    <row r="159" spans="7:13">
+    <row r="159" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G159">
         <v>401</v>
       </c>
@@ -2908,7 +2913,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="160" spans="7:13">
+    <row r="160" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G160">
         <v>645</v>
       </c>
@@ -2919,7 +2924,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="161" spans="7:13">
+    <row r="161" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G161">
         <v>830</v>
       </c>
@@ -2930,7 +2935,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="162" spans="7:13">
+    <row r="162" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G162">
         <v>833</v>
       </c>
@@ -2941,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="7:13">
+    <row r="163" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G163">
         <v>619</v>
       </c>
@@ -2952,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="7:13">
+    <row r="164" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G164">
         <v>536</v>
       </c>
@@ -2963,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="7:13">
+    <row r="165" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G165">
         <v>342</v>
       </c>
@@ -2974,7 +2979,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="166" spans="7:13">
+    <row r="166" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G166">
         <v>0</v>
       </c>
@@ -2985,7 +2990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="7:13">
+    <row r="167" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G167">
         <v>600</v>
       </c>
@@ -2996,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="7:13">
+    <row r="168" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G168">
         <v>711</v>
       </c>
@@ -3007,7 +3012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="7:13">
+    <row r="169" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G169">
         <v>927</v>
       </c>
@@ -3018,7 +3023,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="170" spans="7:13">
+    <row r="170" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G170">
         <v>0</v>
       </c>
@@ -3029,7 +3034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="7:13">
+    <row r="171" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G171">
         <v>818</v>
       </c>
@@ -3040,7 +3045,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="172" spans="7:13">
+    <row r="172" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G172">
         <v>749</v>
       </c>
@@ -3051,7 +3056,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="173" spans="7:13">
+    <row r="173" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G173">
         <v>705</v>
       </c>
@@ -3062,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="7:13">
+    <row r="174" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G174">
         <v>587</v>
       </c>
@@ -3073,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="7:13">
+    <row r="175" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G175">
         <v>939</v>
       </c>
@@ -3084,7 +3089,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="176" spans="7:13">
+    <row r="176" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G176">
         <v>573</v>
       </c>
@@ -3095,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="7:13">
+    <row r="177" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G177">
         <v>504</v>
       </c>
@@ -3106,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="7:13">
+    <row r="178" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G178">
         <v>408</v>
       </c>
@@ -3117,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="7:13">
+    <row r="179" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G179">
         <v>489</v>
       </c>
@@ -3128,7 +3133,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="180" spans="7:13">
+    <row r="180" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G180">
         <v>1126</v>
       </c>
@@ -3139,7 +3144,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="181" spans="7:13">
+    <row r="181" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G181">
         <v>294</v>
       </c>
@@ -3150,7 +3155,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="182" spans="7:13">
+    <row r="182" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G182">
         <v>961</v>
       </c>
@@ -3161,7 +3166,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="183" spans="7:13">
+    <row r="183" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G183">
         <v>473</v>
       </c>
@@ -3172,7 +3177,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="184" spans="7:13">
+    <row r="184" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G184">
         <v>695</v>
       </c>
@@ -3183,7 +3188,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="185" spans="7:13">
+    <row r="185" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G185">
         <v>302</v>
       </c>
@@ -3194,7 +3199,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="186" spans="7:13">
+    <row r="186" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G186">
         <v>640</v>
       </c>
@@ -3205,7 +3210,7 @@
         <v>3232</v>
       </c>
     </row>
-    <row r="187" spans="7:13">
+    <row r="187" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G187">
         <v>661</v>
       </c>
@@ -3216,7 +3221,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="188" spans="7:13">
+    <row r="188" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G188">
         <v>565</v>
       </c>
@@ -3227,7 +3232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="7:13">
+    <row r="189" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G189">
         <v>403</v>
       </c>
@@ -3238,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="7:13">
+    <row r="190" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G190">
         <v>659</v>
       </c>
@@ -3249,7 +3254,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="191" spans="7:13">
+    <row r="191" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G191">
         <v>0</v>
       </c>
@@ -3260,7 +3265,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="192" spans="7:13">
+    <row r="192" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G192">
         <v>581</v>
       </c>
@@ -3271,7 +3276,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="193" spans="7:13">
+    <row r="193" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G193">
         <v>836</v>
       </c>
@@ -3282,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="7:13">
+    <row r="194" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G194">
         <v>0</v>
       </c>
@@ -3293,7 +3298,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="195" spans="7:13">
+    <row r="195" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G195">
         <v>537</v>
       </c>
@@ -3304,7 +3309,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="196" spans="7:13">
+    <row r="196" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G196">
         <v>586</v>
       </c>
@@ -3315,7 +3320,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="197" spans="7:13">
+    <row r="197" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G197">
         <v>614</v>
       </c>
@@ -3326,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="7:13">
+    <row r="198" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G198">
         <v>324</v>
       </c>
@@ -3337,7 +3342,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="199" spans="7:13">
+    <row r="199" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G199">
         <v>812</v>
       </c>
@@ -3348,7 +3353,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="200" spans="7:13">
+    <row r="200" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G200">
         <v>758</v>
       </c>
@@ -3359,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="7:13">
+    <row r="201" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G201">
         <v>664</v>
       </c>
@@ -3370,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="7:13">
+    <row r="202" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G202">
         <v>603</v>
       </c>
@@ -3381,7 +3386,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="203" spans="7:13">
+    <row r="203" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G203">
         <v>852</v>
       </c>
@@ -3392,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="7:13">
+    <row r="204" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G204">
         <v>676</v>
       </c>
@@ -3403,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="7:13">
+    <row r="205" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G205">
         <v>581</v>
       </c>
@@ -3414,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="7:13">
+    <row r="206" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G206">
         <v>0</v>
       </c>
@@ -3425,7 +3430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="7:13">
+    <row r="207" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G207">
         <v>599</v>
       </c>
@@ -3436,7 +3441,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="208" spans="7:13">
+    <row r="208" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G208">
         <v>669</v>
       </c>
@@ -3447,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="7:13">
+    <row r="209" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G209">
         <v>636</v>
       </c>
@@ -3458,7 +3463,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="210" spans="7:13">
+    <row r="210" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G210">
         <v>827</v>
       </c>
@@ -3469,7 +3474,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="211" spans="7:13">
+    <row r="211" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G211">
         <v>546</v>
       </c>
@@ -3480,7 +3485,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="212" spans="7:13">
+    <row r="212" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G212">
         <v>872</v>
       </c>
@@ -3491,7 +3496,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="213" spans="7:13">
+    <row r="213" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G213">
         <v>611</v>
       </c>
@@ -3502,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="7:13">
+    <row r="214" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G214">
         <v>704</v>
       </c>
@@ -3513,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="7:13">
+    <row r="215" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G215">
         <v>620</v>
       </c>
@@ -3524,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="7:13">
+    <row r="216" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G216">
         <v>881</v>
       </c>
@@ -3535,7 +3540,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="217" spans="7:13">
+    <row r="217" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G217">
         <v>817</v>
       </c>
@@ -3546,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="7:13">
+    <row r="218" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G218">
         <v>665</v>
       </c>
@@ -3557,7 +3562,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="219" spans="7:13">
+    <row r="219" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G219">
         <v>929</v>
       </c>
@@ -3568,7 +3573,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="220" spans="7:13">
+    <row r="220" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G220">
         <v>437</v>
       </c>
@@ -3579,7 +3584,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="221" spans="7:13">
+    <row r="221" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G221">
         <v>792</v>
       </c>
@@ -3590,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="7:13">
+    <row r="222" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G222">
         <v>787</v>
       </c>
@@ -3601,7 +3606,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="223" spans="7:13">
+    <row r="223" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G223">
         <v>828</v>
       </c>
@@ -3612,7 +3617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="7:13">
+    <row r="224" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G224">
         <v>932</v>
       </c>
@@ -3623,7 +3628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="7:13">
+    <row r="225" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G225">
         <v>504</v>
       </c>
@@ -3634,7 +3639,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="226" spans="7:13">
+    <row r="226" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G226">
         <v>941</v>
       </c>
@@ -3645,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="7:13">
+    <row r="227" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G227">
         <v>830</v>
       </c>
@@ -3656,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="7:13">
+    <row r="228" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G228">
         <v>820</v>
       </c>
@@ -3667,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="7:13">
+    <row r="229" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G229">
         <v>701</v>
       </c>
@@ -3678,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="7:13">
+    <row r="230" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G230">
         <v>367</v>
       </c>
@@ -3689,7 +3694,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="231" spans="7:13">
+    <row r="231" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G231">
         <v>0</v>
       </c>
@@ -3700,7 +3705,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="232" spans="7:13">
+    <row r="232" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G232">
         <v>671</v>
       </c>
@@ -3711,7 +3716,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="233" spans="7:13">
+    <row r="233" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G233">
         <v>675</v>
       </c>
@@ -3722,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="7:13">
+    <row r="234" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G234">
         <v>429</v>
       </c>
@@ -3733,7 +3738,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="235" spans="7:13">
+    <row r="235" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G235">
         <v>762</v>
       </c>
@@ -3744,7 +3749,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="236" spans="7:13">
+    <row r="236" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G236">
         <v>791</v>
       </c>
@@ -3755,7 +3760,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="237" spans="7:13">
+    <row r="237" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G237">
         <v>768</v>
       </c>
@@ -3766,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="7:13">
+    <row r="238" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G238">
         <v>818</v>
       </c>
@@ -3777,7 +3782,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="239" spans="7:13">
+    <row r="239" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G239">
         <v>616</v>
       </c>
@@ -3788,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="7:13">
+    <row r="240" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G240">
         <v>774</v>
       </c>
@@ -3799,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="7:13">
+    <row r="241" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G241">
         <v>647</v>
       </c>
@@ -3810,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="7:13">
+    <row r="242" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G242">
         <v>587</v>
       </c>
@@ -3821,7 +3826,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="243" spans="7:13">
+    <row r="243" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G243">
         <v>755</v>
       </c>
@@ -3832,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="7:13">
+    <row r="244" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G244">
         <v>618</v>
       </c>
@@ -3843,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="7:13">
+    <row r="245" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G245">
         <v>726</v>
       </c>
@@ -3854,7 +3859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="7:13">
+    <row r="246" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G246">
         <v>782</v>
       </c>
@@ -3865,7 +3870,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="247" spans="7:13">
+    <row r="247" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G247">
         <v>640</v>
       </c>
@@ -3876,7 +3881,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="248" spans="7:13">
+    <row r="248" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G248">
         <v>550</v>
       </c>
@@ -3887,7 +3892,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="249" spans="7:13">
+    <row r="249" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G249">
         <v>560</v>
       </c>
@@ -3898,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="7:13">
+    <row r="250" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G250">
         <v>764</v>
       </c>
@@ -3909,7 +3914,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="251" spans="7:13">
+    <row r="251" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G251">
         <v>757</v>
       </c>
@@ -3920,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="7:13">
+    <row r="252" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G252">
         <v>605</v>
       </c>
@@ -3931,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="7:13">
+    <row r="253" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G253">
         <v>519</v>
       </c>
@@ -3942,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="7:13">
+    <row r="254" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G254">
         <v>649</v>
       </c>
@@ -3953,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="7:13">
+    <row r="255" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G255">
         <v>598</v>
       </c>
@@ -3964,7 +3969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="7:13">
+    <row r="256" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G256">
         <v>654</v>
       </c>
@@ -3975,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="7:13">
+    <row r="257" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G257">
         <v>721</v>
       </c>
@@ -3986,7 +3991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="7:13">
+    <row r="258" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J258">
         <v>893</v>
       </c>
@@ -3994,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="7:13">
+    <row r="259" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J259">
         <v>849</v>
       </c>
@@ -4002,7 +4007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="7:13">
+    <row r="260" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J260">
         <v>675</v>
       </c>
@@ -4010,7 +4015,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="261" spans="7:13">
+    <row r="261" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J261">
         <v>663</v>
       </c>
@@ -4018,7 +4023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="7:13">
+    <row r="262" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J262">
         <v>414</v>
       </c>
@@ -4026,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="7:13">
+    <row r="263" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J263">
         <v>723</v>
       </c>
@@ -4034,7 +4039,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="264" spans="7:13">
+    <row r="264" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J264">
         <v>413</v>
       </c>
@@ -4042,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="7:13">
+    <row r="265" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J265">
         <v>752</v>
       </c>
@@ -4050,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="7:13">
+    <row r="266" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J266">
         <v>803</v>
       </c>
@@ -4058,7 +4063,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="267" spans="7:13">
+    <row r="267" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J267">
         <v>750</v>
       </c>
@@ -4066,7 +4071,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="268" spans="7:13">
+    <row r="268" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J268">
         <v>916</v>
       </c>
@@ -4074,7 +4079,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="269" spans="7:13">
+    <row r="269" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J269">
         <v>0</v>
       </c>
@@ -4082,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="7:13">
+    <row r="270" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J270">
         <v>0</v>
       </c>
@@ -4090,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="7:13">
+    <row r="271" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J271">
         <v>623</v>
       </c>
@@ -4098,7 +4103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="7:13">
+    <row r="272" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J272">
         <v>0</v>
       </c>
@@ -4106,7 +4111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="10:13">
+    <row r="273" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J273">
         <v>768</v>
       </c>
@@ -4114,7 +4119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="10:13">
+    <row r="274" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J274">
         <v>689</v>
       </c>
@@ -4122,7 +4127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="10:13">
+    <row r="275" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J275">
         <v>629</v>
       </c>
@@ -4130,7 +4135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="10:13">
+    <row r="276" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J276">
         <v>0</v>
       </c>
@@ -4138,7 +4143,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="277" spans="10:13">
+    <row r="277" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J277">
         <v>0</v>
       </c>
@@ -4146,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="10:13">
+    <row r="278" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J278">
         <v>299</v>
       </c>
@@ -4154,7 +4159,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="279" spans="10:13">
+    <row r="279" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J279">
         <v>0</v>
       </c>
@@ -4162,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="10:13">
+    <row r="280" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J280">
         <v>0</v>
       </c>
@@ -4170,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="10:13">
+    <row r="281" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J281">
         <v>600</v>
       </c>
@@ -4178,7 +4183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="10:13">
+    <row r="282" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J282">
         <v>645</v>
       </c>
@@ -4186,7 +4191,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="283" spans="10:13">
+    <row r="283" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J283">
         <v>0</v>
       </c>
@@ -4194,7 +4199,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="284" spans="10:13">
+    <row r="284" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J284">
         <v>863</v>
       </c>
@@ -4202,7 +4207,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="285" spans="10:13">
+    <row r="285" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J285">
         <v>1095</v>
       </c>
@@ -4210,7 +4215,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="286" spans="10:13">
+    <row r="286" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J286">
         <v>579</v>
       </c>
@@ -4218,7 +4223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="10:13">
+    <row r="287" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J287">
         <v>473</v>
       </c>
@@ -4226,7 +4231,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="288" spans="10:13">
+    <row r="288" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J288">
         <v>173</v>
       </c>
@@ -4234,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="10:13">
+    <row r="289" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J289">
         <v>354</v>
       </c>
@@ -4242,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="10:13">
+    <row r="290" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J290">
         <v>242</v>
       </c>
@@ -4250,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="10:13">
+    <row r="291" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J291">
         <v>710</v>
       </c>
@@ -4258,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="10:13">
+    <row r="292" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J292">
         <v>688</v>
       </c>
@@ -4266,7 +4271,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="293" spans="10:13">
+    <row r="293" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J293">
         <v>630</v>
       </c>
@@ -4274,7 +4279,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="294" spans="10:13">
+    <row r="294" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J294">
         <v>800</v>
       </c>
@@ -4282,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="10:13">
+    <row r="295" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J295">
         <v>566</v>
       </c>
@@ -4290,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="10:13">
+    <row r="296" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J296">
         <v>308</v>
       </c>
@@ -4298,7 +4303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="10:13">
+    <row r="297" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J297">
         <v>288</v>
       </c>
@@ -4306,7 +4311,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="298" spans="10:13">
+    <row r="298" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J298">
         <v>0</v>
       </c>
@@ -4314,7 +4319,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="299" spans="10:13">
+    <row r="299" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J299">
         <v>0</v>
       </c>
@@ -4322,7 +4327,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="300" spans="10:13">
+    <row r="300" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J300">
         <v>639</v>
       </c>
@@ -4330,7 +4335,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="301" spans="10:13">
+    <row r="301" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J301">
         <v>453</v>
       </c>
@@ -4338,7 +4343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="10:13">
+    <row r="302" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J302">
         <v>561</v>
       </c>
@@ -4346,7 +4351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="10:13">
+    <row r="303" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J303">
         <v>376</v>
       </c>
@@ -4354,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="10:13">
+    <row r="304" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J304">
         <v>388</v>
       </c>
@@ -4362,7 +4367,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="305" spans="10:13">
+    <row r="305" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J305">
         <v>386</v>
       </c>
@@ -4370,7 +4375,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="306" spans="10:13">
+    <row r="306" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J306">
         <v>288</v>
       </c>
@@ -4378,7 +4383,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="307" spans="10:13">
+    <row r="307" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J307">
         <v>891</v>
       </c>
@@ -4386,7 +4391,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="308" spans="10:13">
+    <row r="308" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J308">
         <v>297</v>
       </c>
@@ -4394,7 +4399,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="309" spans="10:13">
+    <row r="309" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J309">
         <v>0</v>
       </c>
@@ -4402,7 +4407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="10:13">
+    <row r="310" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J310">
         <v>961</v>
       </c>
@@ -4410,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="10:13">
+    <row r="311" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J311">
         <v>0</v>
       </c>
@@ -4418,7 +4423,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="312" spans="10:13">
+    <row r="312" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J312">
         <v>823</v>
       </c>
@@ -4426,7 +4431,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="313" spans="10:13">
+    <row r="313" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J313">
         <v>729</v>
       </c>
@@ -4434,7 +4439,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="314" spans="10:13">
+    <row r="314" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J314">
         <v>1551</v>
       </c>
@@ -4442,7 +4447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="10:13">
+    <row r="315" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J315">
         <v>0</v>
       </c>
@@ -4450,7 +4455,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="316" spans="10:13">
+    <row r="316" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J316">
         <v>532</v>
       </c>
@@ -4458,7 +4463,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="317" spans="10:13">
+    <row r="317" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J317">
         <v>0</v>
       </c>
@@ -4466,7 +4471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="10:13">
+    <row r="318" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J318">
         <v>754</v>
       </c>
@@ -4474,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="10:13">
+    <row r="319" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J319">
         <v>530</v>
       </c>
@@ -4482,7 +4487,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="320" spans="10:13">
+    <row r="320" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J320">
         <v>1941</v>
       </c>
@@ -4490,7 +4495,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="321" spans="10:13">
+    <row r="321" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J321">
         <v>703</v>
       </c>
@@ -4498,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="10:13">
+    <row r="322" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J322">
         <v>854</v>
       </c>
@@ -4506,7 +4511,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="323" spans="10:13">
+    <row r="323" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J323">
         <v>658</v>
       </c>
@@ -4514,7 +4519,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="324" spans="10:13">
+    <row r="324" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J324">
         <v>618</v>
       </c>
@@ -4522,7 +4527,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="325" spans="10:13">
+    <row r="325" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J325">
         <v>65</v>
       </c>
@@ -4530,7 +4535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="10:13">
+    <row r="326" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J326">
         <v>640</v>
       </c>
@@ -4538,7 +4543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="10:13">
+    <row r="327" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J327">
         <v>591</v>
       </c>
@@ -4546,7 +4551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="10:13">
+    <row r="328" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J328">
         <v>764</v>
       </c>
@@ -4554,7 +4559,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="329" spans="10:13">
+    <row r="329" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J329">
         <v>666</v>
       </c>
@@ -4562,7 +4567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="10:13">
+    <row r="330" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J330">
         <v>551</v>
       </c>
@@ -4570,7 +4575,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="331" spans="10:13">
+    <row r="331" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J331">
         <v>908</v>
       </c>
@@ -4578,7 +4583,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="332" spans="10:13">
+    <row r="332" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J332">
         <v>743</v>
       </c>
@@ -4586,7 +4591,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="333" spans="10:13">
+    <row r="333" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J333">
         <v>0</v>
       </c>
@@ -4594,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="10:13">
+    <row r="334" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J334">
         <v>0</v>
       </c>
@@ -4602,7 +4607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="10:13">
+    <row r="335" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J335">
         <v>790</v>
       </c>
@@ -4610,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="10:13">
+    <row r="336" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J336">
         <v>1230</v>
       </c>
@@ -4618,7 +4623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="10:13">
+    <row r="337" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J337">
         <v>539</v>
       </c>
@@ -4626,7 +4631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="10:13">
+    <row r="338" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J338">
         <v>195</v>
       </c>
@@ -4634,7 +4639,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="339" spans="10:13">
+    <row r="339" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J339">
         <v>712</v>
       </c>
@@ -4642,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="10:13">
+    <row r="340" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J340">
         <v>704</v>
       </c>
@@ -4650,7 +4655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="10:13">
+    <row r="341" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J341">
         <v>0</v>
       </c>
@@ -4658,7 +4663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="10:13">
+    <row r="342" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J342">
         <v>795</v>
       </c>
@@ -4666,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="10:13">
+    <row r="343" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J343">
         <v>578</v>
       </c>
@@ -4674,7 +4679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="10:13">
+    <row r="344" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J344">
         <v>544</v>
       </c>
@@ -4682,7 +4687,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="345" spans="10:13">
+    <row r="345" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J345">
         <v>496</v>
       </c>
@@ -4690,7 +4695,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="346" spans="10:13">
+    <row r="346" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J346">
         <v>734</v>
       </c>
@@ -4698,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="10:13">
+    <row r="347" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J347">
         <v>880</v>
       </c>
@@ -4706,7 +4711,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="348" spans="10:13">
+    <row r="348" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J348">
         <v>776</v>
       </c>
@@ -4714,7 +4719,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="349" spans="10:13">
+    <row r="349" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J349">
         <v>0</v>
       </c>
@@ -4722,7 +4727,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="350" spans="10:13">
+    <row r="350" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J350">
         <v>0</v>
       </c>
@@ -4730,7 +4735,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="351" spans="10:13">
+    <row r="351" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J351">
         <v>0</v>
       </c>
@@ -4738,7 +4743,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="352" spans="10:13">
+    <row r="352" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J352">
         <v>400</v>
       </c>
@@ -4746,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="10:13">
+    <row r="353" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J353">
         <v>0</v>
       </c>
@@ -4754,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="10:13">
+    <row r="354" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J354">
         <v>832</v>
       </c>
@@ -4762,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="10:13">
+    <row r="355" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J355">
         <v>0</v>
       </c>
@@ -4770,7 +4775,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="356" spans="10:13">
+    <row r="356" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J356">
         <v>719</v>
       </c>
@@ -4778,7 +4783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="10:13">
+    <row r="357" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J357">
         <v>659</v>
       </c>
@@ -4786,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="10:13">
+    <row r="358" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J358">
         <v>677</v>
       </c>
@@ -4794,7 +4799,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="359" spans="10:13">
+    <row r="359" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J359">
         <v>0</v>
       </c>
@@ -4802,7 +4807,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="360" spans="10:13">
+    <row r="360" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J360">
         <v>548</v>
       </c>
@@ -4810,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="10:13">
+    <row r="361" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J361">
         <v>463</v>
       </c>
@@ -4818,7 +4823,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="362" spans="10:13">
+    <row r="362" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J362">
         <v>0</v>
       </c>
@@ -4826,7 +4831,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="363" spans="10:13">
+    <row r="363" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J363">
         <v>716</v>
       </c>
@@ -4834,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="10:13">
+    <row r="364" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J364">
         <v>634</v>
       </c>
@@ -4842,7 +4847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="10:13">
+    <row r="365" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J365">
         <v>782</v>
       </c>
@@ -4850,7 +4855,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="366" spans="10:13">
+    <row r="366" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J366">
         <v>654</v>
       </c>
@@ -4858,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="10:13">
+    <row r="367" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J367">
         <v>874</v>
       </c>
@@ -4866,7 +4871,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="368" spans="10:13">
+    <row r="368" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J368">
         <v>629</v>
       </c>
@@ -4874,7 +4879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="10:13">
+    <row r="369" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J369">
         <v>582</v>
       </c>
@@ -4882,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="10:13">
+    <row r="370" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J370">
         <v>881</v>
       </c>
@@ -4890,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="10:13">
+    <row r="371" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J371">
         <v>621</v>
       </c>
@@ -4898,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="10:13">
+    <row r="372" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J372">
         <v>473</v>
       </c>
@@ -4906,7 +4911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="10:13">
+    <row r="373" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J373">
         <v>647</v>
       </c>
@@ -4914,7 +4919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="10:13">
+    <row r="374" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J374">
         <v>383</v>
       </c>
@@ -4922,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="10:13">
+    <row r="375" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J375">
         <v>0</v>
       </c>
@@ -4930,7 +4935,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="376" spans="10:13">
+    <row r="376" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J376">
         <v>999</v>
       </c>
@@ -4938,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="10:13">
+    <row r="377" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J377">
         <v>349</v>
       </c>
@@ -4946,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="10:13">
+    <row r="378" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J378">
         <v>521</v>
       </c>
@@ -4954,7 +4959,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="379" spans="10:13">
+    <row r="379" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J379">
         <v>294</v>
       </c>
@@ -4962,7 +4967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="10:13">
+    <row r="380" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J380">
         <v>678</v>
       </c>
@@ -4970,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="10:13">
+    <row r="381" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J381">
         <v>0</v>
       </c>
@@ -4978,7 +4983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="10:13">
+    <row r="382" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J382">
         <v>340</v>
       </c>
@@ -4986,7 +4991,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="383" spans="10:13">
+    <row r="383" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J383">
         <v>719</v>
       </c>
@@ -4994,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="10:13">
+    <row r="384" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J384">
         <v>486</v>
       </c>
@@ -5002,7 +5007,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="385" spans="10:13">
+    <row r="385" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J385">
         <v>561</v>
       </c>
@@ -5010,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="10:13">
+    <row r="386" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J386">
         <v>672</v>
       </c>
@@ -5018,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="10:13">
+    <row r="387" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J387">
         <v>0</v>
       </c>
@@ -5026,7 +5031,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="388" spans="10:13">
+    <row r="388" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J388">
         <v>456</v>
       </c>
@@ -5034,7 +5039,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="389" spans="10:13">
+    <row r="389" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J389">
         <v>617</v>
       </c>
@@ -5042,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="10:13">
+    <row r="390" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J390">
         <v>441</v>
       </c>
@@ -5050,7 +5055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="10:13">
+    <row r="391" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J391">
         <v>804</v>
       </c>
@@ -5058,7 +5063,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="392" spans="10:13">
+    <row r="392" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J392">
         <v>519</v>
       </c>
@@ -5066,7 +5071,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="393" spans="10:13">
+    <row r="393" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J393">
         <v>958</v>
       </c>
@@ -5074,7 +5079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="10:13">
+    <row r="394" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J394">
         <v>0</v>
       </c>
@@ -5082,7 +5087,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="395" spans="10:13">
+    <row r="395" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J395">
         <v>938</v>
       </c>
@@ -5090,7 +5095,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="396" spans="10:13">
+    <row r="396" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J396">
         <v>536</v>
       </c>
@@ -5098,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="10:13">
+    <row r="397" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J397">
         <v>612</v>
       </c>
@@ -5106,7 +5111,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="398" spans="10:13">
+    <row r="398" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J398">
         <v>0</v>
       </c>
@@ -5114,7 +5119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="10:13">
+    <row r="399" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J399">
         <v>0</v>
       </c>
@@ -5122,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="10:13">
+    <row r="400" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J400">
         <v>644</v>
       </c>
@@ -5130,7 +5135,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="401" spans="10:13">
+    <row r="401" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J401">
         <v>0</v>
       </c>
@@ -5138,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="10:13">
+    <row r="402" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J402">
         <v>0</v>
       </c>
@@ -5146,7 +5151,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="403" spans="10:13">
+    <row r="403" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J403">
         <v>873</v>
       </c>
@@ -5154,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="10:13">
+    <row r="404" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J404">
         <v>537</v>
       </c>
@@ -5162,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="10:13">
+    <row r="405" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J405">
         <v>0</v>
       </c>
@@ -5170,7 +5175,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="406" spans="10:13">
+    <row r="406" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J406">
         <v>530</v>
       </c>
@@ -5178,7 +5183,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="407" spans="10:13">
+    <row r="407" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J407">
         <v>573</v>
       </c>
@@ -5186,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="10:13">
+    <row r="408" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J408">
         <v>623</v>
       </c>
@@ -5194,7 +5199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="10:13">
+    <row r="409" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J409">
         <v>715</v>
       </c>
@@ -5202,7 +5207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="10:13">
+    <row r="410" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J410">
         <v>967</v>
       </c>
@@ -5210,7 +5215,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="411" spans="10:13">
+    <row r="411" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J411">
         <v>702</v>
       </c>
@@ -5218,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="10:13">
+    <row r="412" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J412">
         <v>525</v>
       </c>
@@ -5226,7 +5231,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="413" spans="10:13">
+    <row r="413" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J413">
         <v>0</v>
       </c>
@@ -5234,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="10:13">
+    <row r="414" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J414">
         <v>0</v>
       </c>
@@ -5242,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="10:13">
+    <row r="415" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J415">
         <v>0</v>
       </c>
@@ -5250,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="10:13">
+    <row r="416" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J416">
         <v>636</v>
       </c>
@@ -5258,7 +5263,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="417" spans="10:13">
+    <row r="417" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J417">
         <v>413</v>
       </c>
@@ -5266,7 +5271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="10:13">
+    <row r="418" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J418">
         <v>570</v>
       </c>
@@ -5274,7 +5279,7 @@
         <v>3148</v>
       </c>
     </row>
-    <row r="419" spans="10:13">
+    <row r="419" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J419">
         <v>1171</v>
       </c>
@@ -5282,7 +5287,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="420" spans="10:13">
+    <row r="420" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J420">
         <v>669</v>
       </c>
@@ -5290,7 +5295,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="421" spans="10:13">
+    <row r="421" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J421">
         <v>0</v>
       </c>
@@ -5298,7 +5303,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="422" spans="10:13">
+    <row r="422" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J422">
         <v>1483</v>
       </c>
@@ -5306,7 +5311,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="423" spans="10:13">
+    <row r="423" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J423">
         <v>933</v>
       </c>
@@ -5314,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="10:13">
+    <row r="424" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J424">
         <v>923</v>
       </c>
@@ -5322,7 +5327,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="425" spans="10:13">
+    <row r="425" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J425">
         <v>325</v>
       </c>
@@ -5330,7 +5335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="10:13">
+    <row r="426" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J426">
         <v>610</v>
       </c>
@@ -5338,7 +5343,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="427" spans="10:13">
+    <row r="427" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J427">
         <v>825</v>
       </c>
@@ -5346,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="10:13">
+    <row r="428" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J428">
         <v>1179</v>
       </c>
@@ -5354,7 +5359,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="429" spans="10:13">
+    <row r="429" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J429">
         <v>632</v>
       </c>
@@ -5362,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="10:13">
+    <row r="430" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J430">
         <v>622</v>
       </c>
@@ -5370,7 +5375,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="431" spans="10:13">
+    <row r="431" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J431">
         <v>0</v>
       </c>
@@ -5378,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="10:13">
+    <row r="432" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J432">
         <v>509</v>
       </c>
@@ -5386,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="10:13">
+    <row r="433" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J433">
         <v>795</v>
       </c>
@@ -5394,7 +5399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="10:13">
+    <row r="434" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J434">
         <v>852</v>
       </c>
@@ -5402,7 +5407,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="435" spans="10:13">
+    <row r="435" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J435">
         <v>932</v>
       </c>
@@ -5410,7 +5415,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="436" spans="10:13">
+    <row r="436" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J436">
         <v>818</v>
       </c>
@@ -5418,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="10:13">
+    <row r="437" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J437">
         <v>695</v>
       </c>
@@ -5426,7 +5431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="10:13">
+    <row r="438" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J438">
         <v>486</v>
       </c>
@@ -5434,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="10:13">
+    <row r="439" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J439">
         <v>701</v>
       </c>
@@ -5442,7 +5447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="10:13">
+    <row r="440" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J440">
         <v>490</v>
       </c>
@@ -5450,7 +5455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="10:13">
+    <row r="441" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J441">
         <v>504</v>
       </c>
@@ -5458,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="10:13">
+    <row r="442" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J442">
         <v>655</v>
       </c>
@@ -5466,7 +5471,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="443" spans="10:13">
+    <row r="443" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J443">
         <v>243</v>
       </c>
@@ -5474,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="10:13">
+    <row r="444" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J444">
         <v>473</v>
       </c>
@@ -5482,7 +5487,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="445" spans="10:13">
+    <row r="445" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J445">
         <v>0</v>
       </c>
@@ -5490,7 +5495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="10:13">
+    <row r="446" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J446">
         <v>987</v>
       </c>
@@ -5498,7 +5503,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="447" spans="10:13">
+    <row r="447" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J447">
         <v>749</v>
       </c>
@@ -5506,7 +5511,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="448" spans="10:13">
+    <row r="448" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J448">
         <v>534</v>
       </c>
@@ -5514,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="10:13">
+    <row r="449" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J449">
         <v>0</v>
       </c>
@@ -5522,7 +5527,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="450" spans="10:13">
+    <row r="450" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J450">
         <v>577</v>
       </c>
@@ -5530,7 +5535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="10:13">
+    <row r="451" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J451">
         <v>700</v>
       </c>
@@ -5538,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="10:13">
+    <row r="452" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J452">
         <v>631</v>
       </c>
@@ -5546,7 +5551,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="453" spans="10:13">
+    <row r="453" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J453">
         <v>697</v>
       </c>
@@ -5554,7 +5559,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="454" spans="10:13">
+    <row r="454" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J454">
         <v>413</v>
       </c>
@@ -5562,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="10:13">
+    <row r="455" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J455">
         <v>428</v>
       </c>
@@ -5570,7 +5575,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="456" spans="10:13">
+    <row r="456" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J456">
         <v>654</v>
       </c>
@@ -5578,7 +5583,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="457" spans="10:13">
+    <row r="457" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J457">
         <v>938</v>
       </c>
@@ -5586,7 +5591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="10:13">
+    <row r="458" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J458">
         <v>748</v>
       </c>
@@ -5594,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="10:13">
+    <row r="459" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J459">
         <v>416</v>
       </c>
@@ -5602,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="10:13">
+    <row r="460" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J460">
         <v>659</v>
       </c>
@@ -5610,7 +5615,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="461" spans="10:13">
+    <row r="461" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J461">
         <v>0</v>
       </c>
@@ -5618,7 +5623,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="462" spans="10:13">
+    <row r="462" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J462">
         <v>416</v>
       </c>
@@ -5626,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="10:13">
+    <row r="463" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J463">
         <v>654</v>
       </c>
@@ -5634,7 +5639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="10:13">
+    <row r="464" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J464">
         <v>0</v>
       </c>
@@ -5642,7 +5647,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="465" spans="10:13">
+    <row r="465" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J465">
         <v>826</v>
       </c>
@@ -5650,7 +5655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="10:13">
+    <row r="466" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J466">
         <v>763</v>
       </c>
@@ -5658,7 +5663,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="467" spans="10:13">
+    <row r="467" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J467">
         <v>538</v>
       </c>
@@ -5666,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="10:13">
+    <row r="468" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J468">
         <v>801</v>
       </c>
@@ -5674,7 +5679,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="469" spans="10:13">
+    <row r="469" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J469">
         <v>0</v>
       </c>
@@ -5682,7 +5687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="10:13">
+    <row r="470" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J470">
         <v>0</v>
       </c>
@@ -5690,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="10:13">
+    <row r="471" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J471">
         <v>0</v>
       </c>
@@ -5698,7 +5703,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="472" spans="10:13">
+    <row r="472" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J472">
         <v>872</v>
       </c>
@@ -5706,7 +5711,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="473" spans="10:13">
+    <row r="473" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J473">
         <v>874</v>
       </c>
@@ -5714,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="10:13">
+    <row r="474" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J474">
         <v>929</v>
       </c>
@@ -5722,7 +5727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="10:13">
+    <row r="475" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J475">
         <v>0</v>
       </c>
@@ -5730,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="10:13">
+    <row r="476" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J476">
         <v>0</v>
       </c>
@@ -5738,7 +5743,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="477" spans="10:13">
+    <row r="477" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J477">
         <v>832</v>
       </c>
@@ -5746,7 +5751,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="478" spans="10:13">
+    <row r="478" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J478">
         <v>500</v>
       </c>
@@ -5754,7 +5759,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="479" spans="10:13">
+    <row r="479" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J479">
         <v>971</v>
       </c>
@@ -5762,7 +5767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="10:13">
+    <row r="480" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J480">
         <v>0</v>
       </c>
@@ -5770,7 +5775,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="481" spans="10:13">
+    <row r="481" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J481">
         <v>887</v>
       </c>
@@ -5778,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="10:13">
+    <row r="482" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J482">
         <v>798</v>
       </c>
@@ -5786,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="10:13">
+    <row r="483" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J483">
         <v>902</v>
       </c>
@@ -5794,7 +5799,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="484" spans="10:13">
+    <row r="484" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J484">
         <v>1469</v>
       </c>
@@ -5802,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="10:13">
+    <row r="485" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J485">
         <v>522</v>
       </c>
@@ -5810,7 +5815,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="486" spans="10:13">
+    <row r="486" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J486">
         <v>891</v>
       </c>
@@ -5818,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="10:13">
+    <row r="487" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J487">
         <v>672</v>
       </c>
@@ -5826,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="10:13">
+    <row r="488" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J488">
         <v>650</v>
       </c>
@@ -5834,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="10:13">
+    <row r="489" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J489">
         <v>650</v>
       </c>
@@ -5842,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="10:13">
+    <row r="490" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J490">
         <v>539</v>
       </c>
@@ -5850,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="10:13">
+    <row r="491" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J491">
         <v>0</v>
       </c>
@@ -5858,7 +5863,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="492" spans="10:13">
+    <row r="492" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J492">
         <v>582</v>
       </c>
@@ -5866,7 +5871,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="493" spans="10:13">
+    <row r="493" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J493">
         <v>372</v>
       </c>
@@ -5874,7 +5879,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="494" spans="10:13">
+    <row r="494" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J494">
         <v>666</v>
       </c>
@@ -5882,7 +5887,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="495" spans="10:13">
+    <row r="495" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J495">
         <v>0</v>
       </c>
@@ -5890,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="10:13">
+    <row r="496" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J496">
         <v>1119</v>
       </c>
@@ -5898,7 +5903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="10:13">
+    <row r="497" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J497">
         <v>162</v>
       </c>
@@ -5906,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="10:13">
+    <row r="498" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J498">
         <v>0</v>
       </c>
@@ -5914,7 +5919,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="499" spans="10:13">
+    <row r="499" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J499">
         <v>511</v>
       </c>
@@ -5922,7 +5927,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="500" spans="10:13">
+    <row r="500" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J500">
         <v>0</v>
       </c>
@@ -5930,7 +5935,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="501" spans="10:13">
+    <row r="501" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J501">
         <v>832</v>
       </c>
@@ -5938,7 +5943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="10:13">
+    <row r="502" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J502">
         <v>0</v>
       </c>
@@ -5946,7 +5951,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="503" spans="10:13">
+    <row r="503" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J503">
         <v>598</v>
       </c>
@@ -5954,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="10:13">
+    <row r="504" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J504">
         <v>0</v>
       </c>
@@ -5962,7 +5967,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="505" spans="10:13">
+    <row r="505" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J505">
         <v>784</v>
       </c>
@@ -5970,7 +5975,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="506" spans="10:13">
+    <row r="506" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J506">
         <v>645</v>
       </c>
@@ -5978,7 +5983,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="507" spans="10:13">
+    <row r="507" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J507">
         <v>811</v>
       </c>
@@ -5986,7 +5991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="10:13">
+    <row r="508" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J508">
         <v>939</v>
       </c>
@@ -5994,7 +5999,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="509" spans="10:13">
+    <row r="509" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J509">
         <v>862</v>
       </c>
@@ -6002,7 +6007,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="510" spans="10:13">
+    <row r="510" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J510">
         <v>300</v>
       </c>
@@ -6010,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="10:13">
+    <row r="511" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J511">
         <v>875</v>
       </c>
@@ -6018,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="10:13">
+    <row r="512" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J512">
         <v>559</v>
       </c>
@@ -6026,7 +6031,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="513" spans="10:13">
+    <row r="513" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J513">
         <v>0</v>
       </c>
@@ -6034,2562 +6039,2562 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="10:13">
+    <row r="514" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M514">
         <v>1662</v>
       </c>
     </row>
-    <row r="515" spans="10:13">
+    <row r="515" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M515">
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="10:13">
+    <row r="516" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M516">
         <v>871</v>
       </c>
     </row>
-    <row r="517" spans="10:13">
+    <row r="517" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M517">
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="10:13">
+    <row r="518" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M518">
         <v>784</v>
       </c>
     </row>
-    <row r="519" spans="10:13">
+    <row r="519" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M519">
         <v>486</v>
       </c>
     </row>
-    <row r="520" spans="10:13">
+    <row r="520" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M520">
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="10:13">
+    <row r="521" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M521">
         <v>121</v>
       </c>
     </row>
-    <row r="522" spans="10:13">
+    <row r="522" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M522">
         <v>1904</v>
       </c>
     </row>
-    <row r="523" spans="10:13">
+    <row r="523" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M523">
         <v>431</v>
       </c>
     </row>
-    <row r="524" spans="10:13">
+    <row r="524" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M524">
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="10:13">
+    <row r="525" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M525">
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="10:13">
+    <row r="526" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M526">
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="10:13">
+    <row r="527" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M527">
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="10:13">
+    <row r="528" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M528">
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="13:13">
+    <row r="529" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M529">
         <v>296</v>
       </c>
     </row>
-    <row r="530" spans="13:13">
+    <row r="530" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M530">
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="13:13">
+    <row r="531" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M531">
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="13:13">
+    <row r="532" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M532">
         <v>577</v>
       </c>
     </row>
-    <row r="533" spans="13:13">
+    <row r="533" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M533">
         <v>393</v>
       </c>
     </row>
-    <row r="534" spans="13:13">
+    <row r="534" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M534">
         <v>862</v>
       </c>
     </row>
-    <row r="535" spans="13:13">
+    <row r="535" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M535">
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="13:13">
+    <row r="536" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M536">
         <v>1543</v>
       </c>
     </row>
-    <row r="537" spans="13:13">
+    <row r="537" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M537">
         <v>565</v>
       </c>
     </row>
-    <row r="538" spans="13:13">
+    <row r="538" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M538">
         <v>914</v>
       </c>
     </row>
-    <row r="539" spans="13:13">
+    <row r="539" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M539">
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="13:13">
+    <row r="540" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M540">
         <v>354</v>
       </c>
     </row>
-    <row r="541" spans="13:13">
+    <row r="541" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M541">
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="13:13">
+    <row r="542" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M542">
         <v>379</v>
       </c>
     </row>
-    <row r="543" spans="13:13">
+    <row r="543" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M543">
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="13:13">
+    <row r="544" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M544">
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="13:13">
+    <row r="545" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M545">
         <v>1705</v>
       </c>
     </row>
-    <row r="546" spans="13:13">
+    <row r="546" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M546">
         <v>508</v>
       </c>
     </row>
-    <row r="547" spans="13:13">
+    <row r="547" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M547">
         <v>1637</v>
       </c>
     </row>
-    <row r="548" spans="13:13">
+    <row r="548" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M548">
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="13:13">
+    <row r="549" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M549">
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="13:13">
+    <row r="550" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M550">
         <v>659</v>
       </c>
     </row>
-    <row r="551" spans="13:13">
+    <row r="551" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M551">
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="13:13">
+    <row r="552" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M552">
         <v>456</v>
       </c>
     </row>
-    <row r="553" spans="13:13">
+    <row r="553" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M553">
         <v>815</v>
       </c>
     </row>
-    <row r="554" spans="13:13">
+    <row r="554" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M554">
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="13:13">
+    <row r="555" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M555">
         <v>467</v>
       </c>
     </row>
-    <row r="556" spans="13:13">
+    <row r="556" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M556">
         <v>1080</v>
       </c>
     </row>
-    <row r="557" spans="13:13">
+    <row r="557" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M557">
         <v>603</v>
       </c>
     </row>
-    <row r="558" spans="13:13">
+    <row r="558" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M558">
         <v>1264</v>
       </c>
     </row>
-    <row r="559" spans="13:13">
+    <row r="559" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M559">
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="13:13">
+    <row r="560" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M560">
         <v>1434</v>
       </c>
     </row>
-    <row r="561" spans="13:13">
+    <row r="561" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M561">
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="13:13">
+    <row r="562" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M562">
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="13:13">
+    <row r="563" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M563">
         <v>900</v>
       </c>
     </row>
-    <row r="564" spans="13:13">
+    <row r="564" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M564">
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="13:13">
+    <row r="565" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M565">
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="13:13">
+    <row r="566" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M566">
         <v>701</v>
       </c>
     </row>
-    <row r="567" spans="13:13">
+    <row r="567" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M567">
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="13:13">
+    <row r="568" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M568">
         <v>1161</v>
       </c>
     </row>
-    <row r="569" spans="13:13">
+    <row r="569" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M569">
         <v>426</v>
       </c>
     </row>
-    <row r="570" spans="13:13">
+    <row r="570" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M570">
         <v>536</v>
       </c>
     </row>
-    <row r="571" spans="13:13">
+    <row r="571" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M571">
         <v>623</v>
       </c>
     </row>
-    <row r="572" spans="13:13">
+    <row r="572" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M572">
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="13:13">
+    <row r="573" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M573">
         <v>539</v>
       </c>
     </row>
-    <row r="574" spans="13:13">
+    <row r="574" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M574">
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="13:13">
+    <row r="575" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M575">
         <v>829</v>
       </c>
     </row>
-    <row r="576" spans="13:13">
+    <row r="576" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M576">
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="13:13">
+    <row r="577" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M577">
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="13:13">
+    <row r="578" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M578">
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="13:13">
+    <row r="579" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M579">
         <v>695</v>
       </c>
     </row>
-    <row r="580" spans="13:13">
+    <row r="580" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M580">
         <v>182</v>
       </c>
     </row>
-    <row r="581" spans="13:13">
+    <row r="581" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M581">
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="13:13">
+    <row r="582" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M582">
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="13:13">
+    <row r="583" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M583">
         <v>397</v>
       </c>
     </row>
-    <row r="584" spans="13:13">
+    <row r="584" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M584">
         <v>149</v>
       </c>
     </row>
-    <row r="585" spans="13:13">
+    <row r="585" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M585">
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="13:13">
+    <row r="586" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M586">
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="13:13">
+    <row r="587" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M587">
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="13:13">
+    <row r="588" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M588">
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="13:13">
+    <row r="589" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M589">
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="13:13">
+    <row r="590" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M590">
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="13:13">
+    <row r="591" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M591">
         <v>699</v>
       </c>
     </row>
-    <row r="592" spans="13:13">
+    <row r="592" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M592">
         <v>696</v>
       </c>
     </row>
-    <row r="593" spans="13:13">
+    <row r="593" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M593">
         <v>506</v>
       </c>
     </row>
-    <row r="594" spans="13:13">
+    <row r="594" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M594">
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="13:13">
+    <row r="595" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M595">
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="13:13">
+    <row r="596" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M596">
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="13:13">
+    <row r="597" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M597">
         <v>893</v>
       </c>
     </row>
-    <row r="598" spans="13:13">
+    <row r="598" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M598">
         <v>775</v>
       </c>
     </row>
-    <row r="599" spans="13:13">
+    <row r="599" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M599">
         <v>1021</v>
       </c>
     </row>
-    <row r="600" spans="13:13">
+    <row r="600" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M600">
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="13:13">
+    <row r="601" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M601">
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="13:13">
+    <row r="602" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M602">
         <v>1642</v>
       </c>
     </row>
-    <row r="603" spans="13:13">
+    <row r="603" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M603">
         <v>965</v>
       </c>
     </row>
-    <row r="604" spans="13:13">
+    <row r="604" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M604">
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="13:13">
+    <row r="605" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M605">
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="13:13">
+    <row r="606" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M606">
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="13:13">
+    <row r="607" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M607">
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="13:13">
+    <row r="608" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M608">
         <v>2173</v>
       </c>
     </row>
-    <row r="609" spans="13:13">
+    <row r="609" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M609">
         <v>844</v>
       </c>
     </row>
-    <row r="610" spans="13:13">
+    <row r="610" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M610">
         <v>661</v>
       </c>
     </row>
-    <row r="611" spans="13:13">
+    <row r="611" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M611">
         <v>898</v>
       </c>
     </row>
-    <row r="612" spans="13:13">
+    <row r="612" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M612">
         <v>785</v>
       </c>
     </row>
-    <row r="613" spans="13:13">
+    <row r="613" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M613">
         <v>418</v>
       </c>
     </row>
-    <row r="614" spans="13:13">
+    <row r="614" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M614">
         <v>672</v>
       </c>
     </row>
-    <row r="615" spans="13:13">
+    <row r="615" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M615">
         <v>530</v>
       </c>
     </row>
-    <row r="616" spans="13:13">
+    <row r="616" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M616">
         <v>1731</v>
       </c>
     </row>
-    <row r="617" spans="13:13">
+    <row r="617" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M617">
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="13:13">
+    <row r="618" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M618">
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="13:13">
+    <row r="619" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M619">
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="13:13">
+    <row r="620" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M620">
         <v>329</v>
       </c>
     </row>
-    <row r="621" spans="13:13">
+    <row r="621" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M621">
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="13:13">
+    <row r="622" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M622">
         <v>481</v>
       </c>
     </row>
-    <row r="623" spans="13:13">
+    <row r="623" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M623">
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="13:13">
+    <row r="624" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M624">
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="13:13">
+    <row r="625" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M625">
         <v>1072</v>
       </c>
     </row>
-    <row r="626" spans="13:13">
+    <row r="626" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M626">
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="13:13">
+    <row r="627" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M627">
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="13:13">
+    <row r="628" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M628">
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="13:13">
+    <row r="629" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M629">
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="13:13">
+    <row r="630" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M630">
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="13:13">
+    <row r="631" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M631">
         <v>961</v>
       </c>
     </row>
-    <row r="632" spans="13:13">
+    <row r="632" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M632">
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="13:13">
+    <row r="633" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M633">
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="13:13">
+    <row r="634" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M634">
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="13:13">
+    <row r="635" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M635">
         <v>560</v>
       </c>
     </row>
-    <row r="636" spans="13:13">
+    <row r="636" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M636">
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="13:13">
+    <row r="637" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M637">
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="13:13">
+    <row r="638" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M638">
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="13:13">
+    <row r="639" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M639">
         <v>768</v>
       </c>
     </row>
-    <row r="640" spans="13:13">
+    <row r="640" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M640">
         <v>1816</v>
       </c>
     </row>
-    <row r="641" spans="13:13">
+    <row r="641" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M641">
         <v>412</v>
       </c>
     </row>
-    <row r="642" spans="13:13">
+    <row r="642" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M642">
         <v>650</v>
       </c>
     </row>
-    <row r="643" spans="13:13">
+    <row r="643" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M643">
         <v>352</v>
       </c>
     </row>
-    <row r="644" spans="13:13">
+    <row r="644" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M644">
         <v>1462</v>
       </c>
     </row>
-    <row r="645" spans="13:13">
+    <row r="645" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M645">
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="13:13">
+    <row r="646" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M646">
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="13:13">
+    <row r="647" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M647">
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="13:13">
+    <row r="648" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M648">
         <v>399</v>
       </c>
     </row>
-    <row r="649" spans="13:13">
+    <row r="649" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M649">
         <v>2574</v>
       </c>
     </row>
-    <row r="650" spans="13:13">
+    <row r="650" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M650">
         <v>781</v>
       </c>
     </row>
-    <row r="651" spans="13:13">
+    <row r="651" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M651">
         <v>1537</v>
       </c>
     </row>
-    <row r="652" spans="13:13">
+    <row r="652" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M652">
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="13:13">
+    <row r="653" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M653">
         <v>519</v>
       </c>
     </row>
-    <row r="654" spans="13:13">
+    <row r="654" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M654">
         <v>781</v>
       </c>
     </row>
-    <row r="655" spans="13:13">
+    <row r="655" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M655">
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="13:13">
+    <row r="656" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M656">
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="13:13">
+    <row r="657" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M657">
         <v>317</v>
       </c>
     </row>
-    <row r="658" spans="13:13">
+    <row r="658" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M658">
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="13:13">
+    <row r="659" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M659">
         <v>414</v>
       </c>
     </row>
-    <row r="660" spans="13:13">
+    <row r="660" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M660">
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="13:13">
+    <row r="661" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M661">
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="13:13">
+    <row r="662" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M662">
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="13:13">
+    <row r="663" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M663">
         <v>675</v>
       </c>
     </row>
-    <row r="664" spans="13:13">
+    <row r="664" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M664">
         <v>828</v>
       </c>
     </row>
-    <row r="665" spans="13:13">
+    <row r="665" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M665">
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="13:13">
+    <row r="666" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M666">
         <v>601</v>
       </c>
     </row>
-    <row r="667" spans="13:13">
+    <row r="667" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M667">
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="13:13">
+    <row r="668" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M668">
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="13:13">
+    <row r="669" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M669">
         <v>756</v>
       </c>
     </row>
-    <row r="670" spans="13:13">
+    <row r="670" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M670">
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="13:13">
+    <row r="671" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M671">
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="13:13">
+    <row r="672" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M672">
         <v>1770</v>
       </c>
     </row>
-    <row r="673" spans="13:13">
+    <row r="673" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M673">
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="13:13">
+    <row r="674" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M674">
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="13:13">
+    <row r="675" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M675">
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="13:13">
+    <row r="676" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M676">
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="13:13">
+    <row r="677" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M677">
         <v>351</v>
       </c>
     </row>
-    <row r="678" spans="13:13">
+    <row r="678" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M678">
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="13:13">
+    <row r="679" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M679">
         <v>1572</v>
       </c>
     </row>
-    <row r="680" spans="13:13">
+    <row r="680" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M680">
         <v>396</v>
       </c>
     </row>
-    <row r="681" spans="13:13">
+    <row r="681" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M681">
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="13:13">
+    <row r="682" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M682">
         <v>720</v>
       </c>
     </row>
-    <row r="683" spans="13:13">
+    <row r="683" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M683">
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="13:13">
+    <row r="684" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M684">
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="13:13">
+    <row r="685" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M685">
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="13:13">
+    <row r="686" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M686">
         <v>274</v>
       </c>
     </row>
-    <row r="687" spans="13:13">
+    <row r="687" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M687">
         <v>299</v>
       </c>
     </row>
-    <row r="688" spans="13:13">
+    <row r="688" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M688">
         <v>1854</v>
       </c>
     </row>
-    <row r="689" spans="13:13">
+    <row r="689" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M689">
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="13:13">
+    <row r="690" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M690">
         <v>479</v>
       </c>
     </row>
-    <row r="691" spans="13:13">
+    <row r="691" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M691">
         <v>692</v>
       </c>
     </row>
-    <row r="692" spans="13:13">
+    <row r="692" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M692">
         <v>669</v>
       </c>
     </row>
-    <row r="693" spans="13:13">
+    <row r="693" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M693">
         <v>476</v>
       </c>
     </row>
-    <row r="694" spans="13:13">
+    <row r="694" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M694">
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="13:13">
+    <row r="695" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M695">
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="13:13">
+    <row r="696" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M696">
         <v>162</v>
       </c>
     </row>
-    <row r="697" spans="13:13">
+    <row r="697" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M697">
         <v>616</v>
       </c>
     </row>
-    <row r="698" spans="13:13">
+    <row r="698" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M698">
         <v>1406</v>
       </c>
     </row>
-    <row r="699" spans="13:13">
+    <row r="699" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M699">
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="13:13">
+    <row r="700" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M700">
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="13:13">
+    <row r="701" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M701">
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="13:13">
+    <row r="702" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M702">
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="13:13">
+    <row r="703" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M703">
         <v>636</v>
       </c>
     </row>
-    <row r="704" spans="13:13">
+    <row r="704" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M704">
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="13:13">
+    <row r="705" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M705">
         <v>600</v>
       </c>
     </row>
-    <row r="706" spans="13:13">
+    <row r="706" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M706">
         <v>702</v>
       </c>
     </row>
-    <row r="707" spans="13:13">
+    <row r="707" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M707">
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="13:13">
+    <row r="708" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M708">
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="13:13">
+    <row r="709" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M709">
         <v>783</v>
       </c>
     </row>
-    <row r="710" spans="13:13">
+    <row r="710" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M710">
         <v>984</v>
       </c>
     </row>
-    <row r="711" spans="13:13">
+    <row r="711" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M711">
         <v>1531</v>
       </c>
     </row>
-    <row r="712" spans="13:13">
+    <row r="712" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M712">
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="13:13">
+    <row r="713" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M713">
         <v>1445</v>
       </c>
     </row>
-    <row r="714" spans="13:13">
+    <row r="714" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M714">
         <v>1730</v>
       </c>
     </row>
-    <row r="715" spans="13:13">
+    <row r="715" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M715">
         <v>1529</v>
       </c>
     </row>
-    <row r="716" spans="13:13">
+    <row r="716" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M716">
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="13:13">
+    <row r="717" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M717">
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="13:13">
+    <row r="718" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M718">
         <v>2098</v>
       </c>
     </row>
-    <row r="719" spans="13:13">
+    <row r="719" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M719">
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="13:13">
+    <row r="720" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M720">
         <v>2284</v>
       </c>
     </row>
-    <row r="721" spans="13:13">
+    <row r="721" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M721">
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="13:13">
+    <row r="722" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M722">
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="13:13">
+    <row r="723" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M723">
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="13:13">
+    <row r="724" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M724">
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="13:13">
+    <row r="725" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M725">
         <v>486</v>
       </c>
     </row>
-    <row r="726" spans="13:13">
+    <row r="726" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M726">
         <v>378</v>
       </c>
     </row>
-    <row r="727" spans="13:13">
+    <row r="727" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M727">
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="13:13">
+    <row r="728" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M728">
         <v>377</v>
       </c>
     </row>
-    <row r="729" spans="13:13">
+    <row r="729" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M729">
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="13:13">
+    <row r="730" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M730">
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="13:13">
+    <row r="731" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M731">
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="13:13">
+    <row r="732" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M732">
         <v>399</v>
       </c>
     </row>
-    <row r="733" spans="13:13">
+    <row r="733" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M733">
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="13:13">
+    <row r="734" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M734">
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="13:13">
+    <row r="735" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M735">
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="13:13">
+    <row r="736" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M736">
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="13:13">
+    <row r="737" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M737">
         <v>984</v>
       </c>
     </row>
-    <row r="738" spans="13:13">
+    <row r="738" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M738">
         <v>1252</v>
       </c>
     </row>
-    <row r="739" spans="13:13">
+    <row r="739" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M739">
         <v>1002</v>
       </c>
     </row>
-    <row r="740" spans="13:13">
+    <row r="740" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M740">
         <v>544</v>
       </c>
     </row>
-    <row r="741" spans="13:13">
+    <row r="741" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M741">
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="13:13">
+    <row r="742" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M742">
         <v>704</v>
       </c>
     </row>
-    <row r="743" spans="13:13">
+    <row r="743" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M743">
         <v>877</v>
       </c>
     </row>
-    <row r="744" spans="13:13">
+    <row r="744" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M744">
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="13:13">
+    <row r="745" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M745">
         <v>589</v>
       </c>
     </row>
-    <row r="746" spans="13:13">
+    <row r="746" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M746">
         <v>634</v>
       </c>
     </row>
-    <row r="747" spans="13:13">
+    <row r="747" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M747">
         <v>295</v>
       </c>
     </row>
-    <row r="748" spans="13:13">
+    <row r="748" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M748">
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="13:13">
+    <row r="749" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M749">
         <v>754</v>
       </c>
     </row>
-    <row r="750" spans="13:13">
+    <row r="750" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M750">
         <v>147</v>
       </c>
     </row>
-    <row r="751" spans="13:13">
+    <row r="751" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M751">
         <v>626</v>
       </c>
     </row>
-    <row r="752" spans="13:13">
+    <row r="752" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M752">
         <v>648</v>
       </c>
     </row>
-    <row r="753" spans="13:13">
+    <row r="753" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M753">
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="13:13">
+    <row r="754" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M754">
         <v>785</v>
       </c>
     </row>
-    <row r="755" spans="13:13">
+    <row r="755" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M755">
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="13:13">
+    <row r="756" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M756">
         <v>873</v>
       </c>
     </row>
-    <row r="757" spans="13:13">
+    <row r="757" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M757">
         <v>898</v>
       </c>
     </row>
-    <row r="758" spans="13:13">
+    <row r="758" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M758">
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="13:13">
+    <row r="759" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M759">
         <v>725</v>
       </c>
     </row>
-    <row r="760" spans="13:13">
+    <row r="760" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M760">
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="13:13">
+    <row r="761" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M761">
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="13:13">
+    <row r="762" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M762">
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="13:13">
+    <row r="763" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M763">
         <v>749</v>
       </c>
     </row>
-    <row r="764" spans="13:13">
+    <row r="764" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M764">
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="13:13">
+    <row r="765" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M765">
         <v>689</v>
       </c>
     </row>
-    <row r="766" spans="13:13">
+    <row r="766" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M766">
         <v>343</v>
       </c>
     </row>
-    <row r="767" spans="13:13">
+    <row r="767" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M767">
         <v>1382</v>
       </c>
     </row>
-    <row r="768" spans="13:13">
+    <row r="768" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M768">
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="13:13">
+    <row r="769" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M769">
         <v>517</v>
       </c>
     </row>
-    <row r="770" spans="13:13">
+    <row r="770" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M770">
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="13:13">
+    <row r="771" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M771">
         <v>2677</v>
       </c>
     </row>
-    <row r="772" spans="13:13">
+    <row r="772" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M772">
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="13:13">
+    <row r="773" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M773">
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="13:13">
+    <row r="774" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M774">
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="13:13">
+    <row r="775" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M775">
         <v>218</v>
       </c>
     </row>
-    <row r="776" spans="13:13">
+    <row r="776" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M776">
         <v>1769</v>
       </c>
     </row>
-    <row r="777" spans="13:13">
+    <row r="777" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M777">
         <v>482</v>
       </c>
     </row>
-    <row r="778" spans="13:13">
+    <row r="778" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M778">
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="13:13">
+    <row r="779" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M779">
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="13:13">
+    <row r="780" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M780">
         <v>774</v>
       </c>
     </row>
-    <row r="781" spans="13:13">
+    <row r="781" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M781">
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="13:13">
+    <row r="782" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M782">
         <v>801</v>
       </c>
     </row>
-    <row r="783" spans="13:13">
+    <row r="783" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M783">
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="13:13">
+    <row r="784" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M784">
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="13:13">
+    <row r="785" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M785">
         <v>391</v>
       </c>
     </row>
-    <row r="786" spans="13:13">
+    <row r="786" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M786">
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="13:13">
+    <row r="787" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M787">
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="13:13">
+    <row r="788" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M788">
         <v>890</v>
       </c>
     </row>
-    <row r="789" spans="13:13">
+    <row r="789" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M789">
         <v>303</v>
       </c>
     </row>
-    <row r="790" spans="13:13">
+    <row r="790" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M790">
         <v>229</v>
       </c>
     </row>
-    <row r="791" spans="13:13">
+    <row r="791" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M791">
         <v>2471</v>
       </c>
     </row>
-    <row r="792" spans="13:13">
+    <row r="792" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M792">
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="13:13">
+    <row r="793" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M793">
         <v>614</v>
       </c>
     </row>
-    <row r="794" spans="13:13">
+    <row r="794" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M794">
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="13:13">
+    <row r="795" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M795">
         <v>503</v>
       </c>
     </row>
-    <row r="796" spans="13:13">
+    <row r="796" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M796">
         <v>1289</v>
       </c>
     </row>
-    <row r="797" spans="13:13">
+    <row r="797" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M797">
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="13:13">
+    <row r="798" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M798">
         <v>221</v>
       </c>
     </row>
-    <row r="799" spans="13:13">
+    <row r="799" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M799">
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="13:13">
+    <row r="800" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M800">
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="13:13">
+    <row r="801" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M801">
         <v>932</v>
       </c>
     </row>
-    <row r="802" spans="13:13">
+    <row r="802" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M802">
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="13:13">
+    <row r="803" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M803">
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="13:13">
+    <row r="804" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M804">
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="13:13">
+    <row r="805" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M805">
         <v>993</v>
       </c>
     </row>
-    <row r="806" spans="13:13">
+    <row r="806" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M806">
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="13:13">
+    <row r="807" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M807">
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="13:13">
+    <row r="808" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M808">
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="13:13">
+    <row r="809" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M809">
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="13:13">
+    <row r="810" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M810">
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="13:13">
+    <row r="811" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M811">
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="13:13">
+    <row r="812" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M812">
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="13:13">
+    <row r="813" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M813">
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="13:13">
+    <row r="814" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M814">
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="13:13">
+    <row r="815" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M815">
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="13:13">
+    <row r="816" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M816">
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="13:13">
+    <row r="817" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M817">
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="13:13">
+    <row r="818" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M818">
         <v>607</v>
       </c>
     </row>
-    <row r="819" spans="13:13">
+    <row r="819" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M819">
         <v>530</v>
       </c>
     </row>
-    <row r="820" spans="13:13">
+    <row r="820" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M820">
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="13:13">
+    <row r="821" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M821">
         <v>320</v>
       </c>
     </row>
-    <row r="822" spans="13:13">
+    <row r="822" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M822">
         <v>1752</v>
       </c>
     </row>
-    <row r="823" spans="13:13">
+    <row r="823" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M823">
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="13:13">
+    <row r="824" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M824">
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="13:13">
+    <row r="825" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M825">
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="13:13">
+    <row r="826" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M826">
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="13:13">
+    <row r="827" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M827">
         <v>833</v>
       </c>
     </row>
-    <row r="828" spans="13:13">
+    <row r="828" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M828">
         <v>2319</v>
       </c>
     </row>
-    <row r="829" spans="13:13">
+    <row r="829" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M829">
         <v>553</v>
       </c>
     </row>
-    <row r="830" spans="13:13">
+    <row r="830" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M830">
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="13:13">
+    <row r="831" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M831">
         <v>863</v>
       </c>
     </row>
-    <row r="832" spans="13:13">
+    <row r="832" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M832">
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="13:13">
+    <row r="833" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M833">
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="13:13">
+    <row r="834" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M834">
         <v>621</v>
       </c>
     </row>
-    <row r="835" spans="13:13">
+    <row r="835" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M835">
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="13:13">
+    <row r="836" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M836">
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="13:13">
+    <row r="837" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M837">
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="13:13">
+    <row r="838" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M838">
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="13:13">
+    <row r="839" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M839">
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="13:13">
+    <row r="840" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M840">
         <v>469</v>
       </c>
     </row>
-    <row r="841" spans="13:13">
+    <row r="841" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M841">
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="13:13">
+    <row r="842" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M842">
         <v>793</v>
       </c>
     </row>
-    <row r="843" spans="13:13">
+    <row r="843" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M843">
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="13:13">
+    <row r="844" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M844">
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="13:13">
+    <row r="845" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M845">
         <v>1581</v>
       </c>
     </row>
-    <row r="846" spans="13:13">
+    <row r="846" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M846">
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="13:13">
+    <row r="847" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M847">
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="13:13">
+    <row r="848" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M848">
         <v>441</v>
       </c>
     </row>
-    <row r="849" spans="13:13">
+    <row r="849" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M849">
         <v>923</v>
       </c>
     </row>
-    <row r="850" spans="13:13">
+    <row r="850" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M850">
         <v>741</v>
       </c>
     </row>
-    <row r="851" spans="13:13">
+    <row r="851" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M851">
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="13:13">
+    <row r="852" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M852">
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="13:13">
+    <row r="853" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M853">
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="13:13">
+    <row r="854" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M854">
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="13:13">
+    <row r="855" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M855">
         <v>628</v>
       </c>
     </row>
-    <row r="856" spans="13:13">
+    <row r="856" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M856">
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="13:13">
+    <row r="857" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M857">
         <v>1572</v>
       </c>
     </row>
-    <row r="858" spans="13:13">
+    <row r="858" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M858">
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="13:13">
+    <row r="859" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M859">
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="13:13">
+    <row r="860" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M860">
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="13:13">
+    <row r="861" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M861">
         <v>428</v>
       </c>
     </row>
-    <row r="862" spans="13:13">
+    <row r="862" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M862">
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="13:13">
+    <row r="863" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M863">
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="13:13">
+    <row r="864" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M864">
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="13:13">
+    <row r="865" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M865">
         <v>1200</v>
       </c>
     </row>
-    <row r="866" spans="13:13">
+    <row r="866" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M866">
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="13:13">
+    <row r="867" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M867">
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="13:13">
+    <row r="868" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M868">
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="13:13">
+    <row r="869" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M869">
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="13:13">
+    <row r="870" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M870">
         <v>562</v>
       </c>
     </row>
-    <row r="871" spans="13:13">
+    <row r="871" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M871">
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="13:13">
+    <row r="872" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M872">
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="13:13">
+    <row r="873" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M873">
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="13:13">
+    <row r="874" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M874">
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="13:13">
+    <row r="875" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M875">
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="13:13">
+    <row r="876" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M876">
         <v>763</v>
       </c>
     </row>
-    <row r="877" spans="13:13">
+    <row r="877" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M877">
         <v>277</v>
       </c>
     </row>
-    <row r="878" spans="13:13">
+    <row r="878" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M878">
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="13:13">
+    <row r="879" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M879">
         <v>1407</v>
       </c>
     </row>
-    <row r="880" spans="13:13">
+    <row r="880" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M880">
         <v>535</v>
       </c>
     </row>
-    <row r="881" spans="13:13">
+    <row r="881" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M881">
         <v>913</v>
       </c>
     </row>
-    <row r="882" spans="13:13">
+    <row r="882" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M882">
         <v>905</v>
       </c>
     </row>
-    <row r="883" spans="13:13">
+    <row r="883" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M883">
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="13:13">
+    <row r="884" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M884">
         <v>780</v>
       </c>
     </row>
-    <row r="885" spans="13:13">
+    <row r="885" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M885">
         <v>1530</v>
       </c>
     </row>
-    <row r="886" spans="13:13">
+    <row r="886" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M886">
         <v>1178</v>
       </c>
     </row>
-    <row r="887" spans="13:13">
+    <row r="887" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M887">
         <v>708</v>
       </c>
     </row>
-    <row r="888" spans="13:13">
+    <row r="888" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M888">
         <v>594</v>
       </c>
     </row>
-    <row r="889" spans="13:13">
+    <row r="889" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M889">
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="13:13">
+    <row r="890" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M890">
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="13:13">
+    <row r="891" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M891">
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="13:13">
+    <row r="892" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M892">
         <v>1786</v>
       </c>
     </row>
-    <row r="893" spans="13:13">
+    <row r="893" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M893">
         <v>723</v>
       </c>
     </row>
-    <row r="894" spans="13:13">
+    <row r="894" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M894">
         <v>1268</v>
       </c>
     </row>
-    <row r="895" spans="13:13">
+    <row r="895" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M895">
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="13:13">
+    <row r="896" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M896">
         <v>1913</v>
       </c>
     </row>
-    <row r="897" spans="13:13">
+    <row r="897" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M897">
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="13:13">
+    <row r="898" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M898">
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="13:13">
+    <row r="899" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M899">
         <v>1707</v>
       </c>
     </row>
-    <row r="900" spans="13:13">
+    <row r="900" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M900">
         <v>842</v>
       </c>
     </row>
-    <row r="901" spans="13:13">
+    <row r="901" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M901">
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="13:13">
+    <row r="902" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M902">
         <v>870</v>
       </c>
     </row>
-    <row r="903" spans="13:13">
+    <row r="903" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M903">
         <v>550</v>
       </c>
     </row>
-    <row r="904" spans="13:13">
+    <row r="904" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M904">
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="13:13">
+    <row r="905" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M905">
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="13:13">
+    <row r="906" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M906">
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="13:13">
+    <row r="907" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M907">
         <v>578</v>
       </c>
     </row>
-    <row r="908" spans="13:13">
+    <row r="908" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M908">
         <v>670</v>
       </c>
     </row>
-    <row r="909" spans="13:13">
+    <row r="909" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M909">
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="13:13">
+    <row r="910" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M910">
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="13:13">
+    <row r="911" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M911">
         <v>383</v>
       </c>
     </row>
-    <row r="912" spans="13:13">
+    <row r="912" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M912">
         <v>712</v>
       </c>
     </row>
-    <row r="913" spans="13:13">
+    <row r="913" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M913">
         <v>645</v>
       </c>
     </row>
-    <row r="914" spans="13:13">
+    <row r="914" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M914">
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="13:13">
+    <row r="915" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M915">
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="13:13">
+    <row r="916" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M916">
         <v>618</v>
       </c>
     </row>
-    <row r="917" spans="13:13">
+    <row r="917" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M917">
         <v>928</v>
       </c>
     </row>
-    <row r="918" spans="13:13">
+    <row r="918" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M918">
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="13:13">
+    <row r="919" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M919">
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="13:13">
+    <row r="920" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M920">
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="13:13">
+    <row r="921" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M921">
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="13:13">
+    <row r="922" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M922">
         <v>729</v>
       </c>
     </row>
-    <row r="923" spans="13:13">
+    <row r="923" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M923">
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="13:13">
+    <row r="924" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M924">
         <v>697</v>
       </c>
     </row>
-    <row r="925" spans="13:13">
+    <row r="925" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M925">
         <v>1251</v>
       </c>
     </row>
-    <row r="926" spans="13:13">
+    <row r="926" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M926">
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="13:13">
+    <row r="927" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M927">
         <v>941</v>
       </c>
     </row>
-    <row r="928" spans="13:13">
+    <row r="928" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M928">
         <v>366</v>
       </c>
     </row>
-    <row r="929" spans="13:13">
+    <row r="929" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M929">
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="13:13">
+    <row r="930" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M930">
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="13:13">
+    <row r="931" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M931">
         <v>867</v>
       </c>
     </row>
-    <row r="932" spans="13:13">
+    <row r="932" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M932">
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="13:13">
+    <row r="933" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M933">
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="13:13">
+    <row r="934" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M934">
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="13:13">
+    <row r="935" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M935">
         <v>406</v>
       </c>
     </row>
-    <row r="936" spans="13:13">
+    <row r="936" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M936">
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="13:13">
+    <row r="937" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M937">
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="13:13">
+    <row r="938" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M938">
         <v>918</v>
       </c>
     </row>
-    <row r="939" spans="13:13">
+    <row r="939" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M939">
         <v>989</v>
       </c>
     </row>
-    <row r="940" spans="13:13">
+    <row r="940" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M940">
         <v>1628</v>
       </c>
     </row>
-    <row r="941" spans="13:13">
+    <row r="941" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M941">
         <v>701</v>
       </c>
     </row>
-    <row r="942" spans="13:13">
+    <row r="942" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M942">
         <v>538</v>
       </c>
     </row>
-    <row r="943" spans="13:13">
+    <row r="943" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M943">
         <v>692</v>
       </c>
     </row>
-    <row r="944" spans="13:13">
+    <row r="944" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M944">
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="13:13">
+    <row r="945" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M945">
         <v>578</v>
       </c>
     </row>
-    <row r="946" spans="13:13">
+    <row r="946" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M946">
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="13:13">
+    <row r="947" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M947">
         <v>308</v>
       </c>
     </row>
-    <row r="948" spans="13:13">
+    <row r="948" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M948">
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="13:13">
+    <row r="949" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M949">
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="13:13">
+    <row r="950" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M950">
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="13:13">
+    <row r="951" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M951">
         <v>967</v>
       </c>
     </row>
-    <row r="952" spans="13:13">
+    <row r="952" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M952">
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="13:13">
+    <row r="953" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M953">
         <v>1718</v>
       </c>
     </row>
-    <row r="954" spans="13:13">
+    <row r="954" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M954">
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="13:13">
+    <row r="955" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M955">
         <v>933</v>
       </c>
     </row>
-    <row r="956" spans="13:13">
+    <row r="956" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M956">
         <v>369</v>
       </c>
     </row>
-    <row r="957" spans="13:13">
+    <row r="957" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M957">
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="13:13">
+    <row r="958" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M958">
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="13:13">
+    <row r="959" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M959">
         <v>663</v>
       </c>
     </row>
-    <row r="960" spans="13:13">
+    <row r="960" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M960">
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="13:13">
+    <row r="961" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M961">
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="13:13">
+    <row r="962" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M962">
         <v>985</v>
       </c>
     </row>
-    <row r="963" spans="13:13">
+    <row r="963" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M963">
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="13:13">
+    <row r="964" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M964">
         <v>828</v>
       </c>
     </row>
-    <row r="965" spans="13:13">
+    <row r="965" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M965">
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="13:13">
+    <row r="966" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M966">
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="13:13">
+    <row r="967" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M967">
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="13:13">
+    <row r="968" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M968">
         <v>225</v>
       </c>
     </row>
-    <row r="969" spans="13:13">
+    <row r="969" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M969">
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="13:13">
+    <row r="970" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M970">
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="13:13">
+    <row r="971" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M971">
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="13:13">
+    <row r="972" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M972">
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="13:13">
+    <row r="973" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M973">
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="13:13">
+    <row r="974" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M974">
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="13:13">
+    <row r="975" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M975">
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="13:13">
+    <row r="976" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M976">
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="13:13">
+    <row r="977" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M977">
         <v>232</v>
       </c>
     </row>
-    <row r="978" spans="13:13">
+    <row r="978" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M978">
         <v>367</v>
       </c>
     </row>
-    <row r="979" spans="13:13">
+    <row r="979" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M979">
         <v>571</v>
       </c>
     </row>
-    <row r="980" spans="13:13">
+    <row r="980" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M980">
         <v>932</v>
       </c>
     </row>
-    <row r="981" spans="13:13">
+    <row r="981" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M981">
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="13:13">
+    <row r="982" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M982">
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="13:13">
+    <row r="983" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M983">
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="13:13">
+    <row r="984" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M984">
         <v>0</v>
       </c>
     </row>
-    <row r="985" spans="13:13">
+    <row r="985" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M985">
         <v>0</v>
       </c>
     </row>
-    <row r="986" spans="13:13">
+    <row r="986" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M986">
         <v>419</v>
       </c>
     </row>
-    <row r="987" spans="13:13">
+    <row r="987" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M987">
         <v>1155</v>
       </c>
     </row>
-    <row r="988" spans="13:13">
+    <row r="988" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M988">
         <v>449</v>
       </c>
     </row>
-    <row r="989" spans="13:13">
+    <row r="989" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M989">
         <v>511</v>
       </c>
     </row>
-    <row r="990" spans="13:13">
+    <row r="990" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M990">
         <v>0</v>
       </c>
     </row>
-    <row r="991" spans="13:13">
+    <row r="991" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M991">
         <v>536</v>
       </c>
     </row>
-    <row r="992" spans="13:13">
+    <row r="992" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M992">
         <v>0</v>
       </c>
     </row>
-    <row r="993" spans="13:13">
+    <row r="993" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M993">
         <v>768</v>
       </c>
     </row>
-    <row r="994" spans="13:13">
+    <row r="994" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M994">
         <v>818</v>
       </c>
     </row>
-    <row r="995" spans="13:13">
+    <row r="995" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M995">
         <v>0</v>
       </c>
     </row>
-    <row r="996" spans="13:13">
+    <row r="996" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M996">
         <v>0</v>
       </c>
     </row>
-    <row r="997" spans="13:13">
+    <row r="997" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M997">
         <v>0</v>
       </c>
     </row>
-    <row r="998" spans="13:13">
+    <row r="998" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M998">
         <v>628</v>
       </c>
     </row>
-    <row r="999" spans="13:13">
+    <row r="999" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M999">
         <v>899</v>
       </c>
     </row>
-    <row r="1000" spans="13:13">
+    <row r="1000" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1000">
         <v>395</v>
       </c>
     </row>
-    <row r="1001" spans="13:13">
+    <row r="1001" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1001">
         <v>854</v>
       </c>
     </row>
-    <row r="1002" spans="13:13">
+    <row r="1002" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1002">
         <v>0</v>
       </c>
     </row>
-    <row r="1003" spans="13:13">
+    <row r="1003" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1003">
         <v>1696</v>
       </c>
     </row>
-    <row r="1004" spans="13:13">
+    <row r="1004" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1004">
         <v>413</v>
       </c>
     </row>
-    <row r="1005" spans="13:13">
+    <row r="1005" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1005">
         <v>0</v>
       </c>
     </row>
-    <row r="1006" spans="13:13">
+    <row r="1006" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1006">
         <v>0</v>
       </c>
     </row>
-    <row r="1007" spans="13:13">
+    <row r="1007" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1007">
         <v>443</v>
       </c>
     </row>
-    <row r="1008" spans="13:13">
+    <row r="1008" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1008">
         <v>0</v>
       </c>
     </row>
-    <row r="1009" spans="13:13">
+    <row r="1009" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1009">
         <v>1582</v>
       </c>
     </row>
-    <row r="1010" spans="13:13">
+    <row r="1010" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1010">
         <v>0</v>
       </c>
     </row>
-    <row r="1011" spans="13:13">
+    <row r="1011" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1011">
         <v>0</v>
       </c>
     </row>
-    <row r="1012" spans="13:13">
+    <row r="1012" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1012">
         <v>0</v>
       </c>
     </row>
-    <row r="1013" spans="13:13">
+    <row r="1013" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1013">
         <v>0</v>
       </c>
     </row>
-    <row r="1014" spans="13:13">
+    <row r="1014" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1014">
         <v>0</v>
       </c>
     </row>
-    <row r="1015" spans="13:13">
+    <row r="1015" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1015">
         <v>1526</v>
       </c>
     </row>
-    <row r="1016" spans="13:13">
+    <row r="1016" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1016">
         <v>1498</v>
       </c>
     </row>
-    <row r="1017" spans="13:13">
+    <row r="1017" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1017">
         <v>0</v>
       </c>
     </row>
-    <row r="1018" spans="13:13">
+    <row r="1018" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1018">
         <v>464</v>
       </c>
     </row>
-    <row r="1019" spans="13:13">
+    <row r="1019" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1019">
         <v>790</v>
       </c>
     </row>
-    <row r="1020" spans="13:13">
+    <row r="1020" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1020">
         <v>0</v>
       </c>
     </row>
-    <row r="1021" spans="13:13">
+    <row r="1021" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1021">
         <v>0</v>
       </c>
     </row>
-    <row r="1022" spans="13:13">
+    <row r="1022" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1022">
         <v>0</v>
       </c>
     </row>
-    <row r="1023" spans="13:13">
+    <row r="1023" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1023">
         <v>0</v>
       </c>
     </row>
-    <row r="1024" spans="13:13">
+    <row r="1024" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1024">
         <v>299</v>
       </c>
     </row>
-    <row r="1025" spans="13:13">
+    <row r="1025" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1025">
         <v>0</v>
       </c>
@@ -8609,20 +8614,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="A1:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="13.125" customWidth="1"/>
+    <col min="14" max="14" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -8634,7 +8639,7 @@
       <c r="K1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>648</v>
       </c>
@@ -8642,7 +8647,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -8651,7 +8656,7 @@
       <c r="K4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>10.106400000000001</v>
       </c>
@@ -8673,7 +8678,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -8688,16 +8693,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -8705,7 +8710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>651</v>
       </c>
@@ -8713,12 +8718,12 @@
         <v>651</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>16.874600000000001</v>
       </c>

--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="1020" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="5620" yWindow="1380" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TR SYNCH=3" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="10">
   <si>
     <t>Average Time</t>
   </si>
@@ -47,12 +47,18 @@
   <si>
     <t>1 Core</t>
   </si>
+  <si>
+    <t>32 Cores</t>
+  </si>
+  <si>
+    <t>16 Cores</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -76,6 +82,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -94,7 +107,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -132,14 +145,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -158,6 +185,11 @@
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -176,6 +208,11 @@
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8677,77 +8714,115 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" customWidth="1"/>
-    <col min="14" max="14" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
+    <col min="17" max="17" width="15.1640625" customWidth="1"/>
+    <col min="20" max="20" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2">
+        <v>4788</v>
+      </c>
+      <c r="B2">
+        <f>AVERAGE(A2:A17)</f>
+        <v>4665.0625</v>
+      </c>
+      <c r="D2">
+        <v>4589</v>
+      </c>
+      <c r="E2">
+        <f>AVERAGE(D2:D33)</f>
+        <v>4583.59375</v>
+      </c>
+      <c r="G2">
         <v>4023</v>
       </c>
-      <c r="B2">
-        <f>AVERAGE(A2:A65)</f>
+      <c r="H2">
+        <f>AVERAGE(G2:G65)</f>
         <v>3241.28125</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:20">
       <c r="A3">
+        <v>4760</v>
+      </c>
+      <c r="D3">
+        <v>4617</v>
+      </c>
+      <c r="G3">
         <v>3626</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:20">
       <c r="A4">
-        <v>1427</v>
+        <v>4587</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D4">
+        <v>4615</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G4">
+        <v>1427</v>
+      </c>
       <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
@@ -8757,317 +8832,456 @@
       <c r="N4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="Q4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5">
+        <v>4707</v>
+      </c>
+      <c r="B5">
+        <v>67.389700000000005</v>
+      </c>
+      <c r="D5">
+        <v>4354</v>
+      </c>
+      <c r="E5">
+        <v>34.467100000000002</v>
+      </c>
+      <c r="G5">
         <v>1761</v>
       </c>
-      <c r="B5">
+      <c r="H5">
         <v>18.5808</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:20">
       <c r="A6">
+        <v>4559</v>
+      </c>
+      <c r="D6">
+        <v>4494</v>
+      </c>
+      <c r="G6">
         <v>3062</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:20">
       <c r="A7">
+        <v>4671</v>
+      </c>
+      <c r="D7">
+        <v>4436</v>
+      </c>
+      <c r="G7">
         <v>1653</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:20">
       <c r="A8">
+        <v>4571</v>
+      </c>
+      <c r="D8">
+        <v>4789</v>
+      </c>
+      <c r="G8">
         <v>3994</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:20">
       <c r="A9">
+        <v>4768</v>
+      </c>
+      <c r="D9">
+        <v>4564</v>
+      </c>
+      <c r="G9">
         <v>1645</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:20">
       <c r="A10">
+        <v>4784</v>
+      </c>
+      <c r="D10">
+        <v>4758</v>
+      </c>
+      <c r="G10">
         <v>4552</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:20">
       <c r="A11">
+        <v>4565</v>
+      </c>
+      <c r="D11">
+        <v>4647</v>
+      </c>
+      <c r="G11">
         <v>4271</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:20">
       <c r="A12">
+        <v>4680</v>
+      </c>
+      <c r="D12">
+        <v>4591</v>
+      </c>
+      <c r="G12">
         <v>1620</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:20">
       <c r="A13">
+        <v>4562</v>
+      </c>
+      <c r="D13">
+        <v>4455</v>
+      </c>
+      <c r="G13">
         <v>4333</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:20">
       <c r="A14">
+        <v>4619</v>
+      </c>
+      <c r="D14">
+        <v>4760</v>
+      </c>
+      <c r="G14">
         <v>4277</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:20">
       <c r="A15">
+        <v>4505</v>
+      </c>
+      <c r="D15">
+        <v>4813</v>
+      </c>
+      <c r="G15">
         <v>1424</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:20">
       <c r="A16">
+        <v>4779</v>
+      </c>
+      <c r="D16">
+        <v>4700</v>
+      </c>
+      <c r="G16">
         <v>4580</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:7">
       <c r="A17">
+        <v>4736</v>
+      </c>
+      <c r="D17">
+        <v>4248</v>
+      </c>
+      <c r="G17">
         <v>1564</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
+    <row r="18" spans="1:7">
+      <c r="D18">
+        <v>4793</v>
+      </c>
+      <c r="G18">
         <v>1833</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
+    <row r="19" spans="1:7">
+      <c r="D19">
+        <v>4781</v>
+      </c>
+      <c r="G19">
         <v>3446</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
+    <row r="20" spans="1:7">
+      <c r="D20">
+        <v>4479</v>
+      </c>
+      <c r="G20">
         <v>4358</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
+    <row r="21" spans="1:7">
+      <c r="D21">
+        <v>4181</v>
+      </c>
+      <c r="G21">
         <v>3755</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
+    <row r="22" spans="1:7">
+      <c r="D22">
+        <v>4417</v>
+      </c>
+      <c r="G22">
         <v>4277</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
+    <row r="23" spans="1:7">
+      <c r="D23">
+        <v>4302</v>
+      </c>
+      <c r="G23">
         <v>4325</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
+    <row r="24" spans="1:7">
+      <c r="D24">
+        <v>4629</v>
+      </c>
+      <c r="G24">
         <v>3793</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
+    <row r="25" spans="1:7">
+      <c r="D25">
+        <v>4755</v>
+      </c>
+      <c r="G25">
         <v>4046</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
+    <row r="26" spans="1:7">
+      <c r="D26">
+        <v>4795</v>
+      </c>
+      <c r="G26">
         <v>1656</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
+    <row r="27" spans="1:7">
+      <c r="D27">
+        <v>4466</v>
+      </c>
+      <c r="G27">
         <v>4391</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
+    <row r="28" spans="1:7">
+      <c r="D28">
+        <v>4684</v>
+      </c>
+      <c r="G28">
         <v>4585</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
+    <row r="29" spans="1:7">
+      <c r="D29">
+        <v>4774</v>
+      </c>
+      <c r="G29">
         <v>1902</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
+    <row r="30" spans="1:7">
+      <c r="D30">
+        <v>4595</v>
+      </c>
+      <c r="G30">
         <v>3583</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
+    <row r="31" spans="1:7">
+      <c r="D31">
+        <v>4543</v>
+      </c>
+      <c r="G31">
         <v>4699</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32">
+    <row r="32" spans="1:7">
+      <c r="D32">
+        <v>4346</v>
+      </c>
+      <c r="G32">
         <v>4197</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
+    <row r="33" spans="4:7">
+      <c r="D33">
+        <v>4705</v>
+      </c>
+      <c r="G33">
         <v>1650</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
+    <row r="34" spans="4:7">
+      <c r="G34">
         <v>1725</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
+    <row r="35" spans="4:7">
+      <c r="G35">
         <v>4026</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
+    <row r="36" spans="4:7">
+      <c r="G36">
         <v>1766</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
+    <row r="37" spans="4:7">
+      <c r="G37">
         <v>1537</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
+    <row r="38" spans="4:7">
+      <c r="G38">
         <v>4154</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
+    <row r="39" spans="4:7">
+      <c r="G39">
         <v>4405</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
+    <row r="40" spans="4:7">
+      <c r="G40">
         <v>4128</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41">
+    <row r="41" spans="4:7">
+      <c r="G41">
         <v>2533</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42">
+    <row r="42" spans="4:7">
+      <c r="G42">
         <v>4344</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43">
+    <row r="43" spans="4:7">
+      <c r="G43">
         <v>3944</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44">
+    <row r="44" spans="4:7">
+      <c r="G44">
         <v>1561</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45">
+    <row r="45" spans="4:7">
+      <c r="G45">
         <v>4639</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46">
+    <row r="46" spans="4:7">
+      <c r="G46">
         <v>1876</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47">
+    <row r="47" spans="4:7">
+      <c r="G47">
         <v>4229</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48">
+    <row r="48" spans="4:7">
+      <c r="G48">
         <v>4559</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49">
+    <row r="49" spans="7:7">
+      <c r="G49">
         <v>4756</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50">
+    <row r="50" spans="7:7">
+      <c r="G50">
         <v>2348</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51">
+    <row r="51" spans="7:7">
+      <c r="G51">
         <v>4765</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52">
+    <row r="52" spans="7:7">
+      <c r="G52">
         <v>4445</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53">
+    <row r="53" spans="7:7">
+      <c r="G53">
         <v>4251</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54">
+    <row r="54" spans="7:7">
+      <c r="G54">
         <v>2763</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55">
+    <row r="55" spans="7:7">
+      <c r="G55">
         <v>3710</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56">
+    <row r="56" spans="7:7">
+      <c r="G56">
         <v>2116</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57">
+    <row r="57" spans="7:7">
+      <c r="G57">
         <v>3699</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58">
+    <row r="58" spans="7:7">
+      <c r="G58">
         <v>2005</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59">
+    <row r="59" spans="7:7">
+      <c r="G59">
         <v>3697</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60">
+    <row r="60" spans="7:7">
+      <c r="G60">
         <v>1672</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61">
+    <row r="61" spans="7:7">
+      <c r="G61">
         <v>1563</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62">
+    <row r="62" spans="7:7">
+      <c r="G62">
         <v>3425</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63">
+    <row r="63" spans="7:7">
+      <c r="G63">
         <v>2758</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64">
+    <row r="64" spans="7:7">
+      <c r="G64">
         <v>3865</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65">
+    <row r="65" spans="7:7">
+      <c r="G65">
         <v>1870</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9080,7 +9294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5620" yWindow="1380" windowWidth="25600" windowHeight="19020" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="5625" yWindow="1380" windowWidth="24240" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TR SYNCH=3" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="AU SYCNH=3" sheetId="3" r:id="rId3"/>
     <sheet name="AU SYNCH=1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -217,6 +217,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -544,20 +549,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1025"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="11" max="11" width="14.1640625" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="14" max="14" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -589,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5497</v>
       </c>
@@ -626,7 +631,7 @@
         <v>6715.6416015625</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5552</v>
       </c>
@@ -643,7 +648,7 @@
         <v>7282</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5444</v>
       </c>
@@ -675,7 +680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5533</v>
       </c>
@@ -707,7 +712,7 @@
         <v>18.2012</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5534</v>
       </c>
@@ -724,7 +729,7 @@
         <v>6882</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5515</v>
       </c>
@@ -741,7 +746,7 @@
         <v>6717</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5557</v>
       </c>
@@ -758,7 +763,7 @@
         <v>7595</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5564</v>
       </c>
@@ -775,7 +780,7 @@
         <v>6080</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5520</v>
       </c>
@@ -792,7 +797,7 @@
         <v>6904</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5503</v>
       </c>
@@ -809,7 +814,7 @@
         <v>6678</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5514</v>
       </c>
@@ -826,7 +831,7 @@
         <v>6685</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5520</v>
       </c>
@@ -843,7 +848,7 @@
         <v>7141</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5490</v>
       </c>
@@ -860,7 +865,7 @@
         <v>5723</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5576</v>
       </c>
@@ -877,7 +882,7 @@
         <v>6614</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5506</v>
       </c>
@@ -894,7 +899,7 @@
         <v>6603</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5555</v>
       </c>
@@ -911,7 +916,7 @@
         <v>6364</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5402</v>
       </c>
@@ -928,7 +933,7 @@
         <v>6111</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5560</v>
       </c>
@@ -945,7 +950,7 @@
         <v>6517</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5592</v>
       </c>
@@ -962,7 +967,7 @@
         <v>6558</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5527</v>
       </c>
@@ -979,7 +984,7 @@
         <v>6596</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5597</v>
       </c>
@@ -996,7 +1001,7 @@
         <v>6976</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5578</v>
       </c>
@@ -1013,7 +1018,7 @@
         <v>6265</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5529</v>
       </c>
@@ -1030,7 +1035,7 @@
         <v>6919</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5553</v>
       </c>
@@ -1047,7 +1052,7 @@
         <v>6470</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5547</v>
       </c>
@@ -1064,7 +1069,7 @@
         <v>6734</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5565</v>
       </c>
@@ -1081,7 +1086,7 @@
         <v>6930</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5460</v>
       </c>
@@ -1098,7 +1103,7 @@
         <v>7162</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5581</v>
       </c>
@@ -1115,7 +1120,7 @@
         <v>6386</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5427</v>
       </c>
@@ -1132,7 +1137,7 @@
         <v>6881</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5512</v>
       </c>
@@ -1149,7 +1154,7 @@
         <v>6324</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5447</v>
       </c>
@@ -1166,7 +1171,7 @@
         <v>6130</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5482</v>
       </c>
@@ -1183,7 +1188,7 @@
         <v>6576</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5569</v>
       </c>
@@ -1200,7 +1205,7 @@
         <v>7433</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5574</v>
       </c>
@@ -1217,7 +1222,7 @@
         <v>5915</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5497</v>
       </c>
@@ -1234,7 +1239,7 @@
         <v>6761</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5562</v>
       </c>
@@ -1251,7 +1256,7 @@
         <v>7369</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5569</v>
       </c>
@@ -1268,7 +1273,7 @@
         <v>6876</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5449</v>
       </c>
@@ -1285,7 +1290,7 @@
         <v>6894</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5664</v>
       </c>
@@ -1302,7 +1307,7 @@
         <v>6761</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5571</v>
       </c>
@@ -1319,7 +1324,7 @@
         <v>6913</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5536</v>
       </c>
@@ -1336,7 +1341,7 @@
         <v>6673</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5525</v>
       </c>
@@ -1353,7 +1358,7 @@
         <v>6793</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5629</v>
       </c>
@@ -1370,7 +1375,7 @@
         <v>5719</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5580</v>
       </c>
@@ -1387,7 +1392,7 @@
         <v>6452</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5581</v>
       </c>
@@ -1404,7 +1409,7 @@
         <v>7096</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5518</v>
       </c>
@@ -1421,7 +1426,7 @@
         <v>6599</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5530</v>
       </c>
@@ -1438,7 +1443,7 @@
         <v>6711</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5563</v>
       </c>
@@ -1455,7 +1460,7 @@
         <v>6781</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5602</v>
       </c>
@@ -1472,7 +1477,7 @@
         <v>7314</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5416</v>
       </c>
@@ -1489,7 +1494,7 @@
         <v>6760</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5497</v>
       </c>
@@ -1506,7 +1511,7 @@
         <v>6749</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5496</v>
       </c>
@@ -1523,7 +1528,7 @@
         <v>6490</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5608</v>
       </c>
@@ -1540,7 +1545,7 @@
         <v>6654</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5554</v>
       </c>
@@ -1557,7 +1562,7 @@
         <v>6896</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5546</v>
       </c>
@@ -1574,7 +1579,7 @@
         <v>7302</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5428</v>
       </c>
@@ -1591,7 +1596,7 @@
         <v>6681</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5594</v>
       </c>
@@ -1608,7 +1613,7 @@
         <v>7056</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5609</v>
       </c>
@@ -1625,7 +1630,7 @@
         <v>6565</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5505</v>
       </c>
@@ -1642,7 +1647,7 @@
         <v>6573</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5475</v>
       </c>
@@ -1659,7 +1664,7 @@
         <v>6302</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5551</v>
       </c>
@@ -1676,7 +1681,7 @@
         <v>6410</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5643</v>
       </c>
@@ -1693,7 +1698,7 @@
         <v>6449</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5466</v>
       </c>
@@ -1710,7 +1715,7 @@
         <v>6716</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>5502</v>
       </c>
@@ -1727,7 +1732,7 @@
         <v>6823</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D66">
         <v>5609</v>
       </c>
@@ -1741,7 +1746,7 @@
         <v>6577</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D67">
         <v>5473</v>
       </c>
@@ -1755,7 +1760,7 @@
         <v>6844</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D68">
         <v>5506</v>
       </c>
@@ -1769,7 +1774,7 @@
         <v>6974</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D69">
         <v>5604</v>
       </c>
@@ -1783,7 +1788,7 @@
         <v>6727</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D70">
         <v>5565</v>
       </c>
@@ -1797,7 +1802,7 @@
         <v>7504</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D71">
         <v>5710</v>
       </c>
@@ -1811,7 +1816,7 @@
         <v>6884</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D72">
         <v>5552</v>
       </c>
@@ -1825,7 +1830,7 @@
         <v>6388</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D73">
         <v>5537</v>
       </c>
@@ -1839,7 +1844,7 @@
         <v>5887</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D74">
         <v>5596</v>
       </c>
@@ -1853,7 +1858,7 @@
         <v>6850</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D75">
         <v>5582</v>
       </c>
@@ -1867,7 +1872,7 @@
         <v>6325</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D76">
         <v>5484</v>
       </c>
@@ -1881,7 +1886,7 @@
         <v>6553</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D77">
         <v>5578</v>
       </c>
@@ -1895,7 +1900,7 @@
         <v>7083</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D78">
         <v>5576</v>
       </c>
@@ -1909,7 +1914,7 @@
         <v>5931</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D79">
         <v>5658</v>
       </c>
@@ -1923,7 +1928,7 @@
         <v>6574</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D80">
         <v>5510</v>
       </c>
@@ -1937,7 +1942,7 @@
         <v>6737</v>
       </c>
     </row>
-    <row r="81" spans="4:13">
+    <row r="81" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D81">
         <v>5486</v>
       </c>
@@ -1951,7 +1956,7 @@
         <v>7371</v>
       </c>
     </row>
-    <row r="82" spans="4:13">
+    <row r="82" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D82">
         <v>5623</v>
       </c>
@@ -1965,7 +1970,7 @@
         <v>6879</v>
       </c>
     </row>
-    <row r="83" spans="4:13">
+    <row r="83" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D83">
         <v>5468</v>
       </c>
@@ -1979,7 +1984,7 @@
         <v>6185</v>
       </c>
     </row>
-    <row r="84" spans="4:13">
+    <row r="84" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D84">
         <v>5511</v>
       </c>
@@ -1993,7 +1998,7 @@
         <v>7384</v>
       </c>
     </row>
-    <row r="85" spans="4:13">
+    <row r="85" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D85">
         <v>5592</v>
       </c>
@@ -2007,7 +2012,7 @@
         <v>6705</v>
       </c>
     </row>
-    <row r="86" spans="4:13">
+    <row r="86" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D86">
         <v>5626</v>
       </c>
@@ -2021,7 +2026,7 @@
         <v>6602</v>
       </c>
     </row>
-    <row r="87" spans="4:13">
+    <row r="87" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D87">
         <v>5624</v>
       </c>
@@ -2035,7 +2040,7 @@
         <v>7107</v>
       </c>
     </row>
-    <row r="88" spans="4:13">
+    <row r="88" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D88">
         <v>5506</v>
       </c>
@@ -2049,7 +2054,7 @@
         <v>6883</v>
       </c>
     </row>
-    <row r="89" spans="4:13">
+    <row r="89" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D89">
         <v>5520</v>
       </c>
@@ -2063,7 +2068,7 @@
         <v>7749</v>
       </c>
     </row>
-    <row r="90" spans="4:13">
+    <row r="90" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D90">
         <v>5526</v>
       </c>
@@ -2077,7 +2082,7 @@
         <v>6295</v>
       </c>
     </row>
-    <row r="91" spans="4:13">
+    <row r="91" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D91">
         <v>5433</v>
       </c>
@@ -2091,7 +2096,7 @@
         <v>6343</v>
       </c>
     </row>
-    <row r="92" spans="4:13">
+    <row r="92" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D92">
         <v>5566</v>
       </c>
@@ -2105,7 +2110,7 @@
         <v>6915</v>
       </c>
     </row>
-    <row r="93" spans="4:13">
+    <row r="93" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D93">
         <v>5520</v>
       </c>
@@ -2119,7 +2124,7 @@
         <v>7172</v>
       </c>
     </row>
-    <row r="94" spans="4:13">
+    <row r="94" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D94">
         <v>5443</v>
       </c>
@@ -2133,7 +2138,7 @@
         <v>6876</v>
       </c>
     </row>
-    <row r="95" spans="4:13">
+    <row r="95" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D95">
         <v>5522</v>
       </c>
@@ -2147,7 +2152,7 @@
         <v>7568</v>
       </c>
     </row>
-    <row r="96" spans="4:13">
+    <row r="96" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D96">
         <v>5492</v>
       </c>
@@ -2161,7 +2166,7 @@
         <v>6440</v>
       </c>
     </row>
-    <row r="97" spans="4:13">
+    <row r="97" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D97">
         <v>5522</v>
       </c>
@@ -2175,7 +2180,7 @@
         <v>6997</v>
       </c>
     </row>
-    <row r="98" spans="4:13">
+    <row r="98" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D98">
         <v>5595</v>
       </c>
@@ -2189,7 +2194,7 @@
         <v>6577</v>
       </c>
     </row>
-    <row r="99" spans="4:13">
+    <row r="99" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D99">
         <v>5670</v>
       </c>
@@ -2203,7 +2208,7 @@
         <v>6122</v>
       </c>
     </row>
-    <row r="100" spans="4:13">
+    <row r="100" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D100">
         <v>5587</v>
       </c>
@@ -2217,7 +2222,7 @@
         <v>7035</v>
       </c>
     </row>
-    <row r="101" spans="4:13">
+    <row r="101" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D101">
         <v>5601</v>
       </c>
@@ -2231,7 +2236,7 @@
         <v>6496</v>
       </c>
     </row>
-    <row r="102" spans="4:13">
+    <row r="102" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D102">
         <v>5327</v>
       </c>
@@ -2245,7 +2250,7 @@
         <v>6690</v>
       </c>
     </row>
-    <row r="103" spans="4:13">
+    <row r="103" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D103">
         <v>5653</v>
       </c>
@@ -2259,7 +2264,7 @@
         <v>6751</v>
       </c>
     </row>
-    <row r="104" spans="4:13">
+    <row r="104" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D104">
         <v>5692</v>
       </c>
@@ -2273,7 +2278,7 @@
         <v>6705</v>
       </c>
     </row>
-    <row r="105" spans="4:13">
+    <row r="105" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D105">
         <v>5625</v>
       </c>
@@ -2287,7 +2292,7 @@
         <v>6435</v>
       </c>
     </row>
-    <row r="106" spans="4:13">
+    <row r="106" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D106">
         <v>5613</v>
       </c>
@@ -2301,7 +2306,7 @@
         <v>6936</v>
       </c>
     </row>
-    <row r="107" spans="4:13">
+    <row r="107" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D107">
         <v>5538</v>
       </c>
@@ -2315,7 +2320,7 @@
         <v>6790</v>
       </c>
     </row>
-    <row r="108" spans="4:13">
+    <row r="108" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D108">
         <v>5586</v>
       </c>
@@ -2329,7 +2334,7 @@
         <v>7273</v>
       </c>
     </row>
-    <row r="109" spans="4:13">
+    <row r="109" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D109">
         <v>5462</v>
       </c>
@@ -2343,7 +2348,7 @@
         <v>6381</v>
       </c>
     </row>
-    <row r="110" spans="4:13">
+    <row r="110" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D110">
         <v>5553</v>
       </c>
@@ -2357,7 +2362,7 @@
         <v>6324</v>
       </c>
     </row>
-    <row r="111" spans="4:13">
+    <row r="111" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D111">
         <v>5423</v>
       </c>
@@ -2371,7 +2376,7 @@
         <v>6571</v>
       </c>
     </row>
-    <row r="112" spans="4:13">
+    <row r="112" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D112">
         <v>5592</v>
       </c>
@@ -2385,7 +2390,7 @@
         <v>7063</v>
       </c>
     </row>
-    <row r="113" spans="4:13">
+    <row r="113" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D113">
         <v>5561</v>
       </c>
@@ -2399,7 +2404,7 @@
         <v>6994</v>
       </c>
     </row>
-    <row r="114" spans="4:13">
+    <row r="114" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D114">
         <v>5596</v>
       </c>
@@ -2413,7 +2418,7 @@
         <v>6594</v>
       </c>
     </row>
-    <row r="115" spans="4:13">
+    <row r="115" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D115">
         <v>5454</v>
       </c>
@@ -2427,7 +2432,7 @@
         <v>7157</v>
       </c>
     </row>
-    <row r="116" spans="4:13">
+    <row r="116" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D116">
         <v>5653</v>
       </c>
@@ -2441,7 +2446,7 @@
         <v>6864</v>
       </c>
     </row>
-    <row r="117" spans="4:13">
+    <row r="117" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D117">
         <v>5466</v>
       </c>
@@ -2455,7 +2460,7 @@
         <v>6685</v>
       </c>
     </row>
-    <row r="118" spans="4:13">
+    <row r="118" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D118">
         <v>5551</v>
       </c>
@@ -2469,7 +2474,7 @@
         <v>6487</v>
       </c>
     </row>
-    <row r="119" spans="4:13">
+    <row r="119" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D119">
         <v>5631</v>
       </c>
@@ -2483,7 +2488,7 @@
         <v>6873</v>
       </c>
     </row>
-    <row r="120" spans="4:13">
+    <row r="120" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D120">
         <v>5611</v>
       </c>
@@ -2497,7 +2502,7 @@
         <v>6153</v>
       </c>
     </row>
-    <row r="121" spans="4:13">
+    <row r="121" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D121">
         <v>5512</v>
       </c>
@@ -2511,7 +2516,7 @@
         <v>7356</v>
       </c>
     </row>
-    <row r="122" spans="4:13">
+    <row r="122" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D122">
         <v>5386</v>
       </c>
@@ -2525,7 +2530,7 @@
         <v>6943</v>
       </c>
     </row>
-    <row r="123" spans="4:13">
+    <row r="123" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D123">
         <v>5655</v>
       </c>
@@ -2539,7 +2544,7 @@
         <v>7666</v>
       </c>
     </row>
-    <row r="124" spans="4:13">
+    <row r="124" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D124">
         <v>5507</v>
       </c>
@@ -2553,7 +2558,7 @@
         <v>6492</v>
       </c>
     </row>
-    <row r="125" spans="4:13">
+    <row r="125" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D125">
         <v>5386</v>
       </c>
@@ -2567,7 +2572,7 @@
         <v>6794</v>
       </c>
     </row>
-    <row r="126" spans="4:13">
+    <row r="126" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D126">
         <v>5533</v>
       </c>
@@ -2581,7 +2586,7 @@
         <v>7040</v>
       </c>
     </row>
-    <row r="127" spans="4:13">
+    <row r="127" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D127">
         <v>5526</v>
       </c>
@@ -2595,7 +2600,7 @@
         <v>6944</v>
       </c>
     </row>
-    <row r="128" spans="4:13">
+    <row r="128" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D128">
         <v>5555</v>
       </c>
@@ -2609,7 +2614,7 @@
         <v>6683</v>
       </c>
     </row>
-    <row r="129" spans="4:13">
+    <row r="129" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D129">
         <v>5493</v>
       </c>
@@ -2623,7 +2628,7 @@
         <v>7373</v>
       </c>
     </row>
-    <row r="130" spans="4:13">
+    <row r="130" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G130">
         <v>5584</v>
       </c>
@@ -2634,7 +2639,7 @@
         <v>6443</v>
       </c>
     </row>
-    <row r="131" spans="4:13">
+    <row r="131" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G131">
         <v>5609</v>
       </c>
@@ -2645,7 +2650,7 @@
         <v>6535</v>
       </c>
     </row>
-    <row r="132" spans="4:13">
+    <row r="132" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G132">
         <v>5645</v>
       </c>
@@ -2656,7 +2661,7 @@
         <v>6857</v>
       </c>
     </row>
-    <row r="133" spans="4:13">
+    <row r="133" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G133">
         <v>5643</v>
       </c>
@@ -2667,7 +2672,7 @@
         <v>6995</v>
       </c>
     </row>
-    <row r="134" spans="4:13">
+    <row r="134" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G134">
         <v>5504</v>
       </c>
@@ -2678,7 +2683,7 @@
         <v>6306</v>
       </c>
     </row>
-    <row r="135" spans="4:13">
+    <row r="135" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G135">
         <v>5702</v>
       </c>
@@ -2689,7 +2694,7 @@
         <v>6747</v>
       </c>
     </row>
-    <row r="136" spans="4:13">
+    <row r="136" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G136">
         <v>5507</v>
       </c>
@@ -2700,7 +2705,7 @@
         <v>6798</v>
       </c>
     </row>
-    <row r="137" spans="4:13">
+    <row r="137" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G137">
         <v>5602</v>
       </c>
@@ -2711,7 +2716,7 @@
         <v>6572</v>
       </c>
     </row>
-    <row r="138" spans="4:13">
+    <row r="138" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G138">
         <v>5468</v>
       </c>
@@ -2722,7 +2727,7 @@
         <v>6344</v>
       </c>
     </row>
-    <row r="139" spans="4:13">
+    <row r="139" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G139">
         <v>5671</v>
       </c>
@@ -2733,7 +2738,7 @@
         <v>7118</v>
       </c>
     </row>
-    <row r="140" spans="4:13">
+    <row r="140" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G140">
         <v>5468</v>
       </c>
@@ -2744,7 +2749,7 @@
         <v>6866</v>
       </c>
     </row>
-    <row r="141" spans="4:13">
+    <row r="141" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G141">
         <v>5549</v>
       </c>
@@ -2755,7 +2760,7 @@
         <v>6521</v>
       </c>
     </row>
-    <row r="142" spans="4:13">
+    <row r="142" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G142">
         <v>5509</v>
       </c>
@@ -2766,7 +2771,7 @@
         <v>6373</v>
       </c>
     </row>
-    <row r="143" spans="4:13">
+    <row r="143" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G143">
         <v>5510</v>
       </c>
@@ -2777,7 +2782,7 @@
         <v>7251</v>
       </c>
     </row>
-    <row r="144" spans="4:13">
+    <row r="144" spans="4:13" x14ac:dyDescent="0.25">
       <c r="G144">
         <v>5740</v>
       </c>
@@ -2788,7 +2793,7 @@
         <v>6058</v>
       </c>
     </row>
-    <row r="145" spans="7:13">
+    <row r="145" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G145">
         <v>5397</v>
       </c>
@@ -2799,7 +2804,7 @@
         <v>6578</v>
       </c>
     </row>
-    <row r="146" spans="7:13">
+    <row r="146" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G146">
         <v>5579</v>
       </c>
@@ -2810,7 +2815,7 @@
         <v>6139</v>
       </c>
     </row>
-    <row r="147" spans="7:13">
+    <row r="147" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G147">
         <v>5618</v>
       </c>
@@ -2821,7 +2826,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="148" spans="7:13">
+    <row r="148" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G148">
         <v>5549</v>
       </c>
@@ -2832,7 +2837,7 @@
         <v>6383</v>
       </c>
     </row>
-    <row r="149" spans="7:13">
+    <row r="149" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G149">
         <v>5355</v>
       </c>
@@ -2843,7 +2848,7 @@
         <v>6646</v>
       </c>
     </row>
-    <row r="150" spans="7:13">
+    <row r="150" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G150">
         <v>5505</v>
       </c>
@@ -2854,7 +2859,7 @@
         <v>6823</v>
       </c>
     </row>
-    <row r="151" spans="7:13">
+    <row r="151" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G151">
         <v>5346</v>
       </c>
@@ -2865,7 +2870,7 @@
         <v>6685</v>
       </c>
     </row>
-    <row r="152" spans="7:13">
+    <row r="152" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G152">
         <v>5254</v>
       </c>
@@ -2876,7 +2881,7 @@
         <v>6425</v>
       </c>
     </row>
-    <row r="153" spans="7:13">
+    <row r="153" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G153">
         <v>5540</v>
       </c>
@@ -2887,7 +2892,7 @@
         <v>6614</v>
       </c>
     </row>
-    <row r="154" spans="7:13">
+    <row r="154" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G154">
         <v>5425</v>
       </c>
@@ -2898,7 +2903,7 @@
         <v>6336</v>
       </c>
     </row>
-    <row r="155" spans="7:13">
+    <row r="155" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G155">
         <v>5694</v>
       </c>
@@ -2909,7 +2914,7 @@
         <v>6648</v>
       </c>
     </row>
-    <row r="156" spans="7:13">
+    <row r="156" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G156">
         <v>5608</v>
       </c>
@@ -2920,7 +2925,7 @@
         <v>6649</v>
       </c>
     </row>
-    <row r="157" spans="7:13">
+    <row r="157" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G157">
         <v>5723</v>
       </c>
@@ -2931,7 +2936,7 @@
         <v>6440</v>
       </c>
     </row>
-    <row r="158" spans="7:13">
+    <row r="158" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G158">
         <v>5304</v>
       </c>
@@ -2942,7 +2947,7 @@
         <v>6393</v>
       </c>
     </row>
-    <row r="159" spans="7:13">
+    <row r="159" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G159">
         <v>5498</v>
       </c>
@@ -2953,7 +2958,7 @@
         <v>5764</v>
       </c>
     </row>
-    <row r="160" spans="7:13">
+    <row r="160" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G160">
         <v>5441</v>
       </c>
@@ -2964,7 +2969,7 @@
         <v>6799</v>
       </c>
     </row>
-    <row r="161" spans="7:13">
+    <row r="161" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G161">
         <v>5528</v>
       </c>
@@ -2975,7 +2980,7 @@
         <v>6422</v>
       </c>
     </row>
-    <row r="162" spans="7:13">
+    <row r="162" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G162">
         <v>5633</v>
       </c>
@@ -2986,7 +2991,7 @@
         <v>6141</v>
       </c>
     </row>
-    <row r="163" spans="7:13">
+    <row r="163" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G163">
         <v>5607</v>
       </c>
@@ -2997,7 +3002,7 @@
         <v>6164</v>
       </c>
     </row>
-    <row r="164" spans="7:13">
+    <row r="164" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G164">
         <v>5519</v>
       </c>
@@ -3008,7 +3013,7 @@
         <v>5801</v>
       </c>
     </row>
-    <row r="165" spans="7:13">
+    <row r="165" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G165">
         <v>5670</v>
       </c>
@@ -3019,7 +3024,7 @@
         <v>6892</v>
       </c>
     </row>
-    <row r="166" spans="7:13">
+    <row r="166" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G166">
         <v>5625</v>
       </c>
@@ -3030,7 +3035,7 @@
         <v>6508</v>
       </c>
     </row>
-    <row r="167" spans="7:13">
+    <row r="167" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G167">
         <v>5663</v>
       </c>
@@ -3041,7 +3046,7 @@
         <v>6752</v>
       </c>
     </row>
-    <row r="168" spans="7:13">
+    <row r="168" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G168">
         <v>5583</v>
       </c>
@@ -3052,7 +3057,7 @@
         <v>6953</v>
       </c>
     </row>
-    <row r="169" spans="7:13">
+    <row r="169" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G169">
         <v>5464</v>
       </c>
@@ -3063,7 +3068,7 @@
         <v>7196</v>
       </c>
     </row>
-    <row r="170" spans="7:13">
+    <row r="170" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G170">
         <v>5433</v>
       </c>
@@ -3074,7 +3079,7 @@
         <v>6776</v>
       </c>
     </row>
-    <row r="171" spans="7:13">
+    <row r="171" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G171">
         <v>5469</v>
       </c>
@@ -3085,7 +3090,7 @@
         <v>6693</v>
       </c>
     </row>
-    <row r="172" spans="7:13">
+    <row r="172" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G172">
         <v>5421</v>
       </c>
@@ -3096,7 +3101,7 @@
         <v>6451</v>
       </c>
     </row>
-    <row r="173" spans="7:13">
+    <row r="173" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G173">
         <v>5609</v>
       </c>
@@ -3107,7 +3112,7 @@
         <v>7456</v>
       </c>
     </row>
-    <row r="174" spans="7:13">
+    <row r="174" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G174">
         <v>5681</v>
       </c>
@@ -3118,7 +3123,7 @@
         <v>7316</v>
       </c>
     </row>
-    <row r="175" spans="7:13">
+    <row r="175" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G175">
         <v>5396</v>
       </c>
@@ -3129,7 +3134,7 @@
         <v>6078</v>
       </c>
     </row>
-    <row r="176" spans="7:13">
+    <row r="176" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G176">
         <v>5529</v>
       </c>
@@ -3140,7 +3145,7 @@
         <v>7006</v>
       </c>
     </row>
-    <row r="177" spans="7:13">
+    <row r="177" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G177">
         <v>5487</v>
       </c>
@@ -3151,7 +3156,7 @@
         <v>6623</v>
       </c>
     </row>
-    <row r="178" spans="7:13">
+    <row r="178" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G178">
         <v>5672</v>
       </c>
@@ -3162,7 +3167,7 @@
         <v>6596</v>
       </c>
     </row>
-    <row r="179" spans="7:13">
+    <row r="179" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G179">
         <v>5477</v>
       </c>
@@ -3173,7 +3178,7 @@
         <v>6049</v>
       </c>
     </row>
-    <row r="180" spans="7:13">
+    <row r="180" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G180">
         <v>5543</v>
       </c>
@@ -3184,7 +3189,7 @@
         <v>6090</v>
       </c>
     </row>
-    <row r="181" spans="7:13">
+    <row r="181" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G181">
         <v>5619</v>
       </c>
@@ -3195,7 +3200,7 @@
         <v>6510</v>
       </c>
     </row>
-    <row r="182" spans="7:13">
+    <row r="182" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G182">
         <v>5727</v>
       </c>
@@ -3206,7 +3211,7 @@
         <v>5950</v>
       </c>
     </row>
-    <row r="183" spans="7:13">
+    <row r="183" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G183">
         <v>5647</v>
       </c>
@@ -3217,7 +3222,7 @@
         <v>6298</v>
       </c>
     </row>
-    <row r="184" spans="7:13">
+    <row r="184" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G184">
         <v>5538</v>
       </c>
@@ -3228,7 +3233,7 @@
         <v>6691</v>
       </c>
     </row>
-    <row r="185" spans="7:13">
+    <row r="185" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G185">
         <v>5418</v>
       </c>
@@ -3239,7 +3244,7 @@
         <v>7175</v>
       </c>
     </row>
-    <row r="186" spans="7:13">
+    <row r="186" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G186">
         <v>5539</v>
       </c>
@@ -3250,7 +3255,7 @@
         <v>6720</v>
       </c>
     </row>
-    <row r="187" spans="7:13">
+    <row r="187" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G187">
         <v>5646</v>
       </c>
@@ -3261,7 +3266,7 @@
         <v>6970</v>
       </c>
     </row>
-    <row r="188" spans="7:13">
+    <row r="188" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G188">
         <v>5584</v>
       </c>
@@ -3272,7 +3277,7 @@
         <v>6479</v>
       </c>
     </row>
-    <row r="189" spans="7:13">
+    <row r="189" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G189">
         <v>5889</v>
       </c>
@@ -3283,7 +3288,7 @@
         <v>6578</v>
       </c>
     </row>
-    <row r="190" spans="7:13">
+    <row r="190" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G190">
         <v>5313</v>
       </c>
@@ -3294,7 +3299,7 @@
         <v>6329</v>
       </c>
     </row>
-    <row r="191" spans="7:13">
+    <row r="191" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G191">
         <v>5483</v>
       </c>
@@ -3305,7 +3310,7 @@
         <v>6624</v>
       </c>
     </row>
-    <row r="192" spans="7:13">
+    <row r="192" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G192">
         <v>5512</v>
       </c>
@@ -3316,7 +3321,7 @@
         <v>6561</v>
       </c>
     </row>
-    <row r="193" spans="7:13">
+    <row r="193" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G193">
         <v>5449</v>
       </c>
@@ -3327,7 +3332,7 @@
         <v>7498</v>
       </c>
     </row>
-    <row r="194" spans="7:13">
+    <row r="194" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G194">
         <v>5342</v>
       </c>
@@ -3338,7 +3343,7 @@
         <v>7266</v>
       </c>
     </row>
-    <row r="195" spans="7:13">
+    <row r="195" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G195">
         <v>5369</v>
       </c>
@@ -3349,7 +3354,7 @@
         <v>7211</v>
       </c>
     </row>
-    <row r="196" spans="7:13">
+    <row r="196" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G196">
         <v>5555</v>
       </c>
@@ -3360,7 +3365,7 @@
         <v>5872</v>
       </c>
     </row>
-    <row r="197" spans="7:13">
+    <row r="197" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G197">
         <v>5508</v>
       </c>
@@ -3371,7 +3376,7 @@
         <v>7239</v>
       </c>
     </row>
-    <row r="198" spans="7:13">
+    <row r="198" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G198">
         <v>5560</v>
       </c>
@@ -3382,7 +3387,7 @@
         <v>7180</v>
       </c>
     </row>
-    <row r="199" spans="7:13">
+    <row r="199" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G199">
         <v>5679</v>
       </c>
@@ -3393,7 +3398,7 @@
         <v>5997</v>
       </c>
     </row>
-    <row r="200" spans="7:13">
+    <row r="200" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G200">
         <v>5428</v>
       </c>
@@ -3404,7 +3409,7 @@
         <v>6539</v>
       </c>
     </row>
-    <row r="201" spans="7:13">
+    <row r="201" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G201">
         <v>5293</v>
       </c>
@@ -3415,7 +3420,7 @@
         <v>6745</v>
       </c>
     </row>
-    <row r="202" spans="7:13">
+    <row r="202" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G202">
         <v>5322</v>
       </c>
@@ -3426,7 +3431,7 @@
         <v>7050</v>
       </c>
     </row>
-    <row r="203" spans="7:13">
+    <row r="203" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G203">
         <v>5364</v>
       </c>
@@ -3437,7 +3442,7 @@
         <v>6584</v>
       </c>
     </row>
-    <row r="204" spans="7:13">
+    <row r="204" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G204">
         <v>5554</v>
       </c>
@@ -3448,7 +3453,7 @@
         <v>6358</v>
       </c>
     </row>
-    <row r="205" spans="7:13">
+    <row r="205" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G205">
         <v>5549</v>
       </c>
@@ -3459,7 +3464,7 @@
         <v>7701</v>
       </c>
     </row>
-    <row r="206" spans="7:13">
+    <row r="206" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G206">
         <v>5453</v>
       </c>
@@ -3470,7 +3475,7 @@
         <v>6209</v>
       </c>
     </row>
-    <row r="207" spans="7:13">
+    <row r="207" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G207">
         <v>5550</v>
       </c>
@@ -3481,7 +3486,7 @@
         <v>6931</v>
       </c>
     </row>
-    <row r="208" spans="7:13">
+    <row r="208" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G208">
         <v>5430</v>
       </c>
@@ -3492,7 +3497,7 @@
         <v>6483</v>
       </c>
     </row>
-    <row r="209" spans="7:13">
+    <row r="209" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G209">
         <v>5533</v>
       </c>
@@ -3503,7 +3508,7 @@
         <v>7329</v>
       </c>
     </row>
-    <row r="210" spans="7:13">
+    <row r="210" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G210">
         <v>5654</v>
       </c>
@@ -3514,7 +3519,7 @@
         <v>6932</v>
       </c>
     </row>
-    <row r="211" spans="7:13">
+    <row r="211" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G211">
         <v>5270</v>
       </c>
@@ -3525,7 +3530,7 @@
         <v>7566</v>
       </c>
     </row>
-    <row r="212" spans="7:13">
+    <row r="212" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G212">
         <v>5601</v>
       </c>
@@ -3536,7 +3541,7 @@
         <v>7491</v>
       </c>
     </row>
-    <row r="213" spans="7:13">
+    <row r="213" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G213">
         <v>5607</v>
       </c>
@@ -3547,7 +3552,7 @@
         <v>6695</v>
       </c>
     </row>
-    <row r="214" spans="7:13">
+    <row r="214" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G214">
         <v>5441</v>
       </c>
@@ -3558,7 +3563,7 @@
         <v>6469</v>
       </c>
     </row>
-    <row r="215" spans="7:13">
+    <row r="215" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G215">
         <v>5606</v>
       </c>
@@ -3569,7 +3574,7 @@
         <v>6518</v>
       </c>
     </row>
-    <row r="216" spans="7:13">
+    <row r="216" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G216">
         <v>5520</v>
       </c>
@@ -3580,7 +3585,7 @@
         <v>6842</v>
       </c>
     </row>
-    <row r="217" spans="7:13">
+    <row r="217" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G217">
         <v>5604</v>
       </c>
@@ -3591,7 +3596,7 @@
         <v>6693</v>
       </c>
     </row>
-    <row r="218" spans="7:13">
+    <row r="218" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G218">
         <v>5466</v>
       </c>
@@ -3602,7 +3607,7 @@
         <v>7001</v>
       </c>
     </row>
-    <row r="219" spans="7:13">
+    <row r="219" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G219">
         <v>5662</v>
       </c>
@@ -3613,7 +3618,7 @@
         <v>7491</v>
       </c>
     </row>
-    <row r="220" spans="7:13">
+    <row r="220" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G220">
         <v>5524</v>
       </c>
@@ -3624,7 +3629,7 @@
         <v>6663</v>
       </c>
     </row>
-    <row r="221" spans="7:13">
+    <row r="221" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G221">
         <v>5438</v>
       </c>
@@ -3635,7 +3640,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="222" spans="7:13">
+    <row r="222" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G222">
         <v>5495</v>
       </c>
@@ -3646,7 +3651,7 @@
         <v>6685</v>
       </c>
     </row>
-    <row r="223" spans="7:13">
+    <row r="223" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G223">
         <v>5709</v>
       </c>
@@ -3657,7 +3662,7 @@
         <v>6398</v>
       </c>
     </row>
-    <row r="224" spans="7:13">
+    <row r="224" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G224">
         <v>5416</v>
       </c>
@@ -3668,7 +3673,7 @@
         <v>6740</v>
       </c>
     </row>
-    <row r="225" spans="7:13">
+    <row r="225" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G225">
         <v>5591</v>
       </c>
@@ -3679,7 +3684,7 @@
         <v>6868</v>
       </c>
     </row>
-    <row r="226" spans="7:13">
+    <row r="226" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G226">
         <v>5663</v>
       </c>
@@ -3690,7 +3695,7 @@
         <v>7289</v>
       </c>
     </row>
-    <row r="227" spans="7:13">
+    <row r="227" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G227">
         <v>5560</v>
       </c>
@@ -3701,7 +3706,7 @@
         <v>6755</v>
       </c>
     </row>
-    <row r="228" spans="7:13">
+    <row r="228" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G228">
         <v>5582</v>
       </c>
@@ -3712,7 +3717,7 @@
         <v>6510</v>
       </c>
     </row>
-    <row r="229" spans="7:13">
+    <row r="229" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G229">
         <v>5677</v>
       </c>
@@ -3723,7 +3728,7 @@
         <v>6597</v>
       </c>
     </row>
-    <row r="230" spans="7:13">
+    <row r="230" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G230">
         <v>5390</v>
       </c>
@@ -3734,7 +3739,7 @@
         <v>6808</v>
       </c>
     </row>
-    <row r="231" spans="7:13">
+    <row r="231" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G231">
         <v>5459</v>
       </c>
@@ -3745,7 +3750,7 @@
         <v>6998</v>
       </c>
     </row>
-    <row r="232" spans="7:13">
+    <row r="232" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G232">
         <v>5482</v>
       </c>
@@ -3756,7 +3761,7 @@
         <v>6471</v>
       </c>
     </row>
-    <row r="233" spans="7:13">
+    <row r="233" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G233">
         <v>5521</v>
       </c>
@@ -3767,7 +3772,7 @@
         <v>6898</v>
       </c>
     </row>
-    <row r="234" spans="7:13">
+    <row r="234" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G234">
         <v>5577</v>
       </c>
@@ -3778,7 +3783,7 @@
         <v>7360</v>
       </c>
     </row>
-    <row r="235" spans="7:13">
+    <row r="235" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G235">
         <v>5451</v>
       </c>
@@ -3789,7 +3794,7 @@
         <v>6725</v>
       </c>
     </row>
-    <row r="236" spans="7:13">
+    <row r="236" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G236">
         <v>5621</v>
       </c>
@@ -3800,7 +3805,7 @@
         <v>6818</v>
       </c>
     </row>
-    <row r="237" spans="7:13">
+    <row r="237" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G237">
         <v>5613</v>
       </c>
@@ -3811,7 +3816,7 @@
         <v>6616</v>
       </c>
     </row>
-    <row r="238" spans="7:13">
+    <row r="238" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G238">
         <v>5442</v>
       </c>
@@ -3822,7 +3827,7 @@
         <v>6580</v>
       </c>
     </row>
-    <row r="239" spans="7:13">
+    <row r="239" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G239">
         <v>5544</v>
       </c>
@@ -3833,7 +3838,7 @@
         <v>7613</v>
       </c>
     </row>
-    <row r="240" spans="7:13">
+    <row r="240" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G240">
         <v>5292</v>
       </c>
@@ -3844,7 +3849,7 @@
         <v>6979</v>
       </c>
     </row>
-    <row r="241" spans="7:13">
+    <row r="241" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G241">
         <v>5557</v>
       </c>
@@ -3855,7 +3860,7 @@
         <v>7127</v>
       </c>
     </row>
-    <row r="242" spans="7:13">
+    <row r="242" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G242">
         <v>5539</v>
       </c>
@@ -3866,7 +3871,7 @@
         <v>6193</v>
       </c>
     </row>
-    <row r="243" spans="7:13">
+    <row r="243" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G243">
         <v>5686</v>
       </c>
@@ -3877,7 +3882,7 @@
         <v>6255</v>
       </c>
     </row>
-    <row r="244" spans="7:13">
+    <row r="244" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G244">
         <v>5644</v>
       </c>
@@ -3888,7 +3893,7 @@
         <v>6701</v>
       </c>
     </row>
-    <row r="245" spans="7:13">
+    <row r="245" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G245">
         <v>5399</v>
       </c>
@@ -3899,7 +3904,7 @@
         <v>6515</v>
       </c>
     </row>
-    <row r="246" spans="7:13">
+    <row r="246" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G246">
         <v>5391</v>
       </c>
@@ -3910,7 +3915,7 @@
         <v>6410</v>
       </c>
     </row>
-    <row r="247" spans="7:13">
+    <row r="247" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G247">
         <v>5674</v>
       </c>
@@ -3921,7 +3926,7 @@
         <v>7570</v>
       </c>
     </row>
-    <row r="248" spans="7:13">
+    <row r="248" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G248">
         <v>5402</v>
       </c>
@@ -3932,7 +3937,7 @@
         <v>6502</v>
       </c>
     </row>
-    <row r="249" spans="7:13">
+    <row r="249" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G249">
         <v>5537</v>
       </c>
@@ -3943,7 +3948,7 @@
         <v>6667</v>
       </c>
     </row>
-    <row r="250" spans="7:13">
+    <row r="250" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G250">
         <v>5624</v>
       </c>
@@ -3954,7 +3959,7 @@
         <v>7330</v>
       </c>
     </row>
-    <row r="251" spans="7:13">
+    <row r="251" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G251">
         <v>5545</v>
       </c>
@@ -3965,7 +3970,7 @@
         <v>7139</v>
       </c>
     </row>
-    <row r="252" spans="7:13">
+    <row r="252" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G252">
         <v>5454</v>
       </c>
@@ -3976,7 +3981,7 @@
         <v>6905</v>
       </c>
     </row>
-    <row r="253" spans="7:13">
+    <row r="253" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G253">
         <v>5786</v>
       </c>
@@ -3987,7 +3992,7 @@
         <v>6508</v>
       </c>
     </row>
-    <row r="254" spans="7:13">
+    <row r="254" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G254">
         <v>5483</v>
       </c>
@@ -3998,7 +4003,7 @@
         <v>7324</v>
       </c>
     </row>
-    <row r="255" spans="7:13">
+    <row r="255" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G255">
         <v>5651</v>
       </c>
@@ -4009,7 +4014,7 @@
         <v>6719</v>
       </c>
     </row>
-    <row r="256" spans="7:13">
+    <row r="256" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G256">
         <v>5584</v>
       </c>
@@ -4020,7 +4025,7 @@
         <v>6281</v>
       </c>
     </row>
-    <row r="257" spans="7:13">
+    <row r="257" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G257">
         <v>5652</v>
       </c>
@@ -4031,7 +4036,7 @@
         <v>7628</v>
       </c>
     </row>
-    <row r="258" spans="7:13">
+    <row r="258" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J258">
         <v>5404</v>
       </c>
@@ -4039,7 +4044,7 @@
         <v>6424</v>
       </c>
     </row>
-    <row r="259" spans="7:13">
+    <row r="259" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J259">
         <v>5512</v>
       </c>
@@ -4047,7 +4052,7 @@
         <v>7672</v>
       </c>
     </row>
-    <row r="260" spans="7:13">
+    <row r="260" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J260">
         <v>5499</v>
       </c>
@@ -4055,7 +4060,7 @@
         <v>6920</v>
       </c>
     </row>
-    <row r="261" spans="7:13">
+    <row r="261" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J261">
         <v>5542</v>
       </c>
@@ -4063,7 +4068,7 @@
         <v>6801</v>
       </c>
     </row>
-    <row r="262" spans="7:13">
+    <row r="262" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J262">
         <v>5831</v>
       </c>
@@ -4071,7 +4076,7 @@
         <v>6357</v>
       </c>
     </row>
-    <row r="263" spans="7:13">
+    <row r="263" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J263">
         <v>5417</v>
       </c>
@@ -4079,7 +4084,7 @@
         <v>6525</v>
       </c>
     </row>
-    <row r="264" spans="7:13">
+    <row r="264" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J264">
         <v>5581</v>
       </c>
@@ -4087,7 +4092,7 @@
         <v>6379</v>
       </c>
     </row>
-    <row r="265" spans="7:13">
+    <row r="265" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J265">
         <v>5599</v>
       </c>
@@ -4095,7 +4100,7 @@
         <v>6280</v>
       </c>
     </row>
-    <row r="266" spans="7:13">
+    <row r="266" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J266">
         <v>5812</v>
       </c>
@@ -4103,7 +4108,7 @@
         <v>6571</v>
       </c>
     </row>
-    <row r="267" spans="7:13">
+    <row r="267" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J267">
         <v>5676</v>
       </c>
@@ -4111,7 +4116,7 @@
         <v>7529</v>
       </c>
     </row>
-    <row r="268" spans="7:13">
+    <row r="268" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J268">
         <v>5508</v>
       </c>
@@ -4119,7 +4124,7 @@
         <v>6614</v>
       </c>
     </row>
-    <row r="269" spans="7:13">
+    <row r="269" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J269">
         <v>5644</v>
       </c>
@@ -4127,7 +4132,7 @@
         <v>6243</v>
       </c>
     </row>
-    <row r="270" spans="7:13">
+    <row r="270" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J270">
         <v>5391</v>
       </c>
@@ -4135,7 +4140,7 @@
         <v>6216</v>
       </c>
     </row>
-    <row r="271" spans="7:13">
+    <row r="271" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J271">
         <v>5504</v>
       </c>
@@ -4143,7 +4148,7 @@
         <v>6888</v>
       </c>
     </row>
-    <row r="272" spans="7:13">
+    <row r="272" spans="7:13" x14ac:dyDescent="0.25">
       <c r="J272">
         <v>5758</v>
       </c>
@@ -4151,7 +4156,7 @@
         <v>7208</v>
       </c>
     </row>
-    <row r="273" spans="10:13">
+    <row r="273" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J273">
         <v>5528</v>
       </c>
@@ -4159,7 +4164,7 @@
         <v>6695</v>
       </c>
     </row>
-    <row r="274" spans="10:13">
+    <row r="274" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J274">
         <v>5524</v>
       </c>
@@ -4167,7 +4172,7 @@
         <v>6443</v>
       </c>
     </row>
-    <row r="275" spans="10:13">
+    <row r="275" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J275">
         <v>5569</v>
       </c>
@@ -4175,7 +4180,7 @@
         <v>6993</v>
       </c>
     </row>
-    <row r="276" spans="10:13">
+    <row r="276" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J276">
         <v>5363</v>
       </c>
@@ -4183,7 +4188,7 @@
         <v>6349</v>
       </c>
     </row>
-    <row r="277" spans="10:13">
+    <row r="277" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J277">
         <v>5338</v>
       </c>
@@ -4191,7 +4196,7 @@
         <v>6389</v>
       </c>
     </row>
-    <row r="278" spans="10:13">
+    <row r="278" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J278">
         <v>5862</v>
       </c>
@@ -4199,7 +4204,7 @@
         <v>6684</v>
       </c>
     </row>
-    <row r="279" spans="10:13">
+    <row r="279" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J279">
         <v>5601</v>
       </c>
@@ -4207,7 +4212,7 @@
         <v>6702</v>
       </c>
     </row>
-    <row r="280" spans="10:13">
+    <row r="280" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J280">
         <v>5507</v>
       </c>
@@ -4215,7 +4220,7 @@
         <v>6451</v>
       </c>
     </row>
-    <row r="281" spans="10:13">
+    <row r="281" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J281">
         <v>5753</v>
       </c>
@@ -4223,7 +4228,7 @@
         <v>6519</v>
       </c>
     </row>
-    <row r="282" spans="10:13">
+    <row r="282" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J282">
         <v>5463</v>
       </c>
@@ -4231,7 +4236,7 @@
         <v>7471</v>
       </c>
     </row>
-    <row r="283" spans="10:13">
+    <row r="283" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J283">
         <v>5534</v>
       </c>
@@ -4239,7 +4244,7 @@
         <v>7585</v>
       </c>
     </row>
-    <row r="284" spans="10:13">
+    <row r="284" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J284">
         <v>5860</v>
       </c>
@@ -4247,7 +4252,7 @@
         <v>6678</v>
       </c>
     </row>
-    <row r="285" spans="10:13">
+    <row r="285" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J285">
         <v>5460</v>
       </c>
@@ -4255,7 +4260,7 @@
         <v>6362</v>
       </c>
     </row>
-    <row r="286" spans="10:13">
+    <row r="286" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J286">
         <v>5454</v>
       </c>
@@ -4263,7 +4268,7 @@
         <v>7215</v>
       </c>
     </row>
-    <row r="287" spans="10:13">
+    <row r="287" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J287">
         <v>5735</v>
       </c>
@@ -4271,7 +4276,7 @@
         <v>6983</v>
       </c>
     </row>
-    <row r="288" spans="10:13">
+    <row r="288" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J288">
         <v>5786</v>
       </c>
@@ -4279,7 +4284,7 @@
         <v>6816</v>
       </c>
     </row>
-    <row r="289" spans="10:13">
+    <row r="289" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J289">
         <v>5591</v>
       </c>
@@ -4287,7 +4292,7 @@
         <v>7458</v>
       </c>
     </row>
-    <row r="290" spans="10:13">
+    <row r="290" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J290">
         <v>5317</v>
       </c>
@@ -4295,7 +4300,7 @@
         <v>6370</v>
       </c>
     </row>
-    <row r="291" spans="10:13">
+    <row r="291" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J291">
         <v>5436</v>
       </c>
@@ -4303,7 +4308,7 @@
         <v>6878</v>
       </c>
     </row>
-    <row r="292" spans="10:13">
+    <row r="292" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J292">
         <v>5636</v>
       </c>
@@ -4311,7 +4316,7 @@
         <v>6662</v>
       </c>
     </row>
-    <row r="293" spans="10:13">
+    <row r="293" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J293">
         <v>5347</v>
       </c>
@@ -4319,7 +4324,7 @@
         <v>6291</v>
       </c>
     </row>
-    <row r="294" spans="10:13">
+    <row r="294" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J294">
         <v>5470</v>
       </c>
@@ -4327,7 +4332,7 @@
         <v>6390</v>
       </c>
     </row>
-    <row r="295" spans="10:13">
+    <row r="295" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J295">
         <v>5609</v>
       </c>
@@ -4335,7 +4340,7 @@
         <v>6206</v>
       </c>
     </row>
-    <row r="296" spans="10:13">
+    <row r="296" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J296">
         <v>5515</v>
       </c>
@@ -4343,7 +4348,7 @@
         <v>5849</v>
       </c>
     </row>
-    <row r="297" spans="10:13">
+    <row r="297" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J297">
         <v>5718</v>
       </c>
@@ -4351,7 +4356,7 @@
         <v>6603</v>
       </c>
     </row>
-    <row r="298" spans="10:13">
+    <row r="298" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J298">
         <v>5527</v>
       </c>
@@ -4359,7 +4364,7 @@
         <v>7287</v>
       </c>
     </row>
-    <row r="299" spans="10:13">
+    <row r="299" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J299">
         <v>5248</v>
       </c>
@@ -4367,7 +4372,7 @@
         <v>6669</v>
       </c>
     </row>
-    <row r="300" spans="10:13">
+    <row r="300" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J300">
         <v>5618</v>
       </c>
@@ -4375,7 +4380,7 @@
         <v>7350</v>
       </c>
     </row>
-    <row r="301" spans="10:13">
+    <row r="301" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J301">
         <v>5313</v>
       </c>
@@ -4383,7 +4388,7 @@
         <v>6545</v>
       </c>
     </row>
-    <row r="302" spans="10:13">
+    <row r="302" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J302">
         <v>5651</v>
       </c>
@@ -4391,7 +4396,7 @@
         <v>6159</v>
       </c>
     </row>
-    <row r="303" spans="10:13">
+    <row r="303" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J303">
         <v>5205</v>
       </c>
@@ -4399,7 +4404,7 @@
         <v>6687</v>
       </c>
     </row>
-    <row r="304" spans="10:13">
+    <row r="304" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J304">
         <v>5582</v>
       </c>
@@ -4407,7 +4412,7 @@
         <v>6378</v>
       </c>
     </row>
-    <row r="305" spans="10:13">
+    <row r="305" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J305">
         <v>5618</v>
       </c>
@@ -4415,7 +4420,7 @@
         <v>6669</v>
       </c>
     </row>
-    <row r="306" spans="10:13">
+    <row r="306" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J306">
         <v>5729</v>
       </c>
@@ -4423,7 +4428,7 @@
         <v>6287</v>
       </c>
     </row>
-    <row r="307" spans="10:13">
+    <row r="307" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J307">
         <v>5448</v>
       </c>
@@ -4431,7 +4436,7 @@
         <v>7259</v>
       </c>
     </row>
-    <row r="308" spans="10:13">
+    <row r="308" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J308">
         <v>5218</v>
       </c>
@@ -4439,7 +4444,7 @@
         <v>7180</v>
       </c>
     </row>
-    <row r="309" spans="10:13">
+    <row r="309" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J309">
         <v>5485</v>
       </c>
@@ -4447,7 +4452,7 @@
         <v>7146</v>
       </c>
     </row>
-    <row r="310" spans="10:13">
+    <row r="310" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J310">
         <v>5516</v>
       </c>
@@ -4455,7 +4460,7 @@
         <v>6355</v>
       </c>
     </row>
-    <row r="311" spans="10:13">
+    <row r="311" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J311">
         <v>5699</v>
       </c>
@@ -4463,7 +4468,7 @@
         <v>7074</v>
       </c>
     </row>
-    <row r="312" spans="10:13">
+    <row r="312" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J312">
         <v>5373</v>
       </c>
@@ -4471,7 +4476,7 @@
         <v>6781</v>
       </c>
     </row>
-    <row r="313" spans="10:13">
+    <row r="313" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J313">
         <v>5353</v>
       </c>
@@ -4479,7 +4484,7 @@
         <v>7203</v>
       </c>
     </row>
-    <row r="314" spans="10:13">
+    <row r="314" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J314">
         <v>5423</v>
       </c>
@@ -4487,7 +4492,7 @@
         <v>6978</v>
       </c>
     </row>
-    <row r="315" spans="10:13">
+    <row r="315" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J315">
         <v>5576</v>
       </c>
@@ -4495,7 +4500,7 @@
         <v>6736</v>
       </c>
     </row>
-    <row r="316" spans="10:13">
+    <row r="316" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J316">
         <v>5584</v>
       </c>
@@ -4503,7 +4508,7 @@
         <v>6808</v>
       </c>
     </row>
-    <row r="317" spans="10:13">
+    <row r="317" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J317">
         <v>5642</v>
       </c>
@@ -4511,7 +4516,7 @@
         <v>7312</v>
       </c>
     </row>
-    <row r="318" spans="10:13">
+    <row r="318" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J318">
         <v>5681</v>
       </c>
@@ -4519,7 +4524,7 @@
         <v>7242</v>
       </c>
     </row>
-    <row r="319" spans="10:13">
+    <row r="319" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J319">
         <v>5556</v>
       </c>
@@ -4527,7 +4532,7 @@
         <v>6951</v>
       </c>
     </row>
-    <row r="320" spans="10:13">
+    <row r="320" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J320">
         <v>5470</v>
       </c>
@@ -4535,7 +4540,7 @@
         <v>7346</v>
       </c>
     </row>
-    <row r="321" spans="10:13">
+    <row r="321" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J321">
         <v>5541</v>
       </c>
@@ -4543,7 +4548,7 @@
         <v>6538</v>
       </c>
     </row>
-    <row r="322" spans="10:13">
+    <row r="322" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J322">
         <v>5418</v>
       </c>
@@ -4551,7 +4556,7 @@
         <v>7832</v>
       </c>
     </row>
-    <row r="323" spans="10:13">
+    <row r="323" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J323">
         <v>5662</v>
       </c>
@@ -4559,7 +4564,7 @@
         <v>5897</v>
       </c>
     </row>
-    <row r="324" spans="10:13">
+    <row r="324" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J324">
         <v>5435</v>
       </c>
@@ -4567,7 +4572,7 @@
         <v>6988</v>
       </c>
     </row>
-    <row r="325" spans="10:13">
+    <row r="325" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J325">
         <v>5428</v>
       </c>
@@ -4575,7 +4580,7 @@
         <v>7042</v>
       </c>
     </row>
-    <row r="326" spans="10:13">
+    <row r="326" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J326">
         <v>5420</v>
       </c>
@@ -4583,7 +4588,7 @@
         <v>6715</v>
       </c>
     </row>
-    <row r="327" spans="10:13">
+    <row r="327" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J327">
         <v>6057</v>
       </c>
@@ -4591,7 +4596,7 @@
         <v>7134</v>
       </c>
     </row>
-    <row r="328" spans="10:13">
+    <row r="328" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J328">
         <v>5732</v>
       </c>
@@ -4599,7 +4604,7 @@
         <v>6176</v>
       </c>
     </row>
-    <row r="329" spans="10:13">
+    <row r="329" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J329">
         <v>5714</v>
       </c>
@@ -4607,7 +4612,7 @@
         <v>6426</v>
       </c>
     </row>
-    <row r="330" spans="10:13">
+    <row r="330" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J330">
         <v>5389</v>
       </c>
@@ -4615,7 +4620,7 @@
         <v>6719</v>
       </c>
     </row>
-    <row r="331" spans="10:13">
+    <row r="331" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J331">
         <v>5739</v>
       </c>
@@ -4623,7 +4628,7 @@
         <v>6557</v>
       </c>
     </row>
-    <row r="332" spans="10:13">
+    <row r="332" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J332">
         <v>5347</v>
       </c>
@@ -4631,7 +4636,7 @@
         <v>7039</v>
       </c>
     </row>
-    <row r="333" spans="10:13">
+    <row r="333" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J333">
         <v>5721</v>
       </c>
@@ -4639,7 +4644,7 @@
         <v>6611</v>
       </c>
     </row>
-    <row r="334" spans="10:13">
+    <row r="334" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J334">
         <v>5515</v>
       </c>
@@ -4647,7 +4652,7 @@
         <v>6480</v>
       </c>
     </row>
-    <row r="335" spans="10:13">
+    <row r="335" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J335">
         <v>5838</v>
       </c>
@@ -4655,7 +4660,7 @@
         <v>7210</v>
       </c>
     </row>
-    <row r="336" spans="10:13">
+    <row r="336" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J336">
         <v>5778</v>
       </c>
@@ -4663,7 +4668,7 @@
         <v>6238</v>
       </c>
     </row>
-    <row r="337" spans="10:13">
+    <row r="337" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J337">
         <v>5578</v>
       </c>
@@ -4671,7 +4676,7 @@
         <v>5585</v>
       </c>
     </row>
-    <row r="338" spans="10:13">
+    <row r="338" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J338">
         <v>5559</v>
       </c>
@@ -4679,7 +4684,7 @@
         <v>7191</v>
       </c>
     </row>
-    <row r="339" spans="10:13">
+    <row r="339" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J339">
         <v>5471</v>
       </c>
@@ -4687,7 +4692,7 @@
         <v>6582</v>
       </c>
     </row>
-    <row r="340" spans="10:13">
+    <row r="340" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J340">
         <v>5528</v>
       </c>
@@ -4695,7 +4700,7 @@
         <v>6362</v>
       </c>
     </row>
-    <row r="341" spans="10:13">
+    <row r="341" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J341">
         <v>5572</v>
       </c>
@@ -4703,7 +4708,7 @@
         <v>6488</v>
       </c>
     </row>
-    <row r="342" spans="10:13">
+    <row r="342" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J342">
         <v>5346</v>
       </c>
@@ -4711,7 +4716,7 @@
         <v>6377</v>
       </c>
     </row>
-    <row r="343" spans="10:13">
+    <row r="343" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J343">
         <v>5268</v>
       </c>
@@ -4719,7 +4724,7 @@
         <v>6718</v>
       </c>
     </row>
-    <row r="344" spans="10:13">
+    <row r="344" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J344">
         <v>5388</v>
       </c>
@@ -4727,7 +4732,7 @@
         <v>7379</v>
       </c>
     </row>
-    <row r="345" spans="10:13">
+    <row r="345" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J345">
         <v>5494</v>
       </c>
@@ -4735,7 +4740,7 @@
         <v>6759</v>
       </c>
     </row>
-    <row r="346" spans="10:13">
+    <row r="346" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J346">
         <v>5519</v>
       </c>
@@ -4743,7 +4748,7 @@
         <v>7197</v>
       </c>
     </row>
-    <row r="347" spans="10:13">
+    <row r="347" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J347">
         <v>5573</v>
       </c>
@@ -4751,7 +4756,7 @@
         <v>6671</v>
       </c>
     </row>
-    <row r="348" spans="10:13">
+    <row r="348" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J348">
         <v>5546</v>
       </c>
@@ -4759,7 +4764,7 @@
         <v>6101</v>
       </c>
     </row>
-    <row r="349" spans="10:13">
+    <row r="349" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J349">
         <v>5272</v>
       </c>
@@ -4767,7 +4772,7 @@
         <v>6602</v>
       </c>
     </row>
-    <row r="350" spans="10:13">
+    <row r="350" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J350">
         <v>5292</v>
       </c>
@@ -4775,7 +4780,7 @@
         <v>6319</v>
       </c>
     </row>
-    <row r="351" spans="10:13">
+    <row r="351" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J351">
         <v>5602</v>
       </c>
@@ -4783,7 +4788,7 @@
         <v>6933</v>
       </c>
     </row>
-    <row r="352" spans="10:13">
+    <row r="352" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J352">
         <v>5306</v>
       </c>
@@ -4791,7 +4796,7 @@
         <v>6986</v>
       </c>
     </row>
-    <row r="353" spans="10:13">
+    <row r="353" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J353">
         <v>5733</v>
       </c>
@@ -4799,7 +4804,7 @@
         <v>6518</v>
       </c>
     </row>
-    <row r="354" spans="10:13">
+    <row r="354" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J354">
         <v>5645</v>
       </c>
@@ -4807,7 +4812,7 @@
         <v>6884</v>
       </c>
     </row>
-    <row r="355" spans="10:13">
+    <row r="355" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J355">
         <v>5657</v>
       </c>
@@ -4815,7 +4820,7 @@
         <v>6434</v>
       </c>
     </row>
-    <row r="356" spans="10:13">
+    <row r="356" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J356">
         <v>5265</v>
       </c>
@@ -4823,7 +4828,7 @@
         <v>6798</v>
       </c>
     </row>
-    <row r="357" spans="10:13">
+    <row r="357" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J357">
         <v>5403</v>
       </c>
@@ -4831,7 +4836,7 @@
         <v>6718</v>
       </c>
     </row>
-    <row r="358" spans="10:13">
+    <row r="358" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J358">
         <v>5700</v>
       </c>
@@ -4839,7 +4844,7 @@
         <v>6484</v>
       </c>
     </row>
-    <row r="359" spans="10:13">
+    <row r="359" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J359">
         <v>5302</v>
       </c>
@@ -4847,7 +4852,7 @@
         <v>7326</v>
       </c>
     </row>
-    <row r="360" spans="10:13">
+    <row r="360" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J360">
         <v>5592</v>
       </c>
@@ -4855,7 +4860,7 @@
         <v>6812</v>
       </c>
     </row>
-    <row r="361" spans="10:13">
+    <row r="361" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J361">
         <v>5532</v>
       </c>
@@ -4863,7 +4868,7 @@
         <v>7002</v>
       </c>
     </row>
-    <row r="362" spans="10:13">
+    <row r="362" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J362">
         <v>5507</v>
       </c>
@@ -4871,7 +4876,7 @@
         <v>7172</v>
       </c>
     </row>
-    <row r="363" spans="10:13">
+    <row r="363" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J363">
         <v>5383</v>
       </c>
@@ -4879,7 +4884,7 @@
         <v>6135</v>
       </c>
     </row>
-    <row r="364" spans="10:13">
+    <row r="364" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J364">
         <v>5271</v>
       </c>
@@ -4887,7 +4892,7 @@
         <v>6598</v>
       </c>
     </row>
-    <row r="365" spans="10:13">
+    <row r="365" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J365">
         <v>5652</v>
       </c>
@@ -4895,7 +4900,7 @@
         <v>7121</v>
       </c>
     </row>
-    <row r="366" spans="10:13">
+    <row r="366" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J366">
         <v>5750</v>
       </c>
@@ -4903,7 +4908,7 @@
         <v>6586</v>
       </c>
     </row>
-    <row r="367" spans="10:13">
+    <row r="367" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J367">
         <v>5420</v>
       </c>
@@ -4911,7 +4916,7 @@
         <v>7307</v>
       </c>
     </row>
-    <row r="368" spans="10:13">
+    <row r="368" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J368">
         <v>5466</v>
       </c>
@@ -4919,7 +4924,7 @@
         <v>6679</v>
       </c>
     </row>
-    <row r="369" spans="10:13">
+    <row r="369" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J369">
         <v>5977</v>
       </c>
@@ -4927,7 +4932,7 @@
         <v>6534</v>
       </c>
     </row>
-    <row r="370" spans="10:13">
+    <row r="370" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J370">
         <v>5698</v>
       </c>
@@ -4935,7 +4940,7 @@
         <v>7064</v>
       </c>
     </row>
-    <row r="371" spans="10:13">
+    <row r="371" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J371">
         <v>5353</v>
       </c>
@@ -4943,7 +4948,7 @@
         <v>7232</v>
       </c>
     </row>
-    <row r="372" spans="10:13">
+    <row r="372" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J372">
         <v>5121</v>
       </c>
@@ -4951,7 +4956,7 @@
         <v>6397</v>
       </c>
     </row>
-    <row r="373" spans="10:13">
+    <row r="373" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J373">
         <v>5791</v>
       </c>
@@ -4959,7 +4964,7 @@
         <v>6901</v>
       </c>
     </row>
-    <row r="374" spans="10:13">
+    <row r="374" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J374">
         <v>5488</v>
       </c>
@@ -4967,7 +4972,7 @@
         <v>6147</v>
       </c>
     </row>
-    <row r="375" spans="10:13">
+    <row r="375" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J375">
         <v>5637</v>
       </c>
@@ -4975,7 +4980,7 @@
         <v>7262</v>
       </c>
     </row>
-    <row r="376" spans="10:13">
+    <row r="376" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J376">
         <v>5727</v>
       </c>
@@ -4983,7 +4988,7 @@
         <v>6213</v>
       </c>
     </row>
-    <row r="377" spans="10:13">
+    <row r="377" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J377">
         <v>5382</v>
       </c>
@@ -4991,7 +4996,7 @@
         <v>7268</v>
       </c>
     </row>
-    <row r="378" spans="10:13">
+    <row r="378" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J378">
         <v>5503</v>
       </c>
@@ -4999,7 +5004,7 @@
         <v>6690</v>
       </c>
     </row>
-    <row r="379" spans="10:13">
+    <row r="379" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J379">
         <v>5614</v>
       </c>
@@ -5007,7 +5012,7 @@
         <v>6146</v>
       </c>
     </row>
-    <row r="380" spans="10:13">
+    <row r="380" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J380">
         <v>5788</v>
       </c>
@@ -5015,7 +5020,7 @@
         <v>6377</v>
       </c>
     </row>
-    <row r="381" spans="10:13">
+    <row r="381" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J381">
         <v>5424</v>
       </c>
@@ -5023,7 +5028,7 @@
         <v>6505</v>
       </c>
     </row>
-    <row r="382" spans="10:13">
+    <row r="382" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J382">
         <v>5341</v>
       </c>
@@ -5031,7 +5036,7 @@
         <v>6049</v>
       </c>
     </row>
-    <row r="383" spans="10:13">
+    <row r="383" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J383">
         <v>5705</v>
       </c>
@@ -5039,7 +5044,7 @@
         <v>6894</v>
       </c>
     </row>
-    <row r="384" spans="10:13">
+    <row r="384" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J384">
         <v>5386</v>
       </c>
@@ -5047,7 +5052,7 @@
         <v>6126</v>
       </c>
     </row>
-    <row r="385" spans="10:13">
+    <row r="385" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J385">
         <v>5731</v>
       </c>
@@ -5055,7 +5060,7 @@
         <v>7115</v>
       </c>
     </row>
-    <row r="386" spans="10:13">
+    <row r="386" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J386">
         <v>5609</v>
       </c>
@@ -5063,7 +5068,7 @@
         <v>7356</v>
       </c>
     </row>
-    <row r="387" spans="10:13">
+    <row r="387" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J387">
         <v>5711</v>
       </c>
@@ -5071,7 +5076,7 @@
         <v>5950</v>
       </c>
     </row>
-    <row r="388" spans="10:13">
+    <row r="388" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J388">
         <v>5538</v>
       </c>
@@ -5079,7 +5084,7 @@
         <v>6422</v>
       </c>
     </row>
-    <row r="389" spans="10:13">
+    <row r="389" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J389">
         <v>5699</v>
       </c>
@@ -5087,7 +5092,7 @@
         <v>7592</v>
       </c>
     </row>
-    <row r="390" spans="10:13">
+    <row r="390" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J390">
         <v>5438</v>
       </c>
@@ -5095,7 +5100,7 @@
         <v>7305</v>
       </c>
     </row>
-    <row r="391" spans="10:13">
+    <row r="391" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J391">
         <v>5533</v>
       </c>
@@ -5103,7 +5108,7 @@
         <v>6887</v>
       </c>
     </row>
-    <row r="392" spans="10:13">
+    <row r="392" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J392">
         <v>5585</v>
       </c>
@@ -5111,7 +5116,7 @@
         <v>5813</v>
       </c>
     </row>
-    <row r="393" spans="10:13">
+    <row r="393" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J393">
         <v>5157</v>
       </c>
@@ -5119,7 +5124,7 @@
         <v>6886</v>
       </c>
     </row>
-    <row r="394" spans="10:13">
+    <row r="394" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J394">
         <v>5667</v>
       </c>
@@ -5127,7 +5132,7 @@
         <v>6708</v>
       </c>
     </row>
-    <row r="395" spans="10:13">
+    <row r="395" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J395">
         <v>5364</v>
       </c>
@@ -5135,7 +5140,7 @@
         <v>6005</v>
       </c>
     </row>
-    <row r="396" spans="10:13">
+    <row r="396" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J396">
         <v>5311</v>
       </c>
@@ -5143,7 +5148,7 @@
         <v>5941</v>
       </c>
     </row>
-    <row r="397" spans="10:13">
+    <row r="397" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J397">
         <v>5509</v>
       </c>
@@ -5151,7 +5156,7 @@
         <v>7418</v>
       </c>
     </row>
-    <row r="398" spans="10:13">
+    <row r="398" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J398">
         <v>5876</v>
       </c>
@@ -5159,7 +5164,7 @@
         <v>6717</v>
       </c>
     </row>
-    <row r="399" spans="10:13">
+    <row r="399" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J399">
         <v>5638</v>
       </c>
@@ -5167,7 +5172,7 @@
         <v>6987</v>
       </c>
     </row>
-    <row r="400" spans="10:13">
+    <row r="400" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J400">
         <v>5657</v>
       </c>
@@ -5175,7 +5180,7 @@
         <v>6887</v>
       </c>
     </row>
-    <row r="401" spans="10:13">
+    <row r="401" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J401">
         <v>5466</v>
       </c>
@@ -5183,7 +5188,7 @@
         <v>6505</v>
       </c>
     </row>
-    <row r="402" spans="10:13">
+    <row r="402" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J402">
         <v>5467</v>
       </c>
@@ -5191,7 +5196,7 @@
         <v>6144</v>
       </c>
     </row>
-    <row r="403" spans="10:13">
+    <row r="403" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J403">
         <v>5539</v>
       </c>
@@ -5199,7 +5204,7 @@
         <v>7375</v>
       </c>
     </row>
-    <row r="404" spans="10:13">
+    <row r="404" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J404">
         <v>5686</v>
       </c>
@@ -5207,7 +5212,7 @@
         <v>6723</v>
       </c>
     </row>
-    <row r="405" spans="10:13">
+    <row r="405" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J405">
         <v>5419</v>
       </c>
@@ -5215,7 +5220,7 @@
         <v>6690</v>
       </c>
     </row>
-    <row r="406" spans="10:13">
+    <row r="406" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J406">
         <v>5207</v>
       </c>
@@ -5223,7 +5228,7 @@
         <v>6691</v>
       </c>
     </row>
-    <row r="407" spans="10:13">
+    <row r="407" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J407">
         <v>5589</v>
       </c>
@@ -5231,7 +5236,7 @@
         <v>6210</v>
       </c>
     </row>
-    <row r="408" spans="10:13">
+    <row r="408" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J408">
         <v>5608</v>
       </c>
@@ -5239,7 +5244,7 @@
         <v>6464</v>
       </c>
     </row>
-    <row r="409" spans="10:13">
+    <row r="409" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J409">
         <v>5655</v>
       </c>
@@ -5247,7 +5252,7 @@
         <v>6620</v>
       </c>
     </row>
-    <row r="410" spans="10:13">
+    <row r="410" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J410">
         <v>5480</v>
       </c>
@@ -5255,7 +5260,7 @@
         <v>7674</v>
       </c>
     </row>
-    <row r="411" spans="10:13">
+    <row r="411" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J411">
         <v>5585</v>
       </c>
@@ -5263,7 +5268,7 @@
         <v>6773</v>
       </c>
     </row>
-    <row r="412" spans="10:13">
+    <row r="412" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J412">
         <v>5301</v>
       </c>
@@ -5271,7 +5276,7 @@
         <v>6590</v>
       </c>
     </row>
-    <row r="413" spans="10:13">
+    <row r="413" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J413">
         <v>5351</v>
       </c>
@@ -5279,7 +5284,7 @@
         <v>6346</v>
       </c>
     </row>
-    <row r="414" spans="10:13">
+    <row r="414" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J414">
         <v>5494</v>
       </c>
@@ -5287,7 +5292,7 @@
         <v>6233</v>
       </c>
     </row>
-    <row r="415" spans="10:13">
+    <row r="415" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J415">
         <v>5439</v>
       </c>
@@ -5295,7 +5300,7 @@
         <v>6690</v>
       </c>
     </row>
-    <row r="416" spans="10:13">
+    <row r="416" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J416">
         <v>5737</v>
       </c>
@@ -5303,7 +5308,7 @@
         <v>6043</v>
       </c>
     </row>
-    <row r="417" spans="10:13">
+    <row r="417" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J417">
         <v>5835</v>
       </c>
@@ -5311,7 +5316,7 @@
         <v>6986</v>
       </c>
     </row>
-    <row r="418" spans="10:13">
+    <row r="418" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J418">
         <v>5404</v>
       </c>
@@ -5319,7 +5324,7 @@
         <v>6475</v>
       </c>
     </row>
-    <row r="419" spans="10:13">
+    <row r="419" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J419">
         <v>5671</v>
       </c>
@@ -5327,7 +5332,7 @@
         <v>6395</v>
       </c>
     </row>
-    <row r="420" spans="10:13">
+    <row r="420" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J420">
         <v>5560</v>
       </c>
@@ -5335,7 +5340,7 @@
         <v>6152</v>
       </c>
     </row>
-    <row r="421" spans="10:13">
+    <row r="421" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J421">
         <v>5670</v>
       </c>
@@ -5343,7 +5348,7 @@
         <v>6925</v>
       </c>
     </row>
-    <row r="422" spans="10:13">
+    <row r="422" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J422">
         <v>5504</v>
       </c>
@@ -5351,7 +5356,7 @@
         <v>6223</v>
       </c>
     </row>
-    <row r="423" spans="10:13">
+    <row r="423" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J423">
         <v>5763</v>
       </c>
@@ -5359,7 +5364,7 @@
         <v>7006</v>
       </c>
     </row>
-    <row r="424" spans="10:13">
+    <row r="424" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J424">
         <v>5982</v>
       </c>
@@ -5367,7 +5372,7 @@
         <v>6379</v>
       </c>
     </row>
-    <row r="425" spans="10:13">
+    <row r="425" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J425">
         <v>5586</v>
       </c>
@@ -5375,7 +5380,7 @@
         <v>6589</v>
       </c>
     </row>
-    <row r="426" spans="10:13">
+    <row r="426" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J426">
         <v>5495</v>
       </c>
@@ -5383,7 +5388,7 @@
         <v>6689</v>
       </c>
     </row>
-    <row r="427" spans="10:13">
+    <row r="427" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J427">
         <v>5415</v>
       </c>
@@ -5391,7 +5396,7 @@
         <v>6142</v>
       </c>
     </row>
-    <row r="428" spans="10:13">
+    <row r="428" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J428">
         <v>5624</v>
       </c>
@@ -5399,7 +5404,7 @@
         <v>6515</v>
       </c>
     </row>
-    <row r="429" spans="10:13">
+    <row r="429" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J429">
         <v>5599</v>
       </c>
@@ -5407,7 +5412,7 @@
         <v>6718</v>
       </c>
     </row>
-    <row r="430" spans="10:13">
+    <row r="430" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J430">
         <v>5322</v>
       </c>
@@ -5415,7 +5420,7 @@
         <v>6117</v>
       </c>
     </row>
-    <row r="431" spans="10:13">
+    <row r="431" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J431">
         <v>5638</v>
       </c>
@@ -5423,7 +5428,7 @@
         <v>7648</v>
       </c>
     </row>
-    <row r="432" spans="10:13">
+    <row r="432" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J432">
         <v>5408</v>
       </c>
@@ -5431,7 +5436,7 @@
         <v>7127</v>
       </c>
     </row>
-    <row r="433" spans="10:13">
+    <row r="433" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J433">
         <v>5322</v>
       </c>
@@ -5439,7 +5444,7 @@
         <v>6625</v>
       </c>
     </row>
-    <row r="434" spans="10:13">
+    <row r="434" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J434">
         <v>5710</v>
       </c>
@@ -5447,7 +5452,7 @@
         <v>6907</v>
       </c>
     </row>
-    <row r="435" spans="10:13">
+    <row r="435" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J435">
         <v>5361</v>
       </c>
@@ -5455,7 +5460,7 @@
         <v>6488</v>
       </c>
     </row>
-    <row r="436" spans="10:13">
+    <row r="436" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J436">
         <v>5733</v>
       </c>
@@ -5463,7 +5468,7 @@
         <v>7618</v>
       </c>
     </row>
-    <row r="437" spans="10:13">
+    <row r="437" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J437">
         <v>5459</v>
       </c>
@@ -5471,7 +5476,7 @@
         <v>5810</v>
       </c>
     </row>
-    <row r="438" spans="10:13">
+    <row r="438" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J438">
         <v>5639</v>
       </c>
@@ -5479,7 +5484,7 @@
         <v>5809</v>
       </c>
     </row>
-    <row r="439" spans="10:13">
+    <row r="439" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J439">
         <v>5353</v>
       </c>
@@ -5487,7 +5492,7 @@
         <v>6275</v>
       </c>
     </row>
-    <row r="440" spans="10:13">
+    <row r="440" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J440">
         <v>5732</v>
       </c>
@@ -5495,7 +5500,7 @@
         <v>7283</v>
       </c>
     </row>
-    <row r="441" spans="10:13">
+    <row r="441" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J441">
         <v>5413</v>
       </c>
@@ -5503,7 +5508,7 @@
         <v>6440</v>
       </c>
     </row>
-    <row r="442" spans="10:13">
+    <row r="442" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J442">
         <v>5464</v>
       </c>
@@ -5511,7 +5516,7 @@
         <v>6602</v>
       </c>
     </row>
-    <row r="443" spans="10:13">
+    <row r="443" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J443">
         <v>4983</v>
       </c>
@@ -5519,7 +5524,7 @@
         <v>6669</v>
       </c>
     </row>
-    <row r="444" spans="10:13">
+    <row r="444" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J444">
         <v>5640</v>
       </c>
@@ -5527,7 +5532,7 @@
         <v>5769</v>
       </c>
     </row>
-    <row r="445" spans="10:13">
+    <row r="445" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J445">
         <v>5581</v>
       </c>
@@ -5535,7 +5540,7 @@
         <v>6425</v>
       </c>
     </row>
-    <row r="446" spans="10:13">
+    <row r="446" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J446">
         <v>5470</v>
       </c>
@@ -5543,7 +5548,7 @@
         <v>7519</v>
       </c>
     </row>
-    <row r="447" spans="10:13">
+    <row r="447" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J447">
         <v>5603</v>
       </c>
@@ -5551,7 +5556,7 @@
         <v>5939</v>
       </c>
     </row>
-    <row r="448" spans="10:13">
+    <row r="448" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J448">
         <v>5561</v>
       </c>
@@ -5559,7 +5564,7 @@
         <v>6692</v>
       </c>
     </row>
-    <row r="449" spans="10:13">
+    <row r="449" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J449">
         <v>5342</v>
       </c>
@@ -5567,7 +5572,7 @@
         <v>6886</v>
       </c>
     </row>
-    <row r="450" spans="10:13">
+    <row r="450" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J450">
         <v>5621</v>
       </c>
@@ -5575,7 +5580,7 @@
         <v>7362</v>
       </c>
     </row>
-    <row r="451" spans="10:13">
+    <row r="451" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J451">
         <v>5321</v>
       </c>
@@ -5583,7 +5588,7 @@
         <v>6557</v>
       </c>
     </row>
-    <row r="452" spans="10:13">
+    <row r="452" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J452">
         <v>5419</v>
       </c>
@@ -5591,7 +5596,7 @@
         <v>6295</v>
       </c>
     </row>
-    <row r="453" spans="10:13">
+    <row r="453" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J453">
         <v>5405</v>
       </c>
@@ -5599,7 +5604,7 @@
         <v>6840</v>
       </c>
     </row>
-    <row r="454" spans="10:13">
+    <row r="454" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J454">
         <v>5268</v>
       </c>
@@ -5607,7 +5612,7 @@
         <v>6468</v>
       </c>
     </row>
-    <row r="455" spans="10:13">
+    <row r="455" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J455">
         <v>5292</v>
       </c>
@@ -5615,7 +5620,7 @@
         <v>6986</v>
       </c>
     </row>
-    <row r="456" spans="10:13">
+    <row r="456" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J456">
         <v>5654</v>
       </c>
@@ -5623,7 +5628,7 @@
         <v>6462</v>
       </c>
     </row>
-    <row r="457" spans="10:13">
+    <row r="457" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J457">
         <v>5449</v>
       </c>
@@ -5631,7 +5636,7 @@
         <v>7589</v>
       </c>
     </row>
-    <row r="458" spans="10:13">
+    <row r="458" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J458">
         <v>5705</v>
       </c>
@@ -5639,7 +5644,7 @@
         <v>7182</v>
       </c>
     </row>
-    <row r="459" spans="10:13">
+    <row r="459" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J459">
         <v>5530</v>
       </c>
@@ -5647,7 +5652,7 @@
         <v>7096</v>
       </c>
     </row>
-    <row r="460" spans="10:13">
+    <row r="460" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J460">
         <v>5418</v>
       </c>
@@ -5655,7 +5660,7 @@
         <v>7336</v>
       </c>
     </row>
-    <row r="461" spans="10:13">
+    <row r="461" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J461">
         <v>5204</v>
       </c>
@@ -5663,7 +5668,7 @@
         <v>6470</v>
       </c>
     </row>
-    <row r="462" spans="10:13">
+    <row r="462" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J462">
         <v>5828</v>
       </c>
@@ -5671,7 +5676,7 @@
         <v>7132</v>
       </c>
     </row>
-    <row r="463" spans="10:13">
+    <row r="463" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J463">
         <v>5581</v>
       </c>
@@ -5679,7 +5684,7 @@
         <v>7337</v>
       </c>
     </row>
-    <row r="464" spans="10:13">
+    <row r="464" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J464">
         <v>5508</v>
       </c>
@@ -5687,7 +5692,7 @@
         <v>6418</v>
       </c>
     </row>
-    <row r="465" spans="10:13">
+    <row r="465" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J465">
         <v>5781</v>
       </c>
@@ -5695,7 +5700,7 @@
         <v>7436</v>
       </c>
     </row>
-    <row r="466" spans="10:13">
+    <row r="466" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J466">
         <v>5435</v>
       </c>
@@ -5703,7 +5708,7 @@
         <v>6573</v>
       </c>
     </row>
-    <row r="467" spans="10:13">
+    <row r="467" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J467">
         <v>5544</v>
       </c>
@@ -5711,7 +5716,7 @@
         <v>6595</v>
       </c>
     </row>
-    <row r="468" spans="10:13">
+    <row r="468" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J468">
         <v>5420</v>
       </c>
@@ -5719,7 +5724,7 @@
         <v>7008</v>
       </c>
     </row>
-    <row r="469" spans="10:13">
+    <row r="469" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J469">
         <v>5675</v>
       </c>
@@ -5727,7 +5732,7 @@
         <v>5975</v>
       </c>
     </row>
-    <row r="470" spans="10:13">
+    <row r="470" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J470">
         <v>5394</v>
       </c>
@@ -5735,7 +5740,7 @@
         <v>6732</v>
       </c>
     </row>
-    <row r="471" spans="10:13">
+    <row r="471" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J471">
         <v>5727</v>
       </c>
@@ -5743,7 +5748,7 @@
         <v>7014</v>
       </c>
     </row>
-    <row r="472" spans="10:13">
+    <row r="472" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J472">
         <v>5666</v>
       </c>
@@ -5751,7 +5756,7 @@
         <v>6642</v>
       </c>
     </row>
-    <row r="473" spans="10:13">
+    <row r="473" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J473">
         <v>5643</v>
       </c>
@@ -5759,7 +5764,7 @@
         <v>7351</v>
       </c>
     </row>
-    <row r="474" spans="10:13">
+    <row r="474" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J474">
         <v>6022</v>
       </c>
@@ -5767,7 +5772,7 @@
         <v>6528</v>
       </c>
     </row>
-    <row r="475" spans="10:13">
+    <row r="475" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J475">
         <v>5708</v>
       </c>
@@ -5775,7 +5780,7 @@
         <v>7161</v>
       </c>
     </row>
-    <row r="476" spans="10:13">
+    <row r="476" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J476">
         <v>5613</v>
       </c>
@@ -5783,7 +5788,7 @@
         <v>6157</v>
       </c>
     </row>
-    <row r="477" spans="10:13">
+    <row r="477" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J477">
         <v>5457</v>
       </c>
@@ -5791,7 +5796,7 @@
         <v>5895</v>
       </c>
     </row>
-    <row r="478" spans="10:13">
+    <row r="478" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J478">
         <v>5238</v>
       </c>
@@ -5799,7 +5804,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="479" spans="10:13">
+    <row r="479" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J479">
         <v>5792</v>
       </c>
@@ -5807,7 +5812,7 @@
         <v>6504</v>
       </c>
     </row>
-    <row r="480" spans="10:13">
+    <row r="480" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J480">
         <v>5644</v>
       </c>
@@ -5815,7 +5820,7 @@
         <v>5993</v>
       </c>
     </row>
-    <row r="481" spans="10:13">
+    <row r="481" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J481">
         <v>5518</v>
       </c>
@@ -5823,7 +5828,7 @@
         <v>7117</v>
       </c>
     </row>
-    <row r="482" spans="10:13">
+    <row r="482" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J482">
         <v>5675</v>
       </c>
@@ -5831,7 +5836,7 @@
         <v>6710</v>
       </c>
     </row>
-    <row r="483" spans="10:13">
+    <row r="483" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J483">
         <v>5415</v>
       </c>
@@ -5839,7 +5844,7 @@
         <v>6150</v>
       </c>
     </row>
-    <row r="484" spans="10:13">
+    <row r="484" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J484">
         <v>5594</v>
       </c>
@@ -5847,7 +5852,7 @@
         <v>6649</v>
       </c>
     </row>
-    <row r="485" spans="10:13">
+    <row r="485" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J485">
         <v>5649</v>
       </c>
@@ -5855,7 +5860,7 @@
         <v>7548</v>
       </c>
     </row>
-    <row r="486" spans="10:13">
+    <row r="486" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J486">
         <v>5705</v>
       </c>
@@ -5863,7 +5868,7 @@
         <v>7398</v>
       </c>
     </row>
-    <row r="487" spans="10:13">
+    <row r="487" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J487">
         <v>5357</v>
       </c>
@@ -5871,7 +5876,7 @@
         <v>6129</v>
       </c>
     </row>
-    <row r="488" spans="10:13">
+    <row r="488" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J488">
         <v>5547</v>
       </c>
@@ -5879,7 +5884,7 @@
         <v>6176</v>
       </c>
     </row>
-    <row r="489" spans="10:13">
+    <row r="489" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J489">
         <v>5649</v>
       </c>
@@ -5887,7 +5892,7 @@
         <v>6355</v>
       </c>
     </row>
-    <row r="490" spans="10:13">
+    <row r="490" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J490">
         <v>5618</v>
       </c>
@@ -5895,7 +5900,7 @@
         <v>7280</v>
       </c>
     </row>
-    <row r="491" spans="10:13">
+    <row r="491" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J491">
         <v>5353</v>
       </c>
@@ -5903,7 +5908,7 @@
         <v>6499</v>
       </c>
     </row>
-    <row r="492" spans="10:13">
+    <row r="492" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J492">
         <v>5402</v>
       </c>
@@ -5911,7 +5916,7 @@
         <v>6303</v>
       </c>
     </row>
-    <row r="493" spans="10:13">
+    <row r="493" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J493">
         <v>5498</v>
       </c>
@@ -5919,7 +5924,7 @@
         <v>6663</v>
       </c>
     </row>
-    <row r="494" spans="10:13">
+    <row r="494" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J494">
         <v>5688</v>
       </c>
@@ -5927,7 +5932,7 @@
         <v>6786</v>
       </c>
     </row>
-    <row r="495" spans="10:13">
+    <row r="495" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J495">
         <v>5636</v>
       </c>
@@ -5935,7 +5940,7 @@
         <v>6416</v>
       </c>
     </row>
-    <row r="496" spans="10:13">
+    <row r="496" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J496">
         <v>5727</v>
       </c>
@@ -5943,7 +5948,7 @@
         <v>6092</v>
       </c>
     </row>
-    <row r="497" spans="10:13">
+    <row r="497" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J497">
         <v>5934</v>
       </c>
@@ -5951,7 +5956,7 @@
         <v>6404</v>
       </c>
     </row>
-    <row r="498" spans="10:13">
+    <row r="498" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J498">
         <v>5321</v>
       </c>
@@ -5959,7 +5964,7 @@
         <v>6984</v>
       </c>
     </row>
-    <row r="499" spans="10:13">
+    <row r="499" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J499">
         <v>5677</v>
       </c>
@@ -5967,7 +5972,7 @@
         <v>6354</v>
       </c>
     </row>
-    <row r="500" spans="10:13">
+    <row r="500" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J500">
         <v>5262</v>
       </c>
@@ -5975,7 +5980,7 @@
         <v>6923</v>
       </c>
     </row>
-    <row r="501" spans="10:13">
+    <row r="501" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J501">
         <v>5471</v>
       </c>
@@ -5983,7 +5988,7 @@
         <v>6957</v>
       </c>
     </row>
-    <row r="502" spans="10:13">
+    <row r="502" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J502">
         <v>5268</v>
       </c>
@@ -5991,7 +5996,7 @@
         <v>6249</v>
       </c>
     </row>
-    <row r="503" spans="10:13">
+    <row r="503" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J503">
         <v>5566</v>
       </c>
@@ -5999,7 +6004,7 @@
         <v>6840</v>
       </c>
     </row>
-    <row r="504" spans="10:13">
+    <row r="504" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J504">
         <v>5424</v>
       </c>
@@ -6007,7 +6012,7 @@
         <v>7245</v>
       </c>
     </row>
-    <row r="505" spans="10:13">
+    <row r="505" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J505">
         <v>5564</v>
       </c>
@@ -6015,7 +6020,7 @@
         <v>6076</v>
       </c>
     </row>
-    <row r="506" spans="10:13">
+    <row r="506" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J506">
         <v>5542</v>
       </c>
@@ -6023,7 +6028,7 @@
         <v>6807</v>
       </c>
     </row>
-    <row r="507" spans="10:13">
+    <row r="507" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J507">
         <v>5630</v>
       </c>
@@ -6031,7 +6036,7 @@
         <v>6467</v>
       </c>
     </row>
-    <row r="508" spans="10:13">
+    <row r="508" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J508">
         <v>5654</v>
       </c>
@@ -6039,7 +6044,7 @@
         <v>6276</v>
       </c>
     </row>
-    <row r="509" spans="10:13">
+    <row r="509" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J509">
         <v>5426</v>
       </c>
@@ -6047,7 +6052,7 @@
         <v>6761</v>
       </c>
     </row>
-    <row r="510" spans="10:13">
+    <row r="510" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J510">
         <v>5510</v>
       </c>
@@ -6055,7 +6060,7 @@
         <v>5890</v>
       </c>
     </row>
-    <row r="511" spans="10:13">
+    <row r="511" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J511">
         <v>5645</v>
       </c>
@@ -6063,7 +6068,7 @@
         <v>7422</v>
       </c>
     </row>
-    <row r="512" spans="10:13">
+    <row r="512" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J512">
         <v>5464</v>
       </c>
@@ -6071,7 +6076,7 @@
         <v>6494</v>
       </c>
     </row>
-    <row r="513" spans="10:13">
+    <row r="513" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J513">
         <v>5554</v>
       </c>
@@ -6079,2562 +6084,2562 @@
         <v>6806</v>
       </c>
     </row>
-    <row r="514" spans="10:13">
+    <row r="514" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M514">
         <v>6545</v>
       </c>
     </row>
-    <row r="515" spans="10:13">
+    <row r="515" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M515">
         <v>6241</v>
       </c>
     </row>
-    <row r="516" spans="10:13">
+    <row r="516" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M516">
         <v>6790</v>
       </c>
     </row>
-    <row r="517" spans="10:13">
+    <row r="517" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M517">
         <v>6901</v>
       </c>
     </row>
-    <row r="518" spans="10:13">
+    <row r="518" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M518">
         <v>6769</v>
       </c>
     </row>
-    <row r="519" spans="10:13">
+    <row r="519" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M519">
         <v>6717</v>
       </c>
     </row>
-    <row r="520" spans="10:13">
+    <row r="520" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M520">
         <v>7274</v>
       </c>
     </row>
-    <row r="521" spans="10:13">
+    <row r="521" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M521">
         <v>7169</v>
       </c>
     </row>
-    <row r="522" spans="10:13">
+    <row r="522" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M522">
         <v>6696</v>
       </c>
     </row>
-    <row r="523" spans="10:13">
+    <row r="523" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M523">
         <v>6994</v>
       </c>
     </row>
-    <row r="524" spans="10:13">
+    <row r="524" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M524">
         <v>5835</v>
       </c>
     </row>
-    <row r="525" spans="10:13">
+    <row r="525" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M525">
         <v>6663</v>
       </c>
     </row>
-    <row r="526" spans="10:13">
+    <row r="526" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M526">
         <v>7122</v>
       </c>
     </row>
-    <row r="527" spans="10:13">
+    <row r="527" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M527">
         <v>6436</v>
       </c>
     </row>
-    <row r="528" spans="10:13">
+    <row r="528" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M528">
         <v>6320</v>
       </c>
     </row>
-    <row r="529" spans="13:13">
+    <row r="529" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M529">
         <v>6830</v>
       </c>
     </row>
-    <row r="530" spans="13:13">
+    <row r="530" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M530">
         <v>6653</v>
       </c>
     </row>
-    <row r="531" spans="13:13">
+    <row r="531" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M531">
         <v>6280</v>
       </c>
     </row>
-    <row r="532" spans="13:13">
+    <row r="532" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M532">
         <v>7811</v>
       </c>
     </row>
-    <row r="533" spans="13:13">
+    <row r="533" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M533">
         <v>6509</v>
       </c>
     </row>
-    <row r="534" spans="13:13">
+    <row r="534" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M534">
         <v>6771</v>
       </c>
     </row>
-    <row r="535" spans="13:13">
+    <row r="535" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M535">
         <v>6860</v>
       </c>
     </row>
-    <row r="536" spans="13:13">
+    <row r="536" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M536">
         <v>6300</v>
       </c>
     </row>
-    <row r="537" spans="13:13">
+    <row r="537" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M537">
         <v>6172</v>
       </c>
     </row>
-    <row r="538" spans="13:13">
+    <row r="538" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M538">
         <v>7101</v>
       </c>
     </row>
-    <row r="539" spans="13:13">
+    <row r="539" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M539">
         <v>6335</v>
       </c>
     </row>
-    <row r="540" spans="13:13">
+    <row r="540" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M540">
         <v>6318</v>
       </c>
     </row>
-    <row r="541" spans="13:13">
+    <row r="541" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M541">
         <v>7851</v>
       </c>
     </row>
-    <row r="542" spans="13:13">
+    <row r="542" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M542">
         <v>6274</v>
       </c>
     </row>
-    <row r="543" spans="13:13">
+    <row r="543" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M543">
         <v>6250</v>
       </c>
     </row>
-    <row r="544" spans="13:13">
+    <row r="544" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M544">
         <v>7239</v>
       </c>
     </row>
-    <row r="545" spans="13:13">
+    <row r="545" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M545">
         <v>6355</v>
       </c>
     </row>
-    <row r="546" spans="13:13">
+    <row r="546" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M546">
         <v>6392</v>
       </c>
     </row>
-    <row r="547" spans="13:13">
+    <row r="547" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M547">
         <v>6816</v>
       </c>
     </row>
-    <row r="548" spans="13:13">
+    <row r="548" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M548">
         <v>5921</v>
       </c>
     </row>
-    <row r="549" spans="13:13">
+    <row r="549" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M549">
         <v>6652</v>
       </c>
     </row>
-    <row r="550" spans="13:13">
+    <row r="550" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M550">
         <v>6660</v>
       </c>
     </row>
-    <row r="551" spans="13:13">
+    <row r="551" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M551">
         <v>6588</v>
       </c>
     </row>
-    <row r="552" spans="13:13">
+    <row r="552" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M552">
         <v>7033</v>
       </c>
     </row>
-    <row r="553" spans="13:13">
+    <row r="553" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M553">
         <v>6867</v>
       </c>
     </row>
-    <row r="554" spans="13:13">
+    <row r="554" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M554">
         <v>6483</v>
       </c>
     </row>
-    <row r="555" spans="13:13">
+    <row r="555" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M555">
         <v>6536</v>
       </c>
     </row>
-    <row r="556" spans="13:13">
+    <row r="556" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M556">
         <v>6320</v>
       </c>
     </row>
-    <row r="557" spans="13:13">
+    <row r="557" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M557">
         <v>7221</v>
       </c>
     </row>
-    <row r="558" spans="13:13">
+    <row r="558" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M558">
         <v>7187</v>
       </c>
     </row>
-    <row r="559" spans="13:13">
+    <row r="559" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M559">
         <v>6844</v>
       </c>
     </row>
-    <row r="560" spans="13:13">
+    <row r="560" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M560">
         <v>6653</v>
       </c>
     </row>
-    <row r="561" spans="13:13">
+    <row r="561" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M561">
         <v>6452</v>
       </c>
     </row>
-    <row r="562" spans="13:13">
+    <row r="562" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M562">
         <v>6496</v>
       </c>
     </row>
-    <row r="563" spans="13:13">
+    <row r="563" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M563">
         <v>7161</v>
       </c>
     </row>
-    <row r="564" spans="13:13">
+    <row r="564" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M564">
         <v>6098</v>
       </c>
     </row>
-    <row r="565" spans="13:13">
+    <row r="565" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M565">
         <v>6810</v>
       </c>
     </row>
-    <row r="566" spans="13:13">
+    <row r="566" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M566">
         <v>6915</v>
       </c>
     </row>
-    <row r="567" spans="13:13">
+    <row r="567" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M567">
         <v>6769</v>
       </c>
     </row>
-    <row r="568" spans="13:13">
+    <row r="568" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M568">
         <v>5396</v>
       </c>
     </row>
-    <row r="569" spans="13:13">
+    <row r="569" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M569">
         <v>6002</v>
       </c>
     </row>
-    <row r="570" spans="13:13">
+    <row r="570" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M570">
         <v>7256</v>
       </c>
     </row>
-    <row r="571" spans="13:13">
+    <row r="571" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M571">
         <v>6909</v>
       </c>
     </row>
-    <row r="572" spans="13:13">
+    <row r="572" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M572">
         <v>6057</v>
       </c>
     </row>
-    <row r="573" spans="13:13">
+    <row r="573" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M573">
         <v>6294</v>
       </c>
     </row>
-    <row r="574" spans="13:13">
+    <row r="574" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M574">
         <v>6398</v>
       </c>
     </row>
-    <row r="575" spans="13:13">
+    <row r="575" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M575">
         <v>6094</v>
       </c>
     </row>
-    <row r="576" spans="13:13">
+    <row r="576" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M576">
         <v>6510</v>
       </c>
     </row>
-    <row r="577" spans="13:13">
+    <row r="577" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M577">
         <v>6007</v>
       </c>
     </row>
-    <row r="578" spans="13:13">
+    <row r="578" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M578">
         <v>7659</v>
       </c>
     </row>
-    <row r="579" spans="13:13">
+    <row r="579" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M579">
         <v>7315</v>
       </c>
     </row>
-    <row r="580" spans="13:13">
+    <row r="580" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M580">
         <v>6102</v>
       </c>
     </row>
-    <row r="581" spans="13:13">
+    <row r="581" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M581">
         <v>6854</v>
       </c>
     </row>
-    <row r="582" spans="13:13">
+    <row r="582" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M582">
         <v>6699</v>
       </c>
     </row>
-    <row r="583" spans="13:13">
+    <row r="583" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M583">
         <v>7563</v>
       </c>
     </row>
-    <row r="584" spans="13:13">
+    <row r="584" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M584">
         <v>6121</v>
       </c>
     </row>
-    <row r="585" spans="13:13">
+    <row r="585" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M585">
         <v>6796</v>
       </c>
     </row>
-    <row r="586" spans="13:13">
+    <row r="586" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M586">
         <v>6828</v>
       </c>
     </row>
-    <row r="587" spans="13:13">
+    <row r="587" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M587">
         <v>6699</v>
       </c>
     </row>
-    <row r="588" spans="13:13">
+    <row r="588" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M588">
         <v>6801</v>
       </c>
     </row>
-    <row r="589" spans="13:13">
+    <row r="589" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M589">
         <v>6921</v>
       </c>
     </row>
-    <row r="590" spans="13:13">
+    <row r="590" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M590">
         <v>6247</v>
       </c>
     </row>
-    <row r="591" spans="13:13">
+    <row r="591" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M591">
         <v>6728</v>
       </c>
     </row>
-    <row r="592" spans="13:13">
+    <row r="592" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M592">
         <v>7399</v>
       </c>
     </row>
-    <row r="593" spans="13:13">
+    <row r="593" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M593">
         <v>6543</v>
       </c>
     </row>
-    <row r="594" spans="13:13">
+    <row r="594" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M594">
         <v>6691</v>
       </c>
     </row>
-    <row r="595" spans="13:13">
+    <row r="595" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M595">
         <v>8081</v>
       </c>
     </row>
-    <row r="596" spans="13:13">
+    <row r="596" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M596">
         <v>7050</v>
       </c>
     </row>
-    <row r="597" spans="13:13">
+    <row r="597" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M597">
         <v>6037</v>
       </c>
     </row>
-    <row r="598" spans="13:13">
+    <row r="598" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M598">
         <v>6143</v>
       </c>
     </row>
-    <row r="599" spans="13:13">
+    <row r="599" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M599">
         <v>6186</v>
       </c>
     </row>
-    <row r="600" spans="13:13">
+    <row r="600" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M600">
         <v>7934</v>
       </c>
     </row>
-    <row r="601" spans="13:13">
+    <row r="601" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M601">
         <v>6609</v>
       </c>
     </row>
-    <row r="602" spans="13:13">
+    <row r="602" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M602">
         <v>6931</v>
       </c>
     </row>
-    <row r="603" spans="13:13">
+    <row r="603" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M603">
         <v>7273</v>
       </c>
     </row>
-    <row r="604" spans="13:13">
+    <row r="604" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M604">
         <v>7279</v>
       </c>
     </row>
-    <row r="605" spans="13:13">
+    <row r="605" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M605">
         <v>6939</v>
       </c>
     </row>
-    <row r="606" spans="13:13">
+    <row r="606" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M606">
         <v>6745</v>
       </c>
     </row>
-    <row r="607" spans="13:13">
+    <row r="607" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M607">
         <v>7521</v>
       </c>
     </row>
-    <row r="608" spans="13:13">
+    <row r="608" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M608">
         <v>6824</v>
       </c>
     </row>
-    <row r="609" spans="13:13">
+    <row r="609" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M609">
         <v>6339</v>
       </c>
     </row>
-    <row r="610" spans="13:13">
+    <row r="610" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M610">
         <v>5822</v>
       </c>
     </row>
-    <row r="611" spans="13:13">
+    <row r="611" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M611">
         <v>7178</v>
       </c>
     </row>
-    <row r="612" spans="13:13">
+    <row r="612" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M612">
         <v>6982</v>
       </c>
     </row>
-    <row r="613" spans="13:13">
+    <row r="613" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M613">
         <v>6031</v>
       </c>
     </row>
-    <row r="614" spans="13:13">
+    <row r="614" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M614">
         <v>6561</v>
       </c>
     </row>
-    <row r="615" spans="13:13">
+    <row r="615" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M615">
         <v>6701</v>
       </c>
     </row>
-    <row r="616" spans="13:13">
+    <row r="616" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M616">
         <v>6727</v>
       </c>
     </row>
-    <row r="617" spans="13:13">
+    <row r="617" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M617">
         <v>6724</v>
       </c>
     </row>
-    <row r="618" spans="13:13">
+    <row r="618" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M618">
         <v>6829</v>
       </c>
     </row>
-    <row r="619" spans="13:13">
+    <row r="619" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M619">
         <v>6624</v>
       </c>
     </row>
-    <row r="620" spans="13:13">
+    <row r="620" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M620">
         <v>6166</v>
       </c>
     </row>
-    <row r="621" spans="13:13">
+    <row r="621" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M621">
         <v>6666</v>
       </c>
     </row>
-    <row r="622" spans="13:13">
+    <row r="622" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M622">
         <v>6741</v>
       </c>
     </row>
-    <row r="623" spans="13:13">
+    <row r="623" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M623">
         <v>6323</v>
       </c>
     </row>
-    <row r="624" spans="13:13">
+    <row r="624" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M624">
         <v>6495</v>
       </c>
     </row>
-    <row r="625" spans="13:13">
+    <row r="625" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M625">
         <v>6195</v>
       </c>
     </row>
-    <row r="626" spans="13:13">
+    <row r="626" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M626">
         <v>6243</v>
       </c>
     </row>
-    <row r="627" spans="13:13">
+    <row r="627" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M627">
         <v>6235</v>
       </c>
     </row>
-    <row r="628" spans="13:13">
+    <row r="628" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M628">
         <v>6746</v>
       </c>
     </row>
-    <row r="629" spans="13:13">
+    <row r="629" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M629">
         <v>6943</v>
       </c>
     </row>
-    <row r="630" spans="13:13">
+    <row r="630" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M630">
         <v>7432</v>
       </c>
     </row>
-    <row r="631" spans="13:13">
+    <row r="631" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M631">
         <v>6643</v>
       </c>
     </row>
-    <row r="632" spans="13:13">
+    <row r="632" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M632">
         <v>6371</v>
       </c>
     </row>
-    <row r="633" spans="13:13">
+    <row r="633" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M633">
         <v>7078</v>
       </c>
     </row>
-    <row r="634" spans="13:13">
+    <row r="634" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M634">
         <v>6940</v>
       </c>
     </row>
-    <row r="635" spans="13:13">
+    <row r="635" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M635">
         <v>6708</v>
       </c>
     </row>
-    <row r="636" spans="13:13">
+    <row r="636" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M636">
         <v>6392</v>
       </c>
     </row>
-    <row r="637" spans="13:13">
+    <row r="637" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M637">
         <v>6784</v>
       </c>
     </row>
-    <row r="638" spans="13:13">
+    <row r="638" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M638">
         <v>5735</v>
       </c>
     </row>
-    <row r="639" spans="13:13">
+    <row r="639" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M639">
         <v>6431</v>
       </c>
     </row>
-    <row r="640" spans="13:13">
+    <row r="640" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M640">
         <v>7361</v>
       </c>
     </row>
-    <row r="641" spans="13:13">
+    <row r="641" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M641">
         <v>6991</v>
       </c>
     </row>
-    <row r="642" spans="13:13">
+    <row r="642" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M642">
         <v>6169</v>
       </c>
     </row>
-    <row r="643" spans="13:13">
+    <row r="643" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M643">
         <v>6826</v>
       </c>
     </row>
-    <row r="644" spans="13:13">
+    <row r="644" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M644">
         <v>6786</v>
       </c>
     </row>
-    <row r="645" spans="13:13">
+    <row r="645" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M645">
         <v>6734</v>
       </c>
     </row>
-    <row r="646" spans="13:13">
+    <row r="646" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M646">
         <v>6625</v>
       </c>
     </row>
-    <row r="647" spans="13:13">
+    <row r="647" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M647">
         <v>6489</v>
       </c>
     </row>
-    <row r="648" spans="13:13">
+    <row r="648" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M648">
         <v>7015</v>
       </c>
     </row>
-    <row r="649" spans="13:13">
+    <row r="649" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M649">
         <v>6157</v>
       </c>
     </row>
-    <row r="650" spans="13:13">
+    <row r="650" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M650">
         <v>5969</v>
       </c>
     </row>
-    <row r="651" spans="13:13">
+    <row r="651" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M651">
         <v>6391</v>
       </c>
     </row>
-    <row r="652" spans="13:13">
+    <row r="652" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M652">
         <v>6539</v>
       </c>
     </row>
-    <row r="653" spans="13:13">
+    <row r="653" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M653">
         <v>6198</v>
       </c>
     </row>
-    <row r="654" spans="13:13">
+    <row r="654" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M654">
         <v>6062</v>
       </c>
     </row>
-    <row r="655" spans="13:13">
+    <row r="655" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M655">
         <v>6229</v>
       </c>
     </row>
-    <row r="656" spans="13:13">
+    <row r="656" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M656">
         <v>6618</v>
       </c>
     </row>
-    <row r="657" spans="13:13">
+    <row r="657" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M657">
         <v>7533</v>
       </c>
     </row>
-    <row r="658" spans="13:13">
+    <row r="658" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M658">
         <v>6189</v>
       </c>
     </row>
-    <row r="659" spans="13:13">
+    <row r="659" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M659">
         <v>6531</v>
       </c>
     </row>
-    <row r="660" spans="13:13">
+    <row r="660" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M660">
         <v>6151</v>
       </c>
     </row>
-    <row r="661" spans="13:13">
+    <row r="661" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M661">
         <v>6411</v>
       </c>
     </row>
-    <row r="662" spans="13:13">
+    <row r="662" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M662">
         <v>6316</v>
       </c>
     </row>
-    <row r="663" spans="13:13">
+    <row r="663" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M663">
         <v>7731</v>
       </c>
     </row>
-    <row r="664" spans="13:13">
+    <row r="664" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M664">
         <v>5891</v>
       </c>
     </row>
-    <row r="665" spans="13:13">
+    <row r="665" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M665">
         <v>7628</v>
       </c>
     </row>
-    <row r="666" spans="13:13">
+    <row r="666" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M666">
         <v>6900</v>
       </c>
     </row>
-    <row r="667" spans="13:13">
+    <row r="667" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M667">
         <v>7049</v>
       </c>
     </row>
-    <row r="668" spans="13:13">
+    <row r="668" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M668">
         <v>6333</v>
       </c>
     </row>
-    <row r="669" spans="13:13">
+    <row r="669" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M669">
         <v>6179</v>
       </c>
     </row>
-    <row r="670" spans="13:13">
+    <row r="670" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M670">
         <v>6438</v>
       </c>
     </row>
-    <row r="671" spans="13:13">
+    <row r="671" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M671">
         <v>6602</v>
       </c>
     </row>
-    <row r="672" spans="13:13">
+    <row r="672" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M672">
         <v>6883</v>
       </c>
     </row>
-    <row r="673" spans="13:13">
+    <row r="673" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M673">
         <v>7563</v>
       </c>
     </row>
-    <row r="674" spans="13:13">
+    <row r="674" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M674">
         <v>7074</v>
       </c>
     </row>
-    <row r="675" spans="13:13">
+    <row r="675" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M675">
         <v>6284</v>
       </c>
     </row>
-    <row r="676" spans="13:13">
+    <row r="676" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M676">
         <v>6880</v>
       </c>
     </row>
-    <row r="677" spans="13:13">
+    <row r="677" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M677">
         <v>7166</v>
       </c>
     </row>
-    <row r="678" spans="13:13">
+    <row r="678" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M678">
         <v>6548</v>
       </c>
     </row>
-    <row r="679" spans="13:13">
+    <row r="679" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M679">
         <v>6282</v>
       </c>
     </row>
-    <row r="680" spans="13:13">
+    <row r="680" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M680">
         <v>7339</v>
       </c>
     </row>
-    <row r="681" spans="13:13">
+    <row r="681" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M681">
         <v>5721</v>
       </c>
     </row>
-    <row r="682" spans="13:13">
+    <row r="682" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M682">
         <v>6767</v>
       </c>
     </row>
-    <row r="683" spans="13:13">
+    <row r="683" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M683">
         <v>6807</v>
       </c>
     </row>
-    <row r="684" spans="13:13">
+    <row r="684" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M684">
         <v>7438</v>
       </c>
     </row>
-    <row r="685" spans="13:13">
+    <row r="685" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M685">
         <v>7220</v>
       </c>
     </row>
-    <row r="686" spans="13:13">
+    <row r="686" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M686">
         <v>6639</v>
       </c>
     </row>
-    <row r="687" spans="13:13">
+    <row r="687" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M687">
         <v>6228</v>
       </c>
     </row>
-    <row r="688" spans="13:13">
+    <row r="688" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M688">
         <v>7551</v>
       </c>
     </row>
-    <row r="689" spans="13:13">
+    <row r="689" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M689">
         <v>7166</v>
       </c>
     </row>
-    <row r="690" spans="13:13">
+    <row r="690" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M690">
         <v>7181</v>
       </c>
     </row>
-    <row r="691" spans="13:13">
+    <row r="691" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M691">
         <v>6710</v>
       </c>
     </row>
-    <row r="692" spans="13:13">
+    <row r="692" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M692">
         <v>6987</v>
       </c>
     </row>
-    <row r="693" spans="13:13">
+    <row r="693" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M693">
         <v>7037</v>
       </c>
     </row>
-    <row r="694" spans="13:13">
+    <row r="694" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M694">
         <v>6554</v>
       </c>
     </row>
-    <row r="695" spans="13:13">
+    <row r="695" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M695">
         <v>6963</v>
       </c>
     </row>
-    <row r="696" spans="13:13">
+    <row r="696" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M696">
         <v>7026</v>
       </c>
     </row>
-    <row r="697" spans="13:13">
+    <row r="697" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M697">
         <v>6548</v>
       </c>
     </row>
-    <row r="698" spans="13:13">
+    <row r="698" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M698">
         <v>6301</v>
       </c>
     </row>
-    <row r="699" spans="13:13">
+    <row r="699" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M699">
         <v>6515</v>
       </c>
     </row>
-    <row r="700" spans="13:13">
+    <row r="700" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M700">
         <v>6243</v>
       </c>
     </row>
-    <row r="701" spans="13:13">
+    <row r="701" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M701">
         <v>6923</v>
       </c>
     </row>
-    <row r="702" spans="13:13">
+    <row r="702" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M702">
         <v>6486</v>
       </c>
     </row>
-    <row r="703" spans="13:13">
+    <row r="703" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M703">
         <v>7209</v>
       </c>
     </row>
-    <row r="704" spans="13:13">
+    <row r="704" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M704">
         <v>6013</v>
       </c>
     </row>
-    <row r="705" spans="13:13">
+    <row r="705" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M705">
         <v>6613</v>
       </c>
     </row>
-    <row r="706" spans="13:13">
+    <row r="706" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M706">
         <v>6618</v>
       </c>
     </row>
-    <row r="707" spans="13:13">
+    <row r="707" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M707">
         <v>6568</v>
       </c>
     </row>
-    <row r="708" spans="13:13">
+    <row r="708" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M708">
         <v>5940</v>
       </c>
     </row>
-    <row r="709" spans="13:13">
+    <row r="709" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M709">
         <v>6369</v>
       </c>
     </row>
-    <row r="710" spans="13:13">
+    <row r="710" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M710">
         <v>7203</v>
       </c>
     </row>
-    <row r="711" spans="13:13">
+    <row r="711" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M711">
         <v>7267</v>
       </c>
     </row>
-    <row r="712" spans="13:13">
+    <row r="712" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M712">
         <v>6461</v>
       </c>
     </row>
-    <row r="713" spans="13:13">
+    <row r="713" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M713">
         <v>6019</v>
       </c>
     </row>
-    <row r="714" spans="13:13">
+    <row r="714" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M714">
         <v>6808</v>
       </c>
     </row>
-    <row r="715" spans="13:13">
+    <row r="715" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M715">
         <v>6983</v>
       </c>
     </row>
-    <row r="716" spans="13:13">
+    <row r="716" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M716">
         <v>7238</v>
       </c>
     </row>
-    <row r="717" spans="13:13">
+    <row r="717" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M717">
         <v>6540</v>
       </c>
     </row>
-    <row r="718" spans="13:13">
+    <row r="718" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M718">
         <v>6952</v>
       </c>
     </row>
-    <row r="719" spans="13:13">
+    <row r="719" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M719">
         <v>6977</v>
       </c>
     </row>
-    <row r="720" spans="13:13">
+    <row r="720" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M720">
         <v>6301</v>
       </c>
     </row>
-    <row r="721" spans="13:13">
+    <row r="721" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M721">
         <v>6551</v>
       </c>
     </row>
-    <row r="722" spans="13:13">
+    <row r="722" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M722">
         <v>6379</v>
       </c>
     </row>
-    <row r="723" spans="13:13">
+    <row r="723" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M723">
         <v>6749</v>
       </c>
     </row>
-    <row r="724" spans="13:13">
+    <row r="724" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M724">
         <v>6660</v>
       </c>
     </row>
-    <row r="725" spans="13:13">
+    <row r="725" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M725">
         <v>6704</v>
       </c>
     </row>
-    <row r="726" spans="13:13">
+    <row r="726" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M726">
         <v>6542</v>
       </c>
     </row>
-    <row r="727" spans="13:13">
+    <row r="727" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M727">
         <v>7312</v>
       </c>
     </row>
-    <row r="728" spans="13:13">
+    <row r="728" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M728">
         <v>5832</v>
       </c>
     </row>
-    <row r="729" spans="13:13">
+    <row r="729" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M729">
         <v>6834</v>
       </c>
     </row>
-    <row r="730" spans="13:13">
+    <row r="730" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M730">
         <v>7316</v>
       </c>
     </row>
-    <row r="731" spans="13:13">
+    <row r="731" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M731">
         <v>6478</v>
       </c>
     </row>
-    <row r="732" spans="13:13">
+    <row r="732" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M732">
         <v>6970</v>
       </c>
     </row>
-    <row r="733" spans="13:13">
+    <row r="733" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M733">
         <v>6570</v>
       </c>
     </row>
-    <row r="734" spans="13:13">
+    <row r="734" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M734">
         <v>6401</v>
       </c>
     </row>
-    <row r="735" spans="13:13">
+    <row r="735" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M735">
         <v>7512</v>
       </c>
     </row>
-    <row r="736" spans="13:13">
+    <row r="736" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M736">
         <v>6566</v>
       </c>
     </row>
-    <row r="737" spans="13:13">
+    <row r="737" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M737">
         <v>6696</v>
       </c>
     </row>
-    <row r="738" spans="13:13">
+    <row r="738" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M738">
         <v>6939</v>
       </c>
     </row>
-    <row r="739" spans="13:13">
+    <row r="739" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M739">
         <v>6505</v>
       </c>
     </row>
-    <row r="740" spans="13:13">
+    <row r="740" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M740">
         <v>6898</v>
       </c>
     </row>
-    <row r="741" spans="13:13">
+    <row r="741" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M741">
         <v>7250</v>
       </c>
     </row>
-    <row r="742" spans="13:13">
+    <row r="742" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M742">
         <v>6005</v>
       </c>
     </row>
-    <row r="743" spans="13:13">
+    <row r="743" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M743">
         <v>7131</v>
       </c>
     </row>
-    <row r="744" spans="13:13">
+    <row r="744" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M744">
         <v>7049</v>
       </c>
     </row>
-    <row r="745" spans="13:13">
+    <row r="745" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M745">
         <v>7058</v>
       </c>
     </row>
-    <row r="746" spans="13:13">
+    <row r="746" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M746">
         <v>7585</v>
       </c>
     </row>
-    <row r="747" spans="13:13">
+    <row r="747" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M747">
         <v>6949</v>
       </c>
     </row>
-    <row r="748" spans="13:13">
+    <row r="748" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M748">
         <v>6790</v>
       </c>
     </row>
-    <row r="749" spans="13:13">
+    <row r="749" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M749">
         <v>5985</v>
       </c>
     </row>
-    <row r="750" spans="13:13">
+    <row r="750" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M750">
         <v>6603</v>
       </c>
     </row>
-    <row r="751" spans="13:13">
+    <row r="751" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M751">
         <v>7059</v>
       </c>
     </row>
-    <row r="752" spans="13:13">
+    <row r="752" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M752">
         <v>7131</v>
       </c>
     </row>
-    <row r="753" spans="13:13">
+    <row r="753" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M753">
         <v>7218</v>
       </c>
     </row>
-    <row r="754" spans="13:13">
+    <row r="754" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M754">
         <v>6667</v>
       </c>
     </row>
-    <row r="755" spans="13:13">
+    <row r="755" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M755">
         <v>6697</v>
       </c>
     </row>
-    <row r="756" spans="13:13">
+    <row r="756" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M756">
         <v>6401</v>
       </c>
     </row>
-    <row r="757" spans="13:13">
+    <row r="757" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M757">
         <v>6529</v>
       </c>
     </row>
-    <row r="758" spans="13:13">
+    <row r="758" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M758">
         <v>7456</v>
       </c>
     </row>
-    <row r="759" spans="13:13">
+    <row r="759" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M759">
         <v>8029</v>
       </c>
     </row>
-    <row r="760" spans="13:13">
+    <row r="760" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M760">
         <v>7228</v>
       </c>
     </row>
-    <row r="761" spans="13:13">
+    <row r="761" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M761">
         <v>7259</v>
       </c>
     </row>
-    <row r="762" spans="13:13">
+    <row r="762" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M762">
         <v>6484</v>
       </c>
     </row>
-    <row r="763" spans="13:13">
+    <row r="763" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M763">
         <v>7020</v>
       </c>
     </row>
-    <row r="764" spans="13:13">
+    <row r="764" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M764">
         <v>6357</v>
       </c>
     </row>
-    <row r="765" spans="13:13">
+    <row r="765" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M765">
         <v>7358</v>
       </c>
     </row>
-    <row r="766" spans="13:13">
+    <row r="766" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M766">
         <v>6172</v>
       </c>
     </row>
-    <row r="767" spans="13:13">
+    <row r="767" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M767">
         <v>7155</v>
       </c>
     </row>
-    <row r="768" spans="13:13">
+    <row r="768" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M768">
         <v>6146</v>
       </c>
     </row>
-    <row r="769" spans="13:13">
+    <row r="769" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M769">
         <v>6166</v>
       </c>
     </row>
-    <row r="770" spans="13:13">
+    <row r="770" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M770">
         <v>6965</v>
       </c>
     </row>
-    <row r="771" spans="13:13">
+    <row r="771" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M771">
         <v>7464</v>
       </c>
     </row>
-    <row r="772" spans="13:13">
+    <row r="772" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M772">
         <v>6435</v>
       </c>
     </row>
-    <row r="773" spans="13:13">
+    <row r="773" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M773">
         <v>6575</v>
       </c>
     </row>
-    <row r="774" spans="13:13">
+    <row r="774" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M774">
         <v>6255</v>
       </c>
     </row>
-    <row r="775" spans="13:13">
+    <row r="775" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M775">
         <v>6584</v>
       </c>
     </row>
-    <row r="776" spans="13:13">
+    <row r="776" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M776">
         <v>6595</v>
       </c>
     </row>
-    <row r="777" spans="13:13">
+    <row r="777" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M777">
         <v>6721</v>
       </c>
     </row>
-    <row r="778" spans="13:13">
+    <row r="778" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M778">
         <v>6184</v>
       </c>
     </row>
-    <row r="779" spans="13:13">
+    <row r="779" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M779">
         <v>6910</v>
       </c>
     </row>
-    <row r="780" spans="13:13">
+    <row r="780" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M780">
         <v>7028</v>
       </c>
     </row>
-    <row r="781" spans="13:13">
+    <row r="781" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M781">
         <v>7084</v>
       </c>
     </row>
-    <row r="782" spans="13:13">
+    <row r="782" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M782">
         <v>6541</v>
       </c>
     </row>
-    <row r="783" spans="13:13">
+    <row r="783" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M783">
         <v>6989</v>
       </c>
     </row>
-    <row r="784" spans="13:13">
+    <row r="784" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M784">
         <v>7407</v>
       </c>
     </row>
-    <row r="785" spans="13:13">
+    <row r="785" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M785">
         <v>6932</v>
       </c>
     </row>
-    <row r="786" spans="13:13">
+    <row r="786" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M786">
         <v>6522</v>
       </c>
     </row>
-    <row r="787" spans="13:13">
+    <row r="787" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M787">
         <v>7234</v>
       </c>
     </row>
-    <row r="788" spans="13:13">
+    <row r="788" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M788">
         <v>6323</v>
       </c>
     </row>
-    <row r="789" spans="13:13">
+    <row r="789" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M789">
         <v>6721</v>
       </c>
     </row>
-    <row r="790" spans="13:13">
+    <row r="790" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M790">
         <v>6483</v>
       </c>
     </row>
-    <row r="791" spans="13:13">
+    <row r="791" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M791">
         <v>6710</v>
       </c>
     </row>
-    <row r="792" spans="13:13">
+    <row r="792" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M792">
         <v>6910</v>
       </c>
     </row>
-    <row r="793" spans="13:13">
+    <row r="793" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M793">
         <v>6855</v>
       </c>
     </row>
-    <row r="794" spans="13:13">
+    <row r="794" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M794">
         <v>6703</v>
       </c>
     </row>
-    <row r="795" spans="13:13">
+    <row r="795" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M795">
         <v>6631</v>
       </c>
     </row>
-    <row r="796" spans="13:13">
+    <row r="796" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M796">
         <v>6089</v>
       </c>
     </row>
-    <row r="797" spans="13:13">
+    <row r="797" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M797">
         <v>6948</v>
       </c>
     </row>
-    <row r="798" spans="13:13">
+    <row r="798" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M798">
         <v>7140</v>
       </c>
     </row>
-    <row r="799" spans="13:13">
+    <row r="799" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M799">
         <v>7431</v>
       </c>
     </row>
-    <row r="800" spans="13:13">
+    <row r="800" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M800">
         <v>6950</v>
       </c>
     </row>
-    <row r="801" spans="13:13">
+    <row r="801" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M801">
         <v>6360</v>
       </c>
     </row>
-    <row r="802" spans="13:13">
+    <row r="802" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M802">
         <v>7283</v>
       </c>
     </row>
-    <row r="803" spans="13:13">
+    <row r="803" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M803">
         <v>6520</v>
       </c>
     </row>
-    <row r="804" spans="13:13">
+    <row r="804" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M804">
         <v>6607</v>
       </c>
     </row>
-    <row r="805" spans="13:13">
+    <row r="805" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M805">
         <v>6675</v>
       </c>
     </row>
-    <row r="806" spans="13:13">
+    <row r="806" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M806">
         <v>5927</v>
       </c>
     </row>
-    <row r="807" spans="13:13">
+    <row r="807" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M807">
         <v>7183</v>
       </c>
     </row>
-    <row r="808" spans="13:13">
+    <row r="808" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M808">
         <v>7177</v>
       </c>
     </row>
-    <row r="809" spans="13:13">
+    <row r="809" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M809">
         <v>6417</v>
       </c>
     </row>
-    <row r="810" spans="13:13">
+    <row r="810" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M810">
         <v>6741</v>
       </c>
     </row>
-    <row r="811" spans="13:13">
+    <row r="811" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M811">
         <v>6517</v>
       </c>
     </row>
-    <row r="812" spans="13:13">
+    <row r="812" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M812">
         <v>6556</v>
       </c>
     </row>
-    <row r="813" spans="13:13">
+    <row r="813" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M813">
         <v>6963</v>
       </c>
     </row>
-    <row r="814" spans="13:13">
+    <row r="814" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M814">
         <v>7063</v>
       </c>
     </row>
-    <row r="815" spans="13:13">
+    <row r="815" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M815">
         <v>6709</v>
       </c>
     </row>
-    <row r="816" spans="13:13">
+    <row r="816" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M816">
         <v>6459</v>
       </c>
     </row>
-    <row r="817" spans="13:13">
+    <row r="817" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M817">
         <v>7202</v>
       </c>
     </row>
-    <row r="818" spans="13:13">
+    <row r="818" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M818">
         <v>7402</v>
       </c>
     </row>
-    <row r="819" spans="13:13">
+    <row r="819" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M819">
         <v>7176</v>
       </c>
     </row>
-    <row r="820" spans="13:13">
+    <row r="820" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M820">
         <v>6113</v>
       </c>
     </row>
-    <row r="821" spans="13:13">
+    <row r="821" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M821">
         <v>6745</v>
       </c>
     </row>
-    <row r="822" spans="13:13">
+    <row r="822" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M822">
         <v>6461</v>
       </c>
     </row>
-    <row r="823" spans="13:13">
+    <row r="823" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M823">
         <v>6898</v>
       </c>
     </row>
-    <row r="824" spans="13:13">
+    <row r="824" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M824">
         <v>6965</v>
       </c>
     </row>
-    <row r="825" spans="13:13">
+    <row r="825" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M825">
         <v>7027</v>
       </c>
     </row>
-    <row r="826" spans="13:13">
+    <row r="826" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M826">
         <v>6377</v>
       </c>
     </row>
-    <row r="827" spans="13:13">
+    <row r="827" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M827">
         <v>6867</v>
       </c>
     </row>
-    <row r="828" spans="13:13">
+    <row r="828" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M828">
         <v>6684</v>
       </c>
     </row>
-    <row r="829" spans="13:13">
+    <row r="829" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M829">
         <v>7191</v>
       </c>
     </row>
-    <row r="830" spans="13:13">
+    <row r="830" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M830">
         <v>6787</v>
       </c>
     </row>
-    <row r="831" spans="13:13">
+    <row r="831" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M831">
         <v>6635</v>
       </c>
     </row>
-    <row r="832" spans="13:13">
+    <row r="832" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M832">
         <v>7139</v>
       </c>
     </row>
-    <row r="833" spans="13:13">
+    <row r="833" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M833">
         <v>6838</v>
       </c>
     </row>
-    <row r="834" spans="13:13">
+    <row r="834" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M834">
         <v>6482</v>
       </c>
     </row>
-    <row r="835" spans="13:13">
+    <row r="835" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M835">
         <v>6396</v>
       </c>
     </row>
-    <row r="836" spans="13:13">
+    <row r="836" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M836">
         <v>7136</v>
       </c>
     </row>
-    <row r="837" spans="13:13">
+    <row r="837" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M837">
         <v>6306</v>
       </c>
     </row>
-    <row r="838" spans="13:13">
+    <row r="838" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M838">
         <v>6913</v>
       </c>
     </row>
-    <row r="839" spans="13:13">
+    <row r="839" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M839">
         <v>6703</v>
       </c>
     </row>
-    <row r="840" spans="13:13">
+    <row r="840" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M840">
         <v>6614</v>
       </c>
     </row>
-    <row r="841" spans="13:13">
+    <row r="841" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M841">
         <v>6346</v>
       </c>
     </row>
-    <row r="842" spans="13:13">
+    <row r="842" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M842">
         <v>6156</v>
       </c>
     </row>
-    <row r="843" spans="13:13">
+    <row r="843" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M843">
         <v>6333</v>
       </c>
     </row>
-    <row r="844" spans="13:13">
+    <row r="844" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M844">
         <v>7204</v>
       </c>
     </row>
-    <row r="845" spans="13:13">
+    <row r="845" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M845">
         <v>6530</v>
       </c>
     </row>
-    <row r="846" spans="13:13">
+    <row r="846" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M846">
         <v>7577</v>
       </c>
     </row>
-    <row r="847" spans="13:13">
+    <row r="847" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M847">
         <v>6823</v>
       </c>
     </row>
-    <row r="848" spans="13:13">
+    <row r="848" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M848">
         <v>6724</v>
       </c>
     </row>
-    <row r="849" spans="13:13">
+    <row r="849" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M849">
         <v>7350</v>
       </c>
     </row>
-    <row r="850" spans="13:13">
+    <row r="850" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M850">
         <v>6858</v>
       </c>
     </row>
-    <row r="851" spans="13:13">
+    <row r="851" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M851">
         <v>6517</v>
       </c>
     </row>
-    <row r="852" spans="13:13">
+    <row r="852" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M852">
         <v>5943</v>
       </c>
     </row>
-    <row r="853" spans="13:13">
+    <row r="853" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M853">
         <v>7587</v>
       </c>
     </row>
-    <row r="854" spans="13:13">
+    <row r="854" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M854">
         <v>6537</v>
       </c>
     </row>
-    <row r="855" spans="13:13">
+    <row r="855" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M855">
         <v>6424</v>
       </c>
     </row>
-    <row r="856" spans="13:13">
+    <row r="856" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M856">
         <v>7591</v>
       </c>
     </row>
-    <row r="857" spans="13:13">
+    <row r="857" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M857">
         <v>6687</v>
       </c>
     </row>
-    <row r="858" spans="13:13">
+    <row r="858" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M858">
         <v>6553</v>
       </c>
     </row>
-    <row r="859" spans="13:13">
+    <row r="859" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M859">
         <v>6860</v>
       </c>
     </row>
-    <row r="860" spans="13:13">
+    <row r="860" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M860">
         <v>7205</v>
       </c>
     </row>
-    <row r="861" spans="13:13">
+    <row r="861" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M861">
         <v>7179</v>
       </c>
     </row>
-    <row r="862" spans="13:13">
+    <row r="862" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M862">
         <v>6712</v>
       </c>
     </row>
-    <row r="863" spans="13:13">
+    <row r="863" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M863">
         <v>6908</v>
       </c>
     </row>
-    <row r="864" spans="13:13">
+    <row r="864" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M864">
         <v>6329</v>
       </c>
     </row>
-    <row r="865" spans="13:13">
+    <row r="865" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M865">
         <v>7438</v>
       </c>
     </row>
-    <row r="866" spans="13:13">
+    <row r="866" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M866">
         <v>6883</v>
       </c>
     </row>
-    <row r="867" spans="13:13">
+    <row r="867" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M867">
         <v>5982</v>
       </c>
     </row>
-    <row r="868" spans="13:13">
+    <row r="868" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M868">
         <v>7241</v>
       </c>
     </row>
-    <row r="869" spans="13:13">
+    <row r="869" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M869">
         <v>7212</v>
       </c>
     </row>
-    <row r="870" spans="13:13">
+    <row r="870" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M870">
         <v>7876</v>
       </c>
     </row>
-    <row r="871" spans="13:13">
+    <row r="871" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M871">
         <v>7127</v>
       </c>
     </row>
-    <row r="872" spans="13:13">
+    <row r="872" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M872">
         <v>6457</v>
       </c>
     </row>
-    <row r="873" spans="13:13">
+    <row r="873" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M873">
         <v>7222</v>
       </c>
     </row>
-    <row r="874" spans="13:13">
+    <row r="874" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M874">
         <v>6833</v>
       </c>
     </row>
-    <row r="875" spans="13:13">
+    <row r="875" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M875">
         <v>6400</v>
       </c>
     </row>
-    <row r="876" spans="13:13">
+    <row r="876" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M876">
         <v>7163</v>
       </c>
     </row>
-    <row r="877" spans="13:13">
+    <row r="877" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M877">
         <v>5911</v>
       </c>
     </row>
-    <row r="878" spans="13:13">
+    <row r="878" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M878">
         <v>7484</v>
       </c>
     </row>
-    <row r="879" spans="13:13">
+    <row r="879" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M879">
         <v>6800</v>
       </c>
     </row>
-    <row r="880" spans="13:13">
+    <row r="880" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M880">
         <v>6288</v>
       </c>
     </row>
-    <row r="881" spans="13:13">
+    <row r="881" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M881">
         <v>7289</v>
       </c>
     </row>
-    <row r="882" spans="13:13">
+    <row r="882" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M882">
         <v>7082</v>
       </c>
     </row>
-    <row r="883" spans="13:13">
+    <row r="883" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M883">
         <v>6461</v>
       </c>
     </row>
-    <row r="884" spans="13:13">
+    <row r="884" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M884">
         <v>7190</v>
       </c>
     </row>
-    <row r="885" spans="13:13">
+    <row r="885" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M885">
         <v>6193</v>
       </c>
     </row>
-    <row r="886" spans="13:13">
+    <row r="886" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M886">
         <v>6362</v>
       </c>
     </row>
-    <row r="887" spans="13:13">
+    <row r="887" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M887">
         <v>6390</v>
       </c>
     </row>
-    <row r="888" spans="13:13">
+    <row r="888" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M888">
         <v>6776</v>
       </c>
     </row>
-    <row r="889" spans="13:13">
+    <row r="889" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M889">
         <v>6163</v>
       </c>
     </row>
-    <row r="890" spans="13:13">
+    <row r="890" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M890">
         <v>6722</v>
       </c>
     </row>
-    <row r="891" spans="13:13">
+    <row r="891" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M891">
         <v>6453</v>
       </c>
     </row>
-    <row r="892" spans="13:13">
+    <row r="892" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M892">
         <v>6401</v>
       </c>
     </row>
-    <row r="893" spans="13:13">
+    <row r="893" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M893">
         <v>6166</v>
       </c>
     </row>
-    <row r="894" spans="13:13">
+    <row r="894" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M894">
         <v>6149</v>
       </c>
     </row>
-    <row r="895" spans="13:13">
+    <row r="895" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M895">
         <v>6719</v>
       </c>
     </row>
-    <row r="896" spans="13:13">
+    <row r="896" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M896">
         <v>5959</v>
       </c>
     </row>
-    <row r="897" spans="13:13">
+    <row r="897" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M897">
         <v>6545</v>
       </c>
     </row>
-    <row r="898" spans="13:13">
+    <row r="898" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M898">
         <v>6873</v>
       </c>
     </row>
-    <row r="899" spans="13:13">
+    <row r="899" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M899">
         <v>7634</v>
       </c>
     </row>
-    <row r="900" spans="13:13">
+    <row r="900" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M900">
         <v>6825</v>
       </c>
     </row>
-    <row r="901" spans="13:13">
+    <row r="901" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M901">
         <v>6500</v>
       </c>
     </row>
-    <row r="902" spans="13:13">
+    <row r="902" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M902">
         <v>6201</v>
       </c>
     </row>
-    <row r="903" spans="13:13">
+    <row r="903" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M903">
         <v>6106</v>
       </c>
     </row>
-    <row r="904" spans="13:13">
+    <row r="904" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M904">
         <v>6521</v>
       </c>
     </row>
-    <row r="905" spans="13:13">
+    <row r="905" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M905">
         <v>6348</v>
       </c>
     </row>
-    <row r="906" spans="13:13">
+    <row r="906" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M906">
         <v>7065</v>
       </c>
     </row>
-    <row r="907" spans="13:13">
+    <row r="907" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M907">
         <v>6887</v>
       </c>
     </row>
-    <row r="908" spans="13:13">
+    <row r="908" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M908">
         <v>6506</v>
       </c>
     </row>
-    <row r="909" spans="13:13">
+    <row r="909" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M909">
         <v>6837</v>
       </c>
     </row>
-    <row r="910" spans="13:13">
+    <row r="910" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M910">
         <v>6561</v>
       </c>
     </row>
-    <row r="911" spans="13:13">
+    <row r="911" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M911">
         <v>6465</v>
       </c>
     </row>
-    <row r="912" spans="13:13">
+    <row r="912" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M912">
         <v>6932</v>
       </c>
     </row>
-    <row r="913" spans="13:13">
+    <row r="913" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M913">
         <v>6696</v>
       </c>
     </row>
-    <row r="914" spans="13:13">
+    <row r="914" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M914">
         <v>7156</v>
       </c>
     </row>
-    <row r="915" spans="13:13">
+    <row r="915" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M915">
         <v>6579</v>
       </c>
     </row>
-    <row r="916" spans="13:13">
+    <row r="916" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M916">
         <v>6864</v>
       </c>
     </row>
-    <row r="917" spans="13:13">
+    <row r="917" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M917">
         <v>6468</v>
       </c>
     </row>
-    <row r="918" spans="13:13">
+    <row r="918" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M918">
         <v>7169</v>
       </c>
     </row>
-    <row r="919" spans="13:13">
+    <row r="919" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M919">
         <v>6374</v>
       </c>
     </row>
-    <row r="920" spans="13:13">
+    <row r="920" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M920">
         <v>6827</v>
       </c>
     </row>
-    <row r="921" spans="13:13">
+    <row r="921" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M921">
         <v>6529</v>
       </c>
     </row>
-    <row r="922" spans="13:13">
+    <row r="922" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M922">
         <v>6548</v>
       </c>
     </row>
-    <row r="923" spans="13:13">
+    <row r="923" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M923">
         <v>6791</v>
       </c>
     </row>
-    <row r="924" spans="13:13">
+    <row r="924" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M924">
         <v>6824</v>
       </c>
     </row>
-    <row r="925" spans="13:13">
+    <row r="925" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M925">
         <v>6372</v>
       </c>
     </row>
-    <row r="926" spans="13:13">
+    <row r="926" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M926">
         <v>7052</v>
       </c>
     </row>
-    <row r="927" spans="13:13">
+    <row r="927" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M927">
         <v>6034</v>
       </c>
     </row>
-    <row r="928" spans="13:13">
+    <row r="928" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M928">
         <v>6877</v>
       </c>
     </row>
-    <row r="929" spans="13:13">
+    <row r="929" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M929">
         <v>6306</v>
       </c>
     </row>
-    <row r="930" spans="13:13">
+    <row r="930" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M930">
         <v>7526</v>
       </c>
     </row>
-    <row r="931" spans="13:13">
+    <row r="931" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M931">
         <v>6210</v>
       </c>
     </row>
-    <row r="932" spans="13:13">
+    <row r="932" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M932">
         <v>6537</v>
       </c>
     </row>
-    <row r="933" spans="13:13">
+    <row r="933" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M933">
         <v>6589</v>
       </c>
     </row>
-    <row r="934" spans="13:13">
+    <row r="934" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M934">
         <v>6871</v>
       </c>
     </row>
-    <row r="935" spans="13:13">
+    <row r="935" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M935">
         <v>7024</v>
       </c>
     </row>
-    <row r="936" spans="13:13">
+    <row r="936" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M936">
         <v>5907</v>
       </c>
     </row>
-    <row r="937" spans="13:13">
+    <row r="937" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M937">
         <v>7026</v>
       </c>
     </row>
-    <row r="938" spans="13:13">
+    <row r="938" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M938">
         <v>7503</v>
       </c>
     </row>
-    <row r="939" spans="13:13">
+    <row r="939" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M939">
         <v>7542</v>
       </c>
     </row>
-    <row r="940" spans="13:13">
+    <row r="940" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M940">
         <v>5684</v>
       </c>
     </row>
-    <row r="941" spans="13:13">
+    <row r="941" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M941">
         <v>6979</v>
       </c>
     </row>
-    <row r="942" spans="13:13">
+    <row r="942" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M942">
         <v>7455</v>
       </c>
     </row>
-    <row r="943" spans="13:13">
+    <row r="943" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M943">
         <v>6406</v>
       </c>
     </row>
-    <row r="944" spans="13:13">
+    <row r="944" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M944">
         <v>6170</v>
       </c>
     </row>
-    <row r="945" spans="13:13">
+    <row r="945" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M945">
         <v>6814</v>
       </c>
     </row>
-    <row r="946" spans="13:13">
+    <row r="946" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M946">
         <v>6280</v>
       </c>
     </row>
-    <row r="947" spans="13:13">
+    <row r="947" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M947">
         <v>6820</v>
       </c>
     </row>
-    <row r="948" spans="13:13">
+    <row r="948" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M948">
         <v>6175</v>
       </c>
     </row>
-    <row r="949" spans="13:13">
+    <row r="949" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M949">
         <v>6647</v>
       </c>
     </row>
-    <row r="950" spans="13:13">
+    <row r="950" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M950">
         <v>6817</v>
       </c>
     </row>
-    <row r="951" spans="13:13">
+    <row r="951" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M951">
         <v>6987</v>
       </c>
     </row>
-    <row r="952" spans="13:13">
+    <row r="952" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M952">
         <v>6463</v>
       </c>
     </row>
-    <row r="953" spans="13:13">
+    <row r="953" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M953">
         <v>7193</v>
       </c>
     </row>
-    <row r="954" spans="13:13">
+    <row r="954" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M954">
         <v>6241</v>
       </c>
     </row>
-    <row r="955" spans="13:13">
+    <row r="955" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M955">
         <v>6104</v>
       </c>
     </row>
-    <row r="956" spans="13:13">
+    <row r="956" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M956">
         <v>6506</v>
       </c>
     </row>
-    <row r="957" spans="13:13">
+    <row r="957" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M957">
         <v>6533</v>
       </c>
     </row>
-    <row r="958" spans="13:13">
+    <row r="958" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M958">
         <v>7046</v>
       </c>
     </row>
-    <row r="959" spans="13:13">
+    <row r="959" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M959">
         <v>6416</v>
       </c>
     </row>
-    <row r="960" spans="13:13">
+    <row r="960" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M960">
         <v>6276</v>
       </c>
     </row>
-    <row r="961" spans="13:13">
+    <row r="961" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M961">
         <v>6278</v>
       </c>
     </row>
-    <row r="962" spans="13:13">
+    <row r="962" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M962">
         <v>6743</v>
       </c>
     </row>
-    <row r="963" spans="13:13">
+    <row r="963" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M963">
         <v>6249</v>
       </c>
     </row>
-    <row r="964" spans="13:13">
+    <row r="964" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M964">
         <v>6863</v>
       </c>
     </row>
-    <row r="965" spans="13:13">
+    <row r="965" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M965">
         <v>6718</v>
       </c>
     </row>
-    <row r="966" spans="13:13">
+    <row r="966" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M966">
         <v>7297</v>
       </c>
     </row>
-    <row r="967" spans="13:13">
+    <row r="967" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M967">
         <v>6694</v>
       </c>
     </row>
-    <row r="968" spans="13:13">
+    <row r="968" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M968">
         <v>6673</v>
       </c>
     </row>
-    <row r="969" spans="13:13">
+    <row r="969" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M969">
         <v>6299</v>
       </c>
     </row>
-    <row r="970" spans="13:13">
+    <row r="970" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M970">
         <v>6832</v>
       </c>
     </row>
-    <row r="971" spans="13:13">
+    <row r="971" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M971">
         <v>6966</v>
       </c>
     </row>
-    <row r="972" spans="13:13">
+    <row r="972" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M972">
         <v>7076</v>
       </c>
     </row>
-    <row r="973" spans="13:13">
+    <row r="973" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M973">
         <v>6773</v>
       </c>
     </row>
-    <row r="974" spans="13:13">
+    <row r="974" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M974">
         <v>6267</v>
       </c>
     </row>
-    <row r="975" spans="13:13">
+    <row r="975" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M975">
         <v>5795</v>
       </c>
     </row>
-    <row r="976" spans="13:13">
+    <row r="976" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M976">
         <v>7427</v>
       </c>
     </row>
-    <row r="977" spans="13:13">
+    <row r="977" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M977">
         <v>6871</v>
       </c>
     </row>
-    <row r="978" spans="13:13">
+    <row r="978" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M978">
         <v>6338</v>
       </c>
     </row>
-    <row r="979" spans="13:13">
+    <row r="979" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M979">
         <v>6069</v>
       </c>
     </row>
-    <row r="980" spans="13:13">
+    <row r="980" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M980">
         <v>6675</v>
       </c>
     </row>
-    <row r="981" spans="13:13">
+    <row r="981" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M981">
         <v>7808</v>
       </c>
     </row>
-    <row r="982" spans="13:13">
+    <row r="982" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M982">
         <v>6802</v>
       </c>
     </row>
-    <row r="983" spans="13:13">
+    <row r="983" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M983">
         <v>6807</v>
       </c>
     </row>
-    <row r="984" spans="13:13">
+    <row r="984" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M984">
         <v>7583</v>
       </c>
     </row>
-    <row r="985" spans="13:13">
+    <row r="985" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M985">
         <v>6839</v>
       </c>
     </row>
-    <row r="986" spans="13:13">
+    <row r="986" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M986">
         <v>6770</v>
       </c>
     </row>
-    <row r="987" spans="13:13">
+    <row r="987" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M987">
         <v>6811</v>
       </c>
     </row>
-    <row r="988" spans="13:13">
+    <row r="988" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M988">
         <v>6397</v>
       </c>
     </row>
-    <row r="989" spans="13:13">
+    <row r="989" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M989">
         <v>6142</v>
       </c>
     </row>
-    <row r="990" spans="13:13">
+    <row r="990" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M990">
         <v>7102</v>
       </c>
     </row>
-    <row r="991" spans="13:13">
+    <row r="991" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M991">
         <v>6855</v>
       </c>
     </row>
-    <row r="992" spans="13:13">
+    <row r="992" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M992">
         <v>6910</v>
       </c>
     </row>
-    <row r="993" spans="13:13">
+    <row r="993" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M993">
         <v>6955</v>
       </c>
     </row>
-    <row r="994" spans="13:13">
+    <row r="994" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M994">
         <v>6543</v>
       </c>
     </row>
-    <row r="995" spans="13:13">
+    <row r="995" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M995">
         <v>6930</v>
       </c>
     </row>
-    <row r="996" spans="13:13">
+    <row r="996" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M996">
         <v>8993</v>
       </c>
     </row>
-    <row r="997" spans="13:13">
+    <row r="997" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M997">
         <v>5774</v>
       </c>
     </row>
-    <row r="998" spans="13:13">
+    <row r="998" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M998">
         <v>6280</v>
       </c>
     </row>
-    <row r="999" spans="13:13">
+    <row r="999" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M999">
         <v>6467</v>
       </c>
     </row>
-    <row r="1000" spans="13:13">
+    <row r="1000" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1000">
         <v>6432</v>
       </c>
     </row>
-    <row r="1001" spans="13:13">
+    <row r="1001" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1001">
         <v>6961</v>
       </c>
     </row>
-    <row r="1002" spans="13:13">
+    <row r="1002" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1002">
         <v>6837</v>
       </c>
     </row>
-    <row r="1003" spans="13:13">
+    <row r="1003" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1003">
         <v>6729</v>
       </c>
     </row>
-    <row r="1004" spans="13:13">
+    <row r="1004" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1004">
         <v>7229</v>
       </c>
     </row>
-    <row r="1005" spans="13:13">
+    <row r="1005" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1005">
         <v>7830</v>
       </c>
     </row>
-    <row r="1006" spans="13:13">
+    <row r="1006" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1006">
         <v>6591</v>
       </c>
     </row>
-    <row r="1007" spans="13:13">
+    <row r="1007" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1007">
         <v>6554</v>
       </c>
     </row>
-    <row r="1008" spans="13:13">
+    <row r="1008" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1008">
         <v>6356</v>
       </c>
     </row>
-    <row r="1009" spans="13:13">
+    <row r="1009" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1009">
         <v>6522</v>
       </c>
     </row>
-    <row r="1010" spans="13:13">
+    <row r="1010" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1010">
         <v>6090</v>
       </c>
     </row>
-    <row r="1011" spans="13:13">
+    <row r="1011" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1011">
         <v>6614</v>
       </c>
     </row>
-    <row r="1012" spans="13:13">
+    <row r="1012" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1012">
         <v>6315</v>
       </c>
     </row>
-    <row r="1013" spans="13:13">
+    <row r="1013" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1013">
         <v>6059</v>
       </c>
     </row>
-    <row r="1014" spans="13:13">
+    <row r="1014" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1014">
         <v>6295</v>
       </c>
     </row>
-    <row r="1015" spans="13:13">
+    <row r="1015" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1015">
         <v>6450</v>
       </c>
     </row>
-    <row r="1016" spans="13:13">
+    <row r="1016" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1016">
         <v>7263</v>
       </c>
     </row>
-    <row r="1017" spans="13:13">
+    <row r="1017" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1017">
         <v>7567</v>
       </c>
     </row>
-    <row r="1018" spans="13:13">
+    <row r="1018" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1018">
         <v>6995</v>
       </c>
     </row>
-    <row r="1019" spans="13:13">
+    <row r="1019" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1019">
         <v>6964</v>
       </c>
     </row>
-    <row r="1020" spans="13:13">
+    <row r="1020" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1020">
         <v>6011</v>
       </c>
     </row>
-    <row r="1021" spans="13:13">
+    <row r="1021" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1021">
         <v>6611</v>
       </c>
     </row>
-    <row r="1022" spans="13:13">
+    <row r="1022" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1022">
         <v>6232</v>
       </c>
     </row>
-    <row r="1023" spans="13:13">
+    <row r="1023" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1023">
         <v>6863</v>
       </c>
     </row>
-    <row r="1024" spans="13:13">
+    <row r="1024" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1024">
         <v>5975</v>
       </c>
     </row>
-    <row r="1025" spans="13:13">
+    <row r="1025" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M1025">
         <v>6675</v>
       </c>
@@ -8658,16 +8663,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="13.125" customWidth="1"/>
+    <col min="14" max="14" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -8679,7 +8684,7 @@
       <c r="K1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5533</v>
       </c>
@@ -8687,7 +8692,7 @@
         <v>5533</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
@@ -8696,7 +8701,7 @@
       <c r="K4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1303.1202000000001</v>
       </c>
@@ -8716,20 +8721,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="15.625" customWidth="1"/>
     <col min="14" max="14" width="15.5" customWidth="1"/>
-    <col min="17" max="17" width="15.1640625" customWidth="1"/>
+    <col min="17" max="17" width="15.125" customWidth="1"/>
     <col min="20" max="20" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -8773,7 +8778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4788</v>
       </c>
@@ -8796,7 +8801,7 @@
         <v>3241.28125</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4760</v>
       </c>
@@ -8807,7 +8812,7 @@
         <v>3626</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4587</v>
       </c>
@@ -8839,7 +8844,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4707</v>
       </c>
@@ -8859,7 +8864,7 @@
         <v>18.5808</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4559</v>
       </c>
@@ -8870,7 +8875,7 @@
         <v>3062</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4671</v>
       </c>
@@ -8881,7 +8886,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4571</v>
       </c>
@@ -8892,7 +8897,7 @@
         <v>3994</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4768</v>
       </c>
@@ -8903,7 +8908,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4784</v>
       </c>
@@ -8914,7 +8919,7 @@
         <v>4552</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4565</v>
       </c>
@@ -8925,7 +8930,7 @@
         <v>4271</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4680</v>
       </c>
@@ -8936,7 +8941,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4562</v>
       </c>
@@ -8947,7 +8952,7 @@
         <v>4333</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4619</v>
       </c>
@@ -8958,7 +8963,7 @@
         <v>4277</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4505</v>
       </c>
@@ -8969,7 +8974,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4779</v>
       </c>
@@ -8980,7 +8985,7 @@
         <v>4580</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4736</v>
       </c>
@@ -8991,7 +8996,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>4793</v>
       </c>
@@ -8999,7 +9004,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>4781</v>
       </c>
@@ -9007,7 +9012,7 @@
         <v>3446</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>4479</v>
       </c>
@@ -9015,7 +9020,7 @@
         <v>4358</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>4181</v>
       </c>
@@ -9023,7 +9028,7 @@
         <v>3755</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>4417</v>
       </c>
@@ -9031,7 +9036,7 @@
         <v>4277</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>4302</v>
       </c>
@@ -9039,7 +9044,7 @@
         <v>4325</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>4629</v>
       </c>
@@ -9047,7 +9052,7 @@
         <v>3793</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>4755</v>
       </c>
@@ -9055,7 +9060,7 @@
         <v>4046</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>4795</v>
       </c>
@@ -9063,7 +9068,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>4466</v>
       </c>
@@ -9071,7 +9076,7 @@
         <v>4391</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>4684</v>
       </c>
@@ -9079,7 +9084,7 @@
         <v>4585</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>4774</v>
       </c>
@@ -9087,7 +9092,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>4595</v>
       </c>
@@ -9095,7 +9100,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>4543</v>
       </c>
@@ -9103,7 +9108,7 @@
         <v>4699</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D32">
         <v>4346</v>
       </c>
@@ -9111,7 +9116,7 @@
         <v>4197</v>
       </c>
     </row>
-    <row r="33" spans="4:7">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>4705</v>
       </c>
@@ -9119,162 +9124,162 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="34" spans="4:7">
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G34">
         <v>1725</v>
       </c>
     </row>
-    <row r="35" spans="4:7">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G35">
         <v>4026</v>
       </c>
     </row>
-    <row r="36" spans="4:7">
+    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G36">
         <v>1766</v>
       </c>
     </row>
-    <row r="37" spans="4:7">
+    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G37">
         <v>1537</v>
       </c>
     </row>
-    <row r="38" spans="4:7">
+    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G38">
         <v>4154</v>
       </c>
     </row>
-    <row r="39" spans="4:7">
+    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G39">
         <v>4405</v>
       </c>
     </row>
-    <row r="40" spans="4:7">
+    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G40">
         <v>4128</v>
       </c>
     </row>
-    <row r="41" spans="4:7">
+    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G41">
         <v>2533</v>
       </c>
     </row>
-    <row r="42" spans="4:7">
+    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G42">
         <v>4344</v>
       </c>
     </row>
-    <row r="43" spans="4:7">
+    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G43">
         <v>3944</v>
       </c>
     </row>
-    <row r="44" spans="4:7">
+    <row r="44" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G44">
         <v>1561</v>
       </c>
     </row>
-    <row r="45" spans="4:7">
+    <row r="45" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G45">
         <v>4639</v>
       </c>
     </row>
-    <row r="46" spans="4:7">
+    <row r="46" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G46">
         <v>1876</v>
       </c>
     </row>
-    <row r="47" spans="4:7">
+    <row r="47" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G47">
         <v>4229</v>
       </c>
     </row>
-    <row r="48" spans="4:7">
+    <row r="48" spans="4:7" x14ac:dyDescent="0.25">
       <c r="G48">
         <v>4559</v>
       </c>
     </row>
-    <row r="49" spans="7:7">
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G49">
         <v>4756</v>
       </c>
     </row>
-    <row r="50" spans="7:7">
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G50">
         <v>2348</v>
       </c>
     </row>
-    <row r="51" spans="7:7">
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G51">
         <v>4765</v>
       </c>
     </row>
-    <row r="52" spans="7:7">
+    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G52">
         <v>4445</v>
       </c>
     </row>
-    <row r="53" spans="7:7">
+    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G53">
         <v>4251</v>
       </c>
     </row>
-    <row r="54" spans="7:7">
+    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G54">
         <v>2763</v>
       </c>
     </row>
-    <row r="55" spans="7:7">
+    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G55">
         <v>3710</v>
       </c>
     </row>
-    <row r="56" spans="7:7">
+    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G56">
         <v>2116</v>
       </c>
     </row>
-    <row r="57" spans="7:7">
+    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G57">
         <v>3699</v>
       </c>
     </row>
-    <row r="58" spans="7:7">
+    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G58">
         <v>2005</v>
       </c>
     </row>
-    <row r="59" spans="7:7">
+    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G59">
         <v>3697</v>
       </c>
     </row>
-    <row r="60" spans="7:7">
+    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G60">
         <v>1672</v>
       </c>
     </row>
-    <row r="61" spans="7:7">
+    <row r="61" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G61">
         <v>1563</v>
       </c>
     </row>
-    <row r="62" spans="7:7">
+    <row r="62" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G62">
         <v>3425</v>
       </c>
     </row>
-    <row r="63" spans="7:7">
+    <row r="63" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G63">
         <v>2758</v>
       </c>
     </row>
-    <row r="64" spans="7:7">
+    <row r="64" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G64">
         <v>3865</v>
       </c>
     </row>
-    <row r="65" spans="7:7">
+    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G65">
         <v>1870</v>
       </c>
@@ -9298,12 +9303,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -9311,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4722</v>
       </c>
@@ -9319,12 +9324,12 @@
         <v>4722</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>713.721</v>
       </c>
